--- a/Models/Volume of Distribution/Models_v4 ADME.xlsx
+++ b/Models/Volume of Distribution/Models_v4 ADME.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositoris_git\model_preparation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrique\Documents\GitHub\IRB\Models\Volume of Distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E97A26-431B-4FC6-B978-C67AB3DE56D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5701F284-682E-4423-87EA-A37BBBB95244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="165" windowWidth="22230" windowHeight="14970" tabRatio="681" firstSheet="3" activeTab="6" xr2:uid="{CBB9F188-2194-4BB3-97B7-75E25C5766AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="681" firstSheet="3" activeTab="7" xr2:uid="{CBB9F188-2194-4BB3-97B7-75E25C5766AD}"/>
   </bookViews>
   <sheets>
     <sheet name="half life no3D" sheetId="7" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="VDss prueba" sheetId="12" r:id="rId3"/>
     <sheet name="VDss_log prueba" sheetId="13" r:id="rId4"/>
     <sheet name="VDss" sheetId="10" r:id="rId5"/>
-    <sheet name="VDss_3D_log prueba" sheetId="14" r:id="rId6"/>
-    <sheet name="VDss_log10 prueba" sheetId="15" r:id="rId7"/>
+    <sheet name="VDss_log10 prueba" sheetId="15" r:id="rId6"/>
+    <sheet name="VDss_3D_log prueba" sheetId="14" r:id="rId7"/>
+    <sheet name="Hoja1" sheetId="16" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2762" uniqueCount="194">
   <si>
     <t>Amb_3D</t>
   </si>
@@ -605,6 +606,42 @@
   <si>
     <t>['C-022', 'nR_7_False_True_False_False', 'B10[Cl-Cl]', 'nRCOO', 'nR_10_False_False_False_True', 'ATSC5dv', 'ATSC2v', 'F09[N-N]', 'MATS5c', 'B09[N-N]', 'ATSC2Z', 'F07[N-N]', 'ATSC5c', 'B02[O-O]', 'ATSC2c', 'H-051', 'GATS3c', 'MATS5se', 'GATS5se', 'B10[N-Cl]', 'BELd-1', 'EState_VSA7', 'ATSC8i', 'C-006', 'B07[F-Cl]']</t>
   </si>
+  <si>
+    <t>PI_RF</t>
+  </si>
+  <si>
+    <t>PI_ET</t>
+  </si>
+  <si>
+    <t>PI_DT</t>
+  </si>
+  <si>
+    <t>LG_l1</t>
+  </si>
+  <si>
+    <t>LG_l2</t>
+  </si>
+  <si>
+    <t>LG_rmse</t>
+  </si>
+  <si>
+    <t>['nRCOO', 'AATSC1c', 'AATSC0v', 'AATSC2s', 'ATSC3c', 'SIC0', 'BELi-1', 'GATS1p', 'AATS1Z', 'ATSC1Z', 'GATS2dv', 'GATS1d', 'SssssC', 'MAXssCH2', 'AATSC1Z', 'D/Dr6', 'GATS2se', 'AATS5s', 'AATS0p', 'AATSC1dv']</t>
+  </si>
+  <si>
+    <t>['nRCOO', 'B02[O-O]', 'B04[O-S]', 'C-039', 'AATSC1c', 'AATSC0v', 'MATS1c', 'MAXssCH2', 'O-058', 'nDouble', 'F03[N-O]', 'B02[N-O]', 'nKetone', 'nR_4_False_False_False_True', 'SIC0', 'AATSC2s', 'F02[O-O]', 'B05[O-S]', 'AATSC1s', 'MAXDN']</t>
+  </si>
+  <si>
+    <t>['nRCOO', 'AATSC1c', 'SssssC', 'AATSC0v', 'SMR_VSA6', 'ESpm03d', 'nR_4_False_False_False_True', 'ATSC3c', 'ATSC3dv', 'nNH2', 'AATS3i', 'nAmide', 'NdssC', 'JhetZ', 'F09[C-N]', 'PEOE_VSA8', 'D/Dr10', 'GATS4i', 'MATS1s', 'MAXssCH2']</t>
+  </si>
+  <si>
+    <t>['GATS4se', 'MAXDP', 'ATSC5dv', 'GATS4s', 'AATSC1v', 'ATSC1dv', 'ATSC5d', 'GATS5c', 'GATS5Z', 'B04[N-Cl]', 'ATSC8c', 'EState_VSA3', 'ATSC3p', 'GATS5i', 'GATS1se', 'ATSC7dv', 'JGI7', 'ATSC7v', 'ATSC6dv', 'ATSC3c']</t>
+  </si>
+  <si>
+    <t>['MAXDP', 'GATS4se', 'GATS4s', 'ATSC5dv', 'GATS5Z', 'SLogP_VSA5', 'GATS4c', 'AATSC1v', 'JhetZ', 'ATSC3p', 'ATSC1dv', 'PEOE_VSA7', 'ATSC8c', 'EState_VSA3', 'VSA_EState8', 'B04[N-Cl]', 'SIC0', 'GATS5c', 'ATSC6v', 'JGI7']</t>
+  </si>
+  <si>
+    <t>['GATS4se', 'MAXDP', 'ATSC2dv', 'GATS4s', 'GATS5Z', 'ATSC5dv', 'AATS6s', 'JGI7', 'ATSC5d', 'AATSC1v', 'B04[N-Cl]', 'GATS5c', 'ATSC1dv', 'ATSC3p', 'ATSC8c', 'ATSC6Z', 'EEig03d', 'ATSC3c', 'VSA_EState8', 'EState_VSA3']</t>
+  </si>
 </sst>
 </file>
 
@@ -795,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -835,11 +872,98 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="246">
+  <dxfs count="268">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -3234,23 +3358,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{70FD3F2D-8378-4A51-9E84-2D836D070D18}" name="Tabla435513172026" displayName="Tabla435513172026" ref="E7:S26" totalsRowShown="0" headerRowDxfId="245" dataDxfId="244">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{70FD3F2D-8378-4A51-9E84-2D836D070D18}" name="Tabla435513172026" displayName="Tabla435513172026" ref="E7:S26" totalsRowShown="0" headerRowDxfId="267" dataDxfId="266">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{C0F1917E-7586-4F52-8E89-580CFCA6BD9F}" name="model_id" dataDxfId="243"/>
-    <tableColumn id="2" xr3:uid="{EAF56241-3120-422F-A773-FF7810E64CE5}" name="nº descriptores" dataDxfId="242"/>
+    <tableColumn id="1" xr3:uid="{C0F1917E-7586-4F52-8E89-580CFCA6BD9F}" name="model_id" dataDxfId="265"/>
+    <tableColumn id="2" xr3:uid="{EAF56241-3120-422F-A773-FF7810E64CE5}" name="nº descriptores" dataDxfId="264"/>
     <tableColumn id="3" xr3:uid="{0328BF5F-F427-4087-ACC0-54C5B3E339B7}" name="descriptor selection"/>
-    <tableColumn id="4" xr3:uid="{E255D1B8-0F92-4773-BD4C-24DD9FA30BA1}" name="Algoritmo" dataDxfId="241"/>
-    <tableColumn id="5" xr3:uid="{75E2954B-E8C1-44F9-B4B7-BBCA8F261F7C}" name="n_estimators GS" dataDxfId="240"/>
-    <tableColumn id="6" xr3:uid="{1A293FB2-AB29-4514-9F89-E2F2E47DC3F9}" name="EV_train" dataDxfId="239"/>
-    <tableColumn id="7" xr3:uid="{1D7BBC20-115F-4680-BB59-036E8705D9AB}" name="MAE_train" dataDxfId="238"/>
-    <tableColumn id="8" xr3:uid="{E356D20A-03F7-493A-BADA-387454DB82E6}" name="MSE_train" dataDxfId="237"/>
-    <tableColumn id="9" xr3:uid="{AB32EA6D-49C8-4542-B215-CB90DD4E4844}" name="MEDAE_train" dataDxfId="236"/>
-    <tableColumn id="10" xr3:uid="{0A933C51-4AD6-4A1A-B3F2-3FB93B11BAB3}" name="RScore_train" dataDxfId="235"/>
-    <tableColumn id="11" xr3:uid="{129A3089-6DF8-4B8C-8E3A-8DE561A6A3E3}" name="EV_test" dataDxfId="234"/>
-    <tableColumn id="12" xr3:uid="{BDCAC6E9-C4AE-46C9-846F-4269E678ED39}" name="MAE_test" dataDxfId="233"/>
-    <tableColumn id="13" xr3:uid="{72857E6C-4D92-4CF9-B34C-8FE947130969}" name="MSE_test" dataDxfId="232"/>
-    <tableColumn id="14" xr3:uid="{1110DF33-A82C-4814-968B-428E1B5AA484}" name="MEDAE_test" dataDxfId="231"/>
-    <tableColumn id="15" xr3:uid="{94ECD71C-907A-49E4-8331-E3349227A9D2}" name="RScore_test" dataDxfId="230"/>
+    <tableColumn id="4" xr3:uid="{E255D1B8-0F92-4773-BD4C-24DD9FA30BA1}" name="Algoritmo" dataDxfId="263"/>
+    <tableColumn id="5" xr3:uid="{75E2954B-E8C1-44F9-B4B7-BBCA8F261F7C}" name="n_estimators GS" dataDxfId="262"/>
+    <tableColumn id="6" xr3:uid="{1A293FB2-AB29-4514-9F89-E2F2E47DC3F9}" name="EV_train" dataDxfId="261"/>
+    <tableColumn id="7" xr3:uid="{1D7BBC20-115F-4680-BB59-036E8705D9AB}" name="MAE_train" dataDxfId="260"/>
+    <tableColumn id="8" xr3:uid="{E356D20A-03F7-493A-BADA-387454DB82E6}" name="MSE_train" dataDxfId="259"/>
+    <tableColumn id="9" xr3:uid="{AB32EA6D-49C8-4542-B215-CB90DD4E4844}" name="MEDAE_train" dataDxfId="258"/>
+    <tableColumn id="10" xr3:uid="{0A933C51-4AD6-4A1A-B3F2-3FB93B11BAB3}" name="RScore_train" dataDxfId="257"/>
+    <tableColumn id="11" xr3:uid="{129A3089-6DF8-4B8C-8E3A-8DE561A6A3E3}" name="EV_test" dataDxfId="256"/>
+    <tableColumn id="12" xr3:uid="{BDCAC6E9-C4AE-46C9-846F-4269E678ED39}" name="MAE_test" dataDxfId="255"/>
+    <tableColumn id="13" xr3:uid="{72857E6C-4D92-4CF9-B34C-8FE947130969}" name="MSE_test" dataDxfId="254"/>
+    <tableColumn id="14" xr3:uid="{1110DF33-A82C-4814-968B-428E1B5AA484}" name="MEDAE_test" dataDxfId="253"/>
+    <tableColumn id="15" xr3:uid="{94ECD71C-907A-49E4-8331-E3349227A9D2}" name="RScore_test" dataDxfId="252"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3262,8 +3386,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{90313AF2-1B42-42E5-BA73-7CA25DCAD481}" name="model"/>
     <tableColumn id="2" xr3:uid="{FBA850B5-AC69-4334-B895-6F102C841D58}" name="features"/>
-    <tableColumn id="3" xr3:uid="{243C7179-8BB0-4717-B0F4-DE4969E932D6}" name="r2_train" dataDxfId="141"/>
-    <tableColumn id="4" xr3:uid="{322DA7FF-4C1A-4A2A-9324-54A6FD55C614}" name="r2_test" dataDxfId="140"/>
+    <tableColumn id="3" xr3:uid="{243C7179-8BB0-4717-B0F4-DE4969E932D6}" name="r2_train" dataDxfId="163"/>
+    <tableColumn id="4" xr3:uid="{322DA7FF-4C1A-4A2A-9324-54A6FD55C614}" name="r2_test" dataDxfId="162"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3275,8 +3399,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9022B434-8528-41D2-90F6-0BCA18845DF7}" name="model"/>
     <tableColumn id="2" xr3:uid="{CA36DA1A-2974-45E9-9158-20B1AB5CE80B}" name="features"/>
-    <tableColumn id="3" xr3:uid="{6BD69BC2-109E-4040-9D54-AD68CFE1428D}" name="r2_train" dataDxfId="139"/>
-    <tableColumn id="4" xr3:uid="{161A7F3F-42F2-4526-BF07-D8EC49CDB0DB}" name="r2_test" dataDxfId="138"/>
+    <tableColumn id="3" xr3:uid="{6BD69BC2-109E-4040-9D54-AD68CFE1428D}" name="r2_train" dataDxfId="161"/>
+    <tableColumn id="4" xr3:uid="{161A7F3F-42F2-4526-BF07-D8EC49CDB0DB}" name="r2_test" dataDxfId="160"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3288,8 +3412,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3DC2B0EE-C876-4548-947D-5EBB7CEF383E}" name="model"/>
     <tableColumn id="2" xr3:uid="{E3DEE9B4-F292-4D75-9856-AFC02549BED8}" name="features"/>
-    <tableColumn id="3" xr3:uid="{1C6B72DB-CC65-4ADE-89A9-203DD1DD6CCE}" name="r2_train" dataDxfId="137"/>
-    <tableColumn id="4" xr3:uid="{05E202FF-921E-48DE-B087-BB2C0CF99653}" name="r2_test" dataDxfId="136"/>
+    <tableColumn id="3" xr3:uid="{1C6B72DB-CC65-4ADE-89A9-203DD1DD6CCE}" name="r2_train" dataDxfId="159"/>
+    <tableColumn id="4" xr3:uid="{05E202FF-921E-48DE-B087-BB2C0CF99653}" name="r2_test" dataDxfId="158"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3301,8 +3425,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6D33DED9-8661-409B-A4D9-E24BF8443CE5}" name="model"/>
     <tableColumn id="2" xr3:uid="{6551A9CE-AB41-4D9B-B891-CD40104D15B3}" name="features"/>
-    <tableColumn id="3" xr3:uid="{33DF899D-BF51-4FF5-B667-6A5C33773552}" name="r2_train" dataDxfId="135"/>
-    <tableColumn id="4" xr3:uid="{A19C04E5-1A44-4A1E-AB08-F3B7FCFFAA74}" name="r2_test" dataDxfId="134"/>
+    <tableColumn id="3" xr3:uid="{33DF899D-BF51-4FF5-B667-6A5C33773552}" name="r2_train" dataDxfId="157"/>
+    <tableColumn id="4" xr3:uid="{A19C04E5-1A44-4A1E-AB08-F3B7FCFFAA74}" name="r2_test" dataDxfId="156"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3314,8 +3438,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{02B31795-0DB4-411F-BC30-282B5A600287}" name="model"/>
     <tableColumn id="2" xr3:uid="{21D20AB2-16FE-4244-BC38-44E43AFE3407}" name="features"/>
-    <tableColumn id="3" xr3:uid="{DB47BD93-5E5C-421C-9905-126C47199414}" name="r2_train" dataDxfId="133"/>
-    <tableColumn id="4" xr3:uid="{9C3BABBA-135B-48C8-AB74-95F239A8D7AA}" name="r2_test" dataDxfId="132"/>
+    <tableColumn id="3" xr3:uid="{DB47BD93-5E5C-421C-9905-126C47199414}" name="r2_train" dataDxfId="155"/>
+    <tableColumn id="4" xr3:uid="{9C3BABBA-135B-48C8-AB74-95F239A8D7AA}" name="r2_test" dataDxfId="154"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3327,8 +3451,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F3B6A486-5E89-4C86-A8E5-A5FFCE5FF330}" name="model"/>
     <tableColumn id="2" xr3:uid="{45777FA4-33D5-4944-888A-F5FD21BC20E5}" name="features"/>
-    <tableColumn id="3" xr3:uid="{4421FFCB-0EC9-4457-9139-EF80B3403EFF}" name="r2_train" dataDxfId="131"/>
-    <tableColumn id="4" xr3:uid="{C2EF2B2D-892D-497A-BFB0-A7562D57B793}" name="r2_test" dataDxfId="130"/>
+    <tableColumn id="3" xr3:uid="{4421FFCB-0EC9-4457-9139-EF80B3403EFF}" name="r2_train" dataDxfId="153"/>
+    <tableColumn id="4" xr3:uid="{C2EF2B2D-892D-497A-BFB0-A7562D57B793}" name="r2_test" dataDxfId="152"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3340,31 +3464,31 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5E4102A9-1E52-406B-ABE4-3A02F709F9DC}" name="model"/>
     <tableColumn id="2" xr3:uid="{69E910E6-4869-435E-B333-4CACC54FCA2C}" name="features"/>
-    <tableColumn id="3" xr3:uid="{B707232B-3F86-4256-B60E-03FE664E6409}" name="r2_train" dataDxfId="129"/>
-    <tableColumn id="4" xr3:uid="{2D6B6EB9-530B-4AAA-8317-8403AB63F39D}" name="r2_test" dataDxfId="128"/>
+    <tableColumn id="3" xr3:uid="{B707232B-3F86-4256-B60E-03FE664E6409}" name="r2_train" dataDxfId="151"/>
+    <tableColumn id="4" xr3:uid="{2D6B6EB9-530B-4AAA-8317-8403AB63F39D}" name="r2_test" dataDxfId="150"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{EEFD8668-BC7C-4C72-8CC7-90F705384200}" name="Tabla435551265414672" displayName="Tabla435551265414672" ref="K75:Y81" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{EEFD8668-BC7C-4C72-8CC7-90F705384200}" name="Tabla435551265414672" displayName="Tabla435551265414672" ref="K75:Y81" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{9D19D7DA-009F-482D-8315-A6590109B44C}" name="model_id" dataDxfId="125"/>
-    <tableColumn id="2" xr3:uid="{5FD70435-5F96-4613-B66F-EB73E9F5BC88}" name="nº descriptores" dataDxfId="124"/>
-    <tableColumn id="3" xr3:uid="{AB0D3331-5C75-4BD0-AF04-539E807D6DF9}" name="descriptor selection" dataDxfId="123"/>
-    <tableColumn id="4" xr3:uid="{0F3A1D7D-DAC1-4827-9E62-6F64455B527A}" name="Algoritmo" dataDxfId="122"/>
-    <tableColumn id="5" xr3:uid="{21FA603D-815D-4717-B5C6-E977CDF6DC8F}" name="n_estimators GS" dataDxfId="121"/>
-    <tableColumn id="6" xr3:uid="{D72D5334-9C63-4595-AE77-83C232B5EEFD}" name="EV_train" dataDxfId="120"/>
-    <tableColumn id="7" xr3:uid="{995A599F-F4A2-4665-AB13-FF8C6DF86181}" name="MAE_train" dataDxfId="119"/>
-    <tableColumn id="8" xr3:uid="{DEAC3FA8-FF19-4918-B46B-A0053F89C878}" name="MSE_train" dataDxfId="118"/>
-    <tableColumn id="9" xr3:uid="{0BD90B1B-227F-4C54-B04B-BA410BEB7B88}" name="MEDAE_train" dataDxfId="117"/>
-    <tableColumn id="10" xr3:uid="{DAB3F498-2F6A-41B9-BD9D-B599F104AF88}" name="RScore_train" dataDxfId="116"/>
-    <tableColumn id="11" xr3:uid="{D69D4E50-D61F-4CB3-91DC-96967D13FC1B}" name="EV_test" dataDxfId="115"/>
-    <tableColumn id="12" xr3:uid="{7C5B9380-6816-4367-AD58-2B17255A4CCD}" name="MAE_test" dataDxfId="114"/>
-    <tableColumn id="13" xr3:uid="{A9EC9FD0-9D35-4EF7-9E92-3F73B674D7E6}" name="MSE_test" dataDxfId="113"/>
-    <tableColumn id="14" xr3:uid="{ADFDD0AD-949D-4CC4-8E80-2B863132A12F}" name="MEDAE_test" dataDxfId="112"/>
-    <tableColumn id="15" xr3:uid="{4D85E4A6-AFC7-42C8-8DAB-CC5625A87D8B}" name="RScore_test" dataDxfId="111"/>
+    <tableColumn id="1" xr3:uid="{9D19D7DA-009F-482D-8315-A6590109B44C}" name="model_id" dataDxfId="147"/>
+    <tableColumn id="2" xr3:uid="{5FD70435-5F96-4613-B66F-EB73E9F5BC88}" name="nº descriptores" dataDxfId="146"/>
+    <tableColumn id="3" xr3:uid="{AB0D3331-5C75-4BD0-AF04-539E807D6DF9}" name="descriptor selection" dataDxfId="145"/>
+    <tableColumn id="4" xr3:uid="{0F3A1D7D-DAC1-4827-9E62-6F64455B527A}" name="Algoritmo" dataDxfId="144"/>
+    <tableColumn id="5" xr3:uid="{21FA603D-815D-4717-B5C6-E977CDF6DC8F}" name="n_estimators GS" dataDxfId="143"/>
+    <tableColumn id="6" xr3:uid="{D72D5334-9C63-4595-AE77-83C232B5EEFD}" name="EV_train" dataDxfId="142"/>
+    <tableColumn id="7" xr3:uid="{995A599F-F4A2-4665-AB13-FF8C6DF86181}" name="MAE_train" dataDxfId="141"/>
+    <tableColumn id="8" xr3:uid="{DEAC3FA8-FF19-4918-B46B-A0053F89C878}" name="MSE_train" dataDxfId="140"/>
+    <tableColumn id="9" xr3:uid="{0BD90B1B-227F-4C54-B04B-BA410BEB7B88}" name="MEDAE_train" dataDxfId="139"/>
+    <tableColumn id="10" xr3:uid="{DAB3F498-2F6A-41B9-BD9D-B599F104AF88}" name="RScore_train" dataDxfId="138"/>
+    <tableColumn id="11" xr3:uid="{D69D4E50-D61F-4CB3-91DC-96967D13FC1B}" name="EV_test" dataDxfId="137"/>
+    <tableColumn id="12" xr3:uid="{7C5B9380-6816-4367-AD58-2B17255A4CCD}" name="MAE_test" dataDxfId="136"/>
+    <tableColumn id="13" xr3:uid="{A9EC9FD0-9D35-4EF7-9E92-3F73B674D7E6}" name="MSE_test" dataDxfId="135"/>
+    <tableColumn id="14" xr3:uid="{ADFDD0AD-949D-4CC4-8E80-2B863132A12F}" name="MEDAE_test" dataDxfId="134"/>
+    <tableColumn id="15" xr3:uid="{4D85E4A6-AFC7-42C8-8DAB-CC5625A87D8B}" name="RScore_test" dataDxfId="133"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3376,8 +3500,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5C607A62-5A21-4EFE-80DA-53066A046588}" name="model"/>
     <tableColumn id="2" xr3:uid="{73383D90-683C-48B8-AFC6-C38543CDF232}" name="features"/>
-    <tableColumn id="3" xr3:uid="{3A3FED04-7603-43C8-92A7-96715B849442}" name="r2_train" dataDxfId="110"/>
-    <tableColumn id="4" xr3:uid="{4773BC62-C5EA-4FDC-81D8-8068C50999F6}" name="r2_test" dataDxfId="109"/>
+    <tableColumn id="3" xr3:uid="{3A3FED04-7603-43C8-92A7-96715B849442}" name="r2_train" dataDxfId="132"/>
+    <tableColumn id="4" xr3:uid="{4773BC62-C5EA-4FDC-81D8-8068C50999F6}" name="r2_test" dataDxfId="131"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3389,31 +3513,31 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A291D3F4-1BF7-4265-AB40-F12132881238}" name="model"/>
     <tableColumn id="2" xr3:uid="{0F897DF3-1D6A-448E-8D40-6F68086950B9}" name="features"/>
-    <tableColumn id="3" xr3:uid="{D6EAACBA-7751-4BDC-A7A6-D5A70C435F78}" name="r2_train" dataDxfId="108"/>
-    <tableColumn id="4" xr3:uid="{F6E7A33E-9E50-42D4-8E47-6F81A109DAFA}" name="r2_test" dataDxfId="107"/>
+    <tableColumn id="3" xr3:uid="{D6EAACBA-7751-4BDC-A7A6-D5A70C435F78}" name="r2_train" dataDxfId="130"/>
+    <tableColumn id="4" xr3:uid="{F6E7A33E-9E50-42D4-8E47-6F81A109DAFA}" name="r2_test" dataDxfId="129"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{B80C9696-D9E3-4B79-B386-A4B2604D2B3A}" name="Tabla43551312182128" displayName="Tabla43551312182128" ref="E32:S51" totalsRowShown="0" headerRowDxfId="229" dataDxfId="228">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{B80C9696-D9E3-4B79-B386-A4B2604D2B3A}" name="Tabla43551312182128" displayName="Tabla43551312182128" ref="E32:S51" totalsRowShown="0" headerRowDxfId="251" dataDxfId="250">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{FFEEB3FB-F4A9-4223-8814-667B52D99529}" name="model_id" dataDxfId="227"/>
-    <tableColumn id="2" xr3:uid="{D8737DB4-938E-4D64-B054-DAB7461361C3}" name="nº descriptores" dataDxfId="226"/>
+    <tableColumn id="1" xr3:uid="{FFEEB3FB-F4A9-4223-8814-667B52D99529}" name="model_id" dataDxfId="249"/>
+    <tableColumn id="2" xr3:uid="{D8737DB4-938E-4D64-B054-DAB7461361C3}" name="nº descriptores" dataDxfId="248"/>
     <tableColumn id="3" xr3:uid="{F7909F4B-9BC5-4521-9F5A-7A6EB4F2B89C}" name="descriptor selection"/>
-    <tableColumn id="4" xr3:uid="{18CDA003-A6FD-46C3-979C-BCF802DBA6CA}" name="Algoritmo" dataDxfId="225"/>
-    <tableColumn id="5" xr3:uid="{DA7907D1-2E4C-4FE6-BA4E-25E0B321012A}" name="n_estimators GS" dataDxfId="224"/>
-    <tableColumn id="6" xr3:uid="{C8E0D745-0E6D-42F1-B7CF-965AC5ABD2E0}" name="EV_train" dataDxfId="223"/>
-    <tableColumn id="7" xr3:uid="{EA13FE2F-FBCF-4D0B-9F28-91DDE3819E94}" name="MAE_train" dataDxfId="222"/>
-    <tableColumn id="8" xr3:uid="{9094C814-7883-4096-9326-3ED4C8D6CD10}" name="MSE_train" dataDxfId="221"/>
-    <tableColumn id="9" xr3:uid="{453BEAE2-4EFD-4901-B6ED-14771F9198C0}" name="MEDAE_train" dataDxfId="220"/>
-    <tableColumn id="10" xr3:uid="{C643DEB9-4046-406F-BABE-8B649FDB0835}" name="RScore_train" dataDxfId="219"/>
-    <tableColumn id="11" xr3:uid="{7FB4323D-94DA-43EE-B276-BEF4E0D06F76}" name="EV_test" dataDxfId="218"/>
-    <tableColumn id="12" xr3:uid="{A3EBE461-7FF2-47D8-843B-150C013CE3A2}" name="MAE_test" dataDxfId="217"/>
-    <tableColumn id="13" xr3:uid="{ED00050C-D386-4982-BE5F-4F94534AA709}" name="MSE_test" dataDxfId="216"/>
-    <tableColumn id="14" xr3:uid="{47C232BA-23D2-4935-A2BB-43B78E22E9EE}" name="MEDAE_test" dataDxfId="215"/>
-    <tableColumn id="15" xr3:uid="{2C379E58-C57E-433B-A8E7-9930826AD3B6}" name="RScore_test" dataDxfId="214"/>
+    <tableColumn id="4" xr3:uid="{18CDA003-A6FD-46C3-979C-BCF802DBA6CA}" name="Algoritmo" dataDxfId="247"/>
+    <tableColumn id="5" xr3:uid="{DA7907D1-2E4C-4FE6-BA4E-25E0B321012A}" name="n_estimators GS" dataDxfId="246"/>
+    <tableColumn id="6" xr3:uid="{C8E0D745-0E6D-42F1-B7CF-965AC5ABD2E0}" name="EV_train" dataDxfId="245"/>
+    <tableColumn id="7" xr3:uid="{EA13FE2F-FBCF-4D0B-9F28-91DDE3819E94}" name="MAE_train" dataDxfId="244"/>
+    <tableColumn id="8" xr3:uid="{9094C814-7883-4096-9326-3ED4C8D6CD10}" name="MSE_train" dataDxfId="243"/>
+    <tableColumn id="9" xr3:uid="{453BEAE2-4EFD-4901-B6ED-14771F9198C0}" name="MEDAE_train" dataDxfId="242"/>
+    <tableColumn id="10" xr3:uid="{C643DEB9-4046-406F-BABE-8B649FDB0835}" name="RScore_train" dataDxfId="241"/>
+    <tableColumn id="11" xr3:uid="{7FB4323D-94DA-43EE-B276-BEF4E0D06F76}" name="EV_test" dataDxfId="240"/>
+    <tableColumn id="12" xr3:uid="{A3EBE461-7FF2-47D8-843B-150C013CE3A2}" name="MAE_test" dataDxfId="239"/>
+    <tableColumn id="13" xr3:uid="{ED00050C-D386-4982-BE5F-4F94534AA709}" name="MSE_test" dataDxfId="238"/>
+    <tableColumn id="14" xr3:uid="{47C232BA-23D2-4935-A2BB-43B78E22E9EE}" name="MEDAE_test" dataDxfId="237"/>
+    <tableColumn id="15" xr3:uid="{2C379E58-C57E-433B-A8E7-9930826AD3B6}" name="RScore_test" dataDxfId="236"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3425,8 +3549,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7B39A391-FBC0-42AB-9B21-B6372A4C8358}" name="model"/>
     <tableColumn id="2" xr3:uid="{698EF514-E80D-4E98-95A5-4810CF799917}" name="features"/>
-    <tableColumn id="3" xr3:uid="{893E45D1-3632-4E1C-9F99-00CB58FB0DD7}" name="r2_train" dataDxfId="106"/>
-    <tableColumn id="4" xr3:uid="{48CAB19E-A8A8-4550-B2B9-52B0E06E7256}" name="r2_test" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{893E45D1-3632-4E1C-9F99-00CB58FB0DD7}" name="r2_train" dataDxfId="128"/>
+    <tableColumn id="4" xr3:uid="{48CAB19E-A8A8-4550-B2B9-52B0E06E7256}" name="r2_test" dataDxfId="127"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3438,8 +3562,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{94EF0D61-A39E-406A-8390-9EFC11258D0F}" name="model"/>
     <tableColumn id="2" xr3:uid="{C7F1B4D3-6CC6-4B23-866A-273DBEC11424}" name="features"/>
-    <tableColumn id="3" xr3:uid="{B40C5EC8-CFE3-41A5-9871-5CED48BFF7F2}" name="r2_train" dataDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{F15865A0-2172-4929-9C06-7DD521C15FF8}" name="r2_test" dataDxfId="103"/>
+    <tableColumn id="3" xr3:uid="{B40C5EC8-CFE3-41A5-9871-5CED48BFF7F2}" name="r2_train" dataDxfId="126"/>
+    <tableColumn id="4" xr3:uid="{F15865A0-2172-4929-9C06-7DD521C15FF8}" name="r2_test" dataDxfId="125"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3451,8 +3575,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{1BD10581-D075-4D98-BCD5-E6D08EBE8144}" name="model"/>
     <tableColumn id="2" xr3:uid="{8C9BC9B0-4BFA-4A5D-9F47-D990FEF16648}" name="features"/>
-    <tableColumn id="3" xr3:uid="{2B6CFA25-FD1A-44C7-9E32-305C43C8DD58}" name="r2_train" dataDxfId="102"/>
-    <tableColumn id="4" xr3:uid="{2CE9DCC4-5C36-41A6-AE6D-E53D15FC41ED}" name="r2_test" dataDxfId="101"/>
+    <tableColumn id="3" xr3:uid="{2B6CFA25-FD1A-44C7-9E32-305C43C8DD58}" name="r2_train" dataDxfId="124"/>
+    <tableColumn id="4" xr3:uid="{2CE9DCC4-5C36-41A6-AE6D-E53D15FC41ED}" name="r2_test" dataDxfId="123"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3464,8 +3588,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{739832CA-F524-443C-A6AD-E3A4EFE340DB}" name="model"/>
     <tableColumn id="2" xr3:uid="{E4376E61-5D04-4110-B76D-72AEAD94B645}" name="features"/>
-    <tableColumn id="3" xr3:uid="{2E8B6E02-1542-4F1C-9C82-C5E0AA79F625}" name="r2_train" dataDxfId="100"/>
-    <tableColumn id="4" xr3:uid="{D22217FC-9733-4A28-A2FD-CC178228482B}" name="r2_test" dataDxfId="99"/>
+    <tableColumn id="3" xr3:uid="{2E8B6E02-1542-4F1C-9C82-C5E0AA79F625}" name="r2_train" dataDxfId="122"/>
+    <tableColumn id="4" xr3:uid="{D22217FC-9733-4A28-A2FD-CC178228482B}" name="r2_test" dataDxfId="121"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3477,8 +3601,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A35B4573-EBC7-4185-B8B3-82C7AAD113B9}" name="model"/>
     <tableColumn id="2" xr3:uid="{1BA3D915-F6CA-4BAD-9833-6C8F0693CC1A}" name="features"/>
-    <tableColumn id="3" xr3:uid="{D10F6808-AA19-4E16-92CA-9F4EEE283444}" name="r2_train" dataDxfId="98"/>
-    <tableColumn id="4" xr3:uid="{39E2CD0B-58CD-48F4-A78D-D9F338C2E88B}" name="r2_test" dataDxfId="97"/>
+    <tableColumn id="3" xr3:uid="{D10F6808-AA19-4E16-92CA-9F4EEE283444}" name="r2_train" dataDxfId="120"/>
+    <tableColumn id="4" xr3:uid="{39E2CD0B-58CD-48F4-A78D-D9F338C2E88B}" name="r2_test" dataDxfId="119"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3490,8 +3614,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A8EF2895-FD62-45B7-A4AD-7F8BEF32CBA2}" name="model"/>
     <tableColumn id="2" xr3:uid="{53F7FDCA-6EFF-496E-AA08-0A01B8E69905}" name="features"/>
-    <tableColumn id="3" xr3:uid="{19720E5D-F792-4FC9-9B30-B50627D1B3C8}" name="r2_train" dataDxfId="96"/>
-    <tableColumn id="4" xr3:uid="{12320B25-7671-42A9-ACC5-1C37AA93DFFE}" name="r2_test" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{19720E5D-F792-4FC9-9B30-B50627D1B3C8}" name="r2_train" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{12320B25-7671-42A9-ACC5-1C37AA93DFFE}" name="r2_test" dataDxfId="117"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3503,8 +3627,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6B03DDFE-C7E5-4C5C-A6E3-90FA78B44FED}" name="model"/>
     <tableColumn id="2" xr3:uid="{DAD60EAB-9A24-43F1-BB79-D8C555A8A311}" name="features"/>
-    <tableColumn id="3" xr3:uid="{EE1ED4AC-D574-460B-85D8-9F5FCE765E14}" name="r2_train" dataDxfId="94"/>
-    <tableColumn id="4" xr3:uid="{8B5D1B68-1C11-4DC9-8F9E-0AFF6BF72D49}" name="r2_test" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{EE1ED4AC-D574-460B-85D8-9F5FCE765E14}" name="r2_train" dataDxfId="116"/>
+    <tableColumn id="4" xr3:uid="{8B5D1B68-1C11-4DC9-8F9E-0AFF6BF72D49}" name="r2_test" dataDxfId="115"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3516,429 +3640,520 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F783C8F5-5186-4348-9CDC-88379D040055}" name="model"/>
     <tableColumn id="2" xr3:uid="{A8059084-BEE9-40CD-904B-6CEA7C9CFB81}" name="features"/>
-    <tableColumn id="3" xr3:uid="{E1C326ED-4D1C-4916-9CDD-4EA4EF717C10}" name="r2_train" dataDxfId="92"/>
-    <tableColumn id="4" xr3:uid="{DB1A2166-2267-48F6-8EF5-B56A5EB53290}" name="r2_test" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{E1C326ED-4D1C-4916-9CDD-4EA4EF717C10}" name="r2_train" dataDxfId="114"/>
+    <tableColumn id="4" xr3:uid="{DB1A2166-2267-48F6-8EF5-B56A5EB53290}" name="r2_test" dataDxfId="113"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{8BA02A64-168C-4AC0-A4B3-5C86CAC3DC04}" name="Tabla43555126541467215" displayName="Tabla43555126541467215" ref="K75:Y81" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{8BA02A64-168C-4AC0-A4B3-5C86CAC3DC04}" name="Tabla43555126541467215" displayName="Tabla43555126541467215" ref="K75:Y81" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{6B20581C-65E4-4819-93B6-7CBC43CF98D6}" name="model_id" dataDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{CBA3420D-6530-4FFA-9E3D-ECD9D9D8889E}" name="nº descriptores" dataDxfId="87"/>
-    <tableColumn id="3" xr3:uid="{042E68BE-FE4F-48BE-88C4-986EBDDF755C}" name="descriptor selection" dataDxfId="86"/>
-    <tableColumn id="4" xr3:uid="{08B8F850-516D-4665-8E64-F9B0FB60C08B}" name="Algoritmo" dataDxfId="85"/>
-    <tableColumn id="5" xr3:uid="{23F630DE-D4C6-49B4-828D-74FADF707509}" name="n_estimators GS" dataDxfId="84"/>
-    <tableColumn id="6" xr3:uid="{CF6D6E7A-CD87-433D-A84F-41EE06694C4D}" name="EV_train" dataDxfId="83"/>
-    <tableColumn id="7" xr3:uid="{501998FE-BEC6-4356-B51C-8C0B86E0471A}" name="MAE_train" dataDxfId="82"/>
-    <tableColumn id="8" xr3:uid="{AA08854D-7417-4D95-BF39-7D5A28AF143D}" name="MSE_train" dataDxfId="81"/>
-    <tableColumn id="9" xr3:uid="{8A2E07AD-07B6-4462-9E87-8AA1E1C525F2}" name="MEDAE_train" dataDxfId="80"/>
-    <tableColumn id="10" xr3:uid="{93ECEFB0-EF44-4175-83D8-568EC58BFBEE}" name="RScore_train" dataDxfId="79"/>
-    <tableColumn id="11" xr3:uid="{10E7923C-A58A-44B2-BFB7-39856A18A41D}" name="EV_test" dataDxfId="78"/>
-    <tableColumn id="12" xr3:uid="{007E7C34-2692-4B08-9D2D-41D3E76DA642}" name="MAE_test" dataDxfId="77"/>
-    <tableColumn id="13" xr3:uid="{02849F10-9EB9-4B6B-9529-28E592B08650}" name="MSE_test" dataDxfId="76"/>
-    <tableColumn id="14" xr3:uid="{DC048BE9-4FF1-4138-AF9C-EBFCAF42E4B7}" name="MEDAE_test" dataDxfId="75"/>
-    <tableColumn id="15" xr3:uid="{D7CD61E1-521F-4EF6-B149-4ACDA847E5F2}" name="RScore_test" dataDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{6B20581C-65E4-4819-93B6-7CBC43CF98D6}" name="model_id" dataDxfId="110"/>
+    <tableColumn id="2" xr3:uid="{CBA3420D-6530-4FFA-9E3D-ECD9D9D8889E}" name="nº descriptores" dataDxfId="109"/>
+    <tableColumn id="3" xr3:uid="{042E68BE-FE4F-48BE-88C4-986EBDDF755C}" name="descriptor selection" dataDxfId="108"/>
+    <tableColumn id="4" xr3:uid="{08B8F850-516D-4665-8E64-F9B0FB60C08B}" name="Algoritmo" dataDxfId="107"/>
+    <tableColumn id="5" xr3:uid="{23F630DE-D4C6-49B4-828D-74FADF707509}" name="n_estimators GS" dataDxfId="106"/>
+    <tableColumn id="6" xr3:uid="{CF6D6E7A-CD87-433D-A84F-41EE06694C4D}" name="EV_train" dataDxfId="105"/>
+    <tableColumn id="7" xr3:uid="{501998FE-BEC6-4356-B51C-8C0B86E0471A}" name="MAE_train" dataDxfId="104"/>
+    <tableColumn id="8" xr3:uid="{AA08854D-7417-4D95-BF39-7D5A28AF143D}" name="MSE_train" dataDxfId="103"/>
+    <tableColumn id="9" xr3:uid="{8A2E07AD-07B6-4462-9E87-8AA1E1C525F2}" name="MEDAE_train" dataDxfId="102"/>
+    <tableColumn id="10" xr3:uid="{93ECEFB0-EF44-4175-83D8-568EC58BFBEE}" name="RScore_train" dataDxfId="101"/>
+    <tableColumn id="11" xr3:uid="{10E7923C-A58A-44B2-BFB7-39856A18A41D}" name="EV_test" dataDxfId="100"/>
+    <tableColumn id="12" xr3:uid="{007E7C34-2692-4B08-9D2D-41D3E76DA642}" name="MAE_test" dataDxfId="99"/>
+    <tableColumn id="13" xr3:uid="{02849F10-9EB9-4B6B-9529-28E592B08650}" name="MSE_test" dataDxfId="98"/>
+    <tableColumn id="14" xr3:uid="{DC048BE9-4FF1-4138-AF9C-EBFCAF42E4B7}" name="MEDAE_test" dataDxfId="97"/>
+    <tableColumn id="15" xr3:uid="{D7CD61E1-521F-4EF6-B149-4ACDA847E5F2}" name="RScore_test" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{626AB369-9823-42D9-8548-EE03947427B1}" name="Tabla637621529" displayName="Tabla637621529" ref="D3:G22" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{2C7CCF16-1138-45D5-A2F3-5DD5267E8ACC}" name="Tabla63762152941" displayName="Tabla63762152941" ref="D3:G22" totalsRowShown="0">
   <autoFilter ref="D3:G22" xr:uid="{A3EB968B-3E2B-4C2B-9471-1DA9DC69BED1}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4BF317C0-A22B-44ED-AEF2-9E069B84D7F1}" name="model"/>
-    <tableColumn id="2" xr3:uid="{76BA7D4C-B22A-4D0C-A3BF-8365E488F4AA}" name="features"/>
-    <tableColumn id="3" xr3:uid="{46232583-CFC8-4A9A-ADF9-EA3F8F931D89}" name="r2_train" dataDxfId="73"/>
-    <tableColumn id="4" xr3:uid="{904ACF96-F496-43E6-B0BD-1109A66BDC39}" name="r2_test" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{366F1194-E0DE-4FFE-A85C-5E0BAC7685F5}" name="model"/>
+    <tableColumn id="2" xr3:uid="{267B6CFB-5D73-4598-B6D4-09E4E5F57B1F}" name="features"/>
+    <tableColumn id="3" xr3:uid="{64DBE4E4-934F-411C-BFF7-E6FD1D2F7B67}" name="r2_train" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{1D310AFA-01FF-4D64-9028-3BA624DBA8A9}" name="r2_test" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{FCBF3D29-DE57-475B-9428-FE36510E90D9}" name="Tabla43555126520242932" displayName="Tabla43555126520242932" ref="E59:S65" totalsRowShown="0" headerRowDxfId="213" dataDxfId="212">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{FCBF3D29-DE57-475B-9428-FE36510E90D9}" name="Tabla43555126520242932" displayName="Tabla43555126520242932" ref="E59:S65" totalsRowShown="0" headerRowDxfId="235" dataDxfId="234">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{9D9F3CB7-2619-4284-8DEF-0CCBFE61E9F7}" name="model_id" dataDxfId="211"/>
-    <tableColumn id="2" xr3:uid="{C39BC5E2-8CD0-45D5-B8FE-DCF9FE391071}" name="nº descriptores" dataDxfId="210"/>
-    <tableColumn id="3" xr3:uid="{C3454A2D-2D37-4CF3-A408-CC9E89034501}" name="descriptor selection" dataDxfId="209"/>
-    <tableColumn id="4" xr3:uid="{5919B92E-28E8-4037-AB09-9F46CB05966E}" name="Algoritmo" dataDxfId="208"/>
-    <tableColumn id="5" xr3:uid="{5EABCF77-76ED-47EE-96EA-759959B6B22E}" name="n_estimators GS" dataDxfId="207"/>
-    <tableColumn id="6" xr3:uid="{8D9C1EF1-34F4-4202-98CB-2E60C3C8B394}" name="EV_train" dataDxfId="206"/>
-    <tableColumn id="7" xr3:uid="{256DDEA9-7DB5-4184-958A-F7E41A5D0E27}" name="MAE_train" dataDxfId="205"/>
-    <tableColumn id="8" xr3:uid="{9AB638F8-A0E9-4345-A43A-5D8DF7D3917A}" name="MSE_train" dataDxfId="204"/>
-    <tableColumn id="9" xr3:uid="{307E5159-431F-4382-A730-4586632FBADE}" name="MEDAE_train" dataDxfId="203"/>
-    <tableColumn id="10" xr3:uid="{0D89CA8B-47DA-44A0-BBE5-2116E171B791}" name="RScore_train" dataDxfId="202"/>
-    <tableColumn id="11" xr3:uid="{D933D282-F498-4950-A36B-FF8274784A2E}" name="EV_test" dataDxfId="201"/>
-    <tableColumn id="12" xr3:uid="{45D3DACD-F924-4CFE-9374-92208CFF000C}" name="MAE_test" dataDxfId="200"/>
-    <tableColumn id="13" xr3:uid="{E832C708-CD0A-4054-BF57-D49E997FC185}" name="MSE_test" dataDxfId="199"/>
-    <tableColumn id="14" xr3:uid="{2E12537F-99A9-4412-A710-C69B1868265B}" name="MEDAE_test" dataDxfId="198"/>
-    <tableColumn id="15" xr3:uid="{AF34E552-6229-4CFD-8CE5-8CB7F06ADCC9}" name="RScore_test" dataDxfId="197"/>
+    <tableColumn id="1" xr3:uid="{9D9F3CB7-2619-4284-8DEF-0CCBFE61E9F7}" name="model_id" dataDxfId="233"/>
+    <tableColumn id="2" xr3:uid="{C39BC5E2-8CD0-45D5-B8FE-DCF9FE391071}" name="nº descriptores" dataDxfId="232"/>
+    <tableColumn id="3" xr3:uid="{C3454A2D-2D37-4CF3-A408-CC9E89034501}" name="descriptor selection" dataDxfId="231"/>
+    <tableColumn id="4" xr3:uid="{5919B92E-28E8-4037-AB09-9F46CB05966E}" name="Algoritmo" dataDxfId="230"/>
+    <tableColumn id="5" xr3:uid="{5EABCF77-76ED-47EE-96EA-759959B6B22E}" name="n_estimators GS" dataDxfId="229"/>
+    <tableColumn id="6" xr3:uid="{8D9C1EF1-34F4-4202-98CB-2E60C3C8B394}" name="EV_train" dataDxfId="228"/>
+    <tableColumn id="7" xr3:uid="{256DDEA9-7DB5-4184-958A-F7E41A5D0E27}" name="MAE_train" dataDxfId="227"/>
+    <tableColumn id="8" xr3:uid="{9AB638F8-A0E9-4345-A43A-5D8DF7D3917A}" name="MSE_train" dataDxfId="226"/>
+    <tableColumn id="9" xr3:uid="{307E5159-431F-4382-A730-4586632FBADE}" name="MEDAE_train" dataDxfId="225"/>
+    <tableColumn id="10" xr3:uid="{0D89CA8B-47DA-44A0-BBE5-2116E171B791}" name="RScore_train" dataDxfId="224"/>
+    <tableColumn id="11" xr3:uid="{D933D282-F498-4950-A36B-FF8274784A2E}" name="EV_test" dataDxfId="223"/>
+    <tableColumn id="12" xr3:uid="{45D3DACD-F924-4CFE-9374-92208CFF000C}" name="MAE_test" dataDxfId="222"/>
+    <tableColumn id="13" xr3:uid="{E832C708-CD0A-4054-BF57-D49E997FC185}" name="MSE_test" dataDxfId="221"/>
+    <tableColumn id="14" xr3:uid="{2E12537F-99A9-4412-A710-C69B1868265B}" name="MEDAE_test" dataDxfId="220"/>
+    <tableColumn id="15" xr3:uid="{AF34E552-6229-4CFD-8CE5-8CB7F06ADCC9}" name="RScore_test" dataDxfId="219"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{4D3C9666-A58D-45BB-AF10-09C30A8E360B}" name="Tabla63762161630" displayName="Tabla63762161630" ref="K3:N22" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{D17BCC29-69A1-41F6-A1D6-273F858FBA6B}" name="Tabla6376216163042" displayName="Tabla6376216163042" ref="K3:N22" totalsRowShown="0">
   <autoFilter ref="K3:N22" xr:uid="{81B1330D-8E63-42C3-9647-A7294607389D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{91044050-9DD3-4672-84EE-C9EFFE44BA7C}" name="model"/>
-    <tableColumn id="2" xr3:uid="{3274F7AA-94AB-42CC-85B3-8AF7C42BE370}" name="features"/>
-    <tableColumn id="3" xr3:uid="{DCBE722B-1E92-41A5-8097-EE58FAFD08BE}" name="r2_train" dataDxfId="71"/>
-    <tableColumn id="4" xr3:uid="{9AC8FFA8-A3A5-45FC-92DF-22FA59D4BEAD}" name="r2_test" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{55D5B55B-9554-4059-B977-39EB60E5E8BB}" name="model"/>
+    <tableColumn id="2" xr3:uid="{93AE0EDC-C032-429C-84B3-4868A6B3D29C}" name="features"/>
+    <tableColumn id="3" xr3:uid="{09175A6A-EAEB-41CF-AEC8-45B9C3CFB5CB}" name="r2_train" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{7CCCF3E3-1068-4CE6-A329-FE845F831EDF}" name="r2_test" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{D989E02A-27D8-4989-A173-6A25880CA154}" name="Tabla63762164731" displayName="Tabla63762164731" ref="R3:U22" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{80D00908-859D-476C-9FBF-C7269FB7CC3C}" name="Tabla6376216473143" displayName="Tabla6376216473143" ref="R3:U22" totalsRowShown="0">
   <autoFilter ref="R3:U22" xr:uid="{1918420D-8E89-4828-A59E-8A74BD943DA0}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6C3FE0B0-1DBA-4A12-A3CF-EBE86820FF5A}" name="model"/>
-    <tableColumn id="2" xr3:uid="{5522EAA9-074B-44DC-A874-6A9AA90730BD}" name="features"/>
-    <tableColumn id="3" xr3:uid="{184C24E6-0E2A-46BC-AC87-A8FAAAC14199}" name="r2_train" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{C37BF762-E8B9-4810-8F9A-C8464FC035F3}" name="r2_test" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{43E96A1E-E68B-427B-9521-20B1C1FD26A5}" name="model"/>
+    <tableColumn id="2" xr3:uid="{D15005E3-C69D-4896-A3B9-57E0B18D447F}" name="features"/>
+    <tableColumn id="3" xr3:uid="{D144BB85-4559-4F8A-90CD-3F356CA1C9A5}" name="r2_train" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{3F4553E9-D940-4A3C-8899-E2EEF674072A}" name="r2_test" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{28E9E2D9-139C-4317-9B51-A7548B287756}" name="Tabla63762165833" displayName="Tabla63762165833" ref="D24:G43" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{3C8E0915-A5A6-43A7-AFCE-3629D3C35458}" name="Tabla6376216583344" displayName="Tabla6376216583344" ref="D24:G43" totalsRowShown="0">
   <autoFilter ref="D24:G43" xr:uid="{D1389060-2CBF-41EB-91F8-208001D3C586}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{714AD53A-E28E-4C75-8ECA-5C7B0EC8BC23}" name="model"/>
-    <tableColumn id="2" xr3:uid="{64270BC1-CCCB-4510-8782-5C8954016AD4}" name="features"/>
-    <tableColumn id="3" xr3:uid="{4CB83A7B-3D52-4865-9F34-BC706152B4A5}" name="r2_train" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{803A2451-4C2B-4D02-802A-C0A3F0EAA30D}" name="r2_test" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{DB275CF1-0883-4257-A20E-A5A76B309781}" name="model"/>
+    <tableColumn id="2" xr3:uid="{2DBC2135-C7F1-42BE-9E26-087A6ABE0EAC}" name="features"/>
+    <tableColumn id="3" xr3:uid="{4B441F0E-4533-4525-8458-FC8DE1A40C4D}" name="r2_train" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{062F3A15-005C-414C-93A8-8ED74B0409DB}" name="r2_test" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{FA292BE7-6B03-4320-8504-456A9536E0D1}" name="Tabla63762166934" displayName="Tabla63762166934" ref="K24:N43" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{B52DADE2-E8F4-4D93-BB2C-71630B1E2E5C}" name="Tabla6376216693445" displayName="Tabla6376216693445" ref="K24:N43" totalsRowShown="0">
   <autoFilter ref="K24:N43" xr:uid="{8A64C9EA-EC32-4CD1-AA02-E8979251C377}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{27ED7D3B-6AE8-4E3B-980B-B022892DEADB}" name="model"/>
-    <tableColumn id="2" xr3:uid="{E6B6D8A1-205D-467F-A81D-055279C29031}" name="features"/>
-    <tableColumn id="3" xr3:uid="{F7189270-0217-433C-B618-F59926042E9E}" name="r2_train" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{C8EDE9D6-F85E-4D86-A7F6-8E804858B7A6}" name="r2_test" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{1BCBE9C6-946C-4ED1-ADD5-554075EAB7A6}" name="model"/>
+    <tableColumn id="2" xr3:uid="{06A3DBD5-A422-46CE-A445-F44027E21B13}" name="features"/>
+    <tableColumn id="3" xr3:uid="{FE918C0D-2253-4321-96D7-297CBE14E455}" name="r2_train" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{EF8CD151-5E9A-4D7E-9058-2943C8B246FD}" name="r2_test" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{5FEC42E9-B99A-4E90-A9EE-EFCF1869A108}" name="Tabla637621671035" displayName="Tabla637621671035" ref="R24:U43" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="45" xr:uid="{EEA52200-0F54-4B1B-8577-2AB2BB0B2BC4}" name="Tabla63762167103546" displayName="Tabla63762167103546" ref="R24:U43" totalsRowShown="0">
   <autoFilter ref="R24:U43" xr:uid="{C73552F2-0539-4F81-9ED8-A0B0B05A9D76}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{19A07D79-42DB-4940-BC02-AE8B7B77086F}" name="model"/>
-    <tableColumn id="2" xr3:uid="{C2285674-1385-4C88-96B0-AC65FD1914B9}" name="features"/>
-    <tableColumn id="3" xr3:uid="{94F59045-7DBA-42ED-B067-568140FAD9EA}" name="r2_train" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{1EA1C799-EB76-4DB8-ADEF-D52594E4E28C}" name="r2_test" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{D5BDC7B2-3CFF-48E4-8CEE-A0CE6BCC5A6B}" name="model"/>
+    <tableColumn id="2" xr3:uid="{7BFEBF2C-392F-4840-8107-DAA9FD62D976}" name="features"/>
+    <tableColumn id="3" xr3:uid="{B2313AA2-6C3D-4CEC-A0B9-6FEAED954D52}" name="r2_train" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{134BA13F-0CC9-4F2E-9B03-32BF8864CDB3}" name="r2_test" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{B79CE292-A0FC-48E2-BAEE-D9E8B818F2B9}" name="Tabla637621681136" displayName="Tabla637621681136" ref="D45:G64" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="46" xr:uid="{D0FD2A5D-D6ED-4448-9867-EC60363FCCC9}" name="Tabla63762168113647" displayName="Tabla63762168113647" ref="D45:G64" totalsRowShown="0">
   <autoFilter ref="D45:G64" xr:uid="{F9D638CF-E137-47CF-B3C6-0CE21676D389}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0DD65CB6-3854-4F4B-AEBA-A73F22811CFF}" name="model"/>
-    <tableColumn id="2" xr3:uid="{99479F0A-7CBB-4048-B8B2-B722CDDBF8CA}" name="features"/>
-    <tableColumn id="3" xr3:uid="{AE06CF81-3253-4859-812A-9FF3F8900572}" name="r2_train" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{A68D6E42-755A-45F6-86A6-6733CF4AEFCD}" name="r2_test" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{260C5150-8FEB-4C4D-9711-9A5FE0A83FB3}" name="model"/>
+    <tableColumn id="2" xr3:uid="{49521566-0B25-42B0-8B83-E96C391B1334}" name="features"/>
+    <tableColumn id="3" xr3:uid="{09F2D87D-9ADE-46D1-B7EE-458E8528D1C4}" name="r2_train" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{181B1B94-30C4-4EC3-907C-1BEC70E83841}" name="r2_test" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{CC760B44-2910-4E1F-B9D6-BFF3C13D3770}" name="Tabla637621691237" displayName="Tabla637621691237" ref="K45:N64" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="47" xr:uid="{A03B3B26-6462-492C-8AE0-106C345C1D5D}" name="Tabla63762169123748" displayName="Tabla63762169123748" ref="K45:N64" totalsRowShown="0">
   <autoFilter ref="K45:N64" xr:uid="{181EA99D-5A46-4AE3-9E1A-DE82A1DDFD21}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3EAC7318-7C25-45F5-88C6-0C350C41DF93}" name="model"/>
-    <tableColumn id="2" xr3:uid="{3A6A3036-9E79-4A41-A839-F92CDC1DE625}" name="features"/>
-    <tableColumn id="3" xr3:uid="{331C2443-0752-4304-8876-B5690FE67CF8}" name="r2_train" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{87BFEB8A-CE8E-4F14-BDD3-3EF5D70DDC5C}" name="r2_test" dataDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{E7B0FD99-A7FB-423B-95A1-B6464D2B22E9}" name="model"/>
+    <tableColumn id="2" xr3:uid="{46445A2F-CB28-47A5-840C-033E0E016837}" name="features"/>
+    <tableColumn id="3" xr3:uid="{B40C5AA0-DEA7-4674-AF21-B2121A8BC7EB}" name="r2_train" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{A8429C8E-6859-48C8-AEED-2E1C6796EF5A}" name="r2_test" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{231BF0A4-D40C-4433-9D06-30ACC428FA79}" name="Tabla637621701338" displayName="Tabla637621701338" ref="R45:U64" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="48" xr:uid="{CF8B3D96-9E87-4172-BAB9-545085F9EFDB}" name="Tabla63762170133849" displayName="Tabla63762170133849" ref="R45:U64" totalsRowShown="0">
   <autoFilter ref="R45:U64" xr:uid="{474B244C-81C3-439D-9E6D-711D9892871B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F02DEC48-3B9C-41EB-9271-6D5F4FACE2A7}" name="model"/>
-    <tableColumn id="2" xr3:uid="{90301F6A-2A5D-4361-8083-C4566CC1F818}" name="features"/>
-    <tableColumn id="3" xr3:uid="{F3B5F95A-1CE6-498A-9273-F5A107B10324}" name="r2_train" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{BDABB440-98DA-43AD-9658-533FA84B05AA}" name="r2_test" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{F582A85C-B484-4A34-87FB-3BCCD077814F}" name="model"/>
+    <tableColumn id="2" xr3:uid="{F2F8384D-B464-4C8F-8D55-5A1D9BA994C0}" name="features"/>
+    <tableColumn id="3" xr3:uid="{67761D20-54D2-42E2-8440-334A3E9E7686}" name="r2_train" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{7A142758-8689-47BE-A0EC-E43442FA824B}" name="r2_test" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{C73EA9DA-6291-48DE-9EF0-5A7551B5460C}" name="Tabla637621711439" displayName="Tabla637621711439" ref="D66:G85" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="49" xr:uid="{18E0E659-925F-46F8-BF8D-15AEE2E8B9A5}" name="Tabla63762171143950" displayName="Tabla63762171143950" ref="D66:G85" totalsRowShown="0">
   <autoFilter ref="D66:G85" xr:uid="{E6A1E0A1-E033-4305-AB93-0B8D1F272052}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5FED4EEF-7375-4A10-8C76-F8FC79D001A2}" name="model"/>
-    <tableColumn id="2" xr3:uid="{7C9ED5EE-07C8-4D25-B1CD-AEDB2C452078}" name="features"/>
-    <tableColumn id="3" xr3:uid="{96798DCC-A09C-4DB1-B9A6-C22ECCD1E0F2}" name="r2_train" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{D2DD6C13-C40D-444B-A26F-7C5BFF444BDF}" name="r2_test" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{EFA232B2-5B78-44A6-A04E-5BD9E63BED47}" name="model"/>
+    <tableColumn id="2" xr3:uid="{71AA59B5-3A38-4C16-B24B-DA2310DE66BD}" name="features"/>
+    <tableColumn id="3" xr3:uid="{A3EE107E-4CE4-4FB5-8063-3D18D1431B99}" name="r2_train" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{C4D962BA-3D3C-4C61-916D-2AEE0CEB7BE4}" name="r2_test" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{395BE494-81F4-474B-8B72-9019810CDF22}" name="Tabla4355512654146721540" displayName="Tabla4355512654146721540" ref="K75:Y81" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="50" xr:uid="{DCBB5EE7-245E-4E5C-A340-C1825ACB33DA}" name="Tabla435551265414672154051" displayName="Tabla435551265414672154051" ref="K75:Y81" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{C7564B2C-6E7B-414B-900F-A0120FA8AB3D}" name="model_id" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{5E540C43-3DA9-4D0B-B1BC-D1193DA49159}" name="nº descriptores" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{4FFFC928-9D0D-4717-98A1-37066F58EFF7}" name="descriptor selection" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{6E8237F0-11A4-4138-9054-3577E9E9C3E7}" name="Algoritmo" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{45FF8DD9-830D-425B-9F94-4309C8B70062}" name="n_estimators GS" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{A1D3A073-3207-474F-B420-3EA87D223FDB}" name="EV_train" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{4DDBB1D0-3625-4A3D-8B2B-1DCABE4F66C8}" name="MAE_train" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{ECDACEE6-F93B-496F-BDFA-9086253ADF60}" name="MSE_train" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{BC73D028-A639-4F32-BDD2-23C2D340122F}" name="MEDAE_train" dataDxfId="43"/>
-    <tableColumn id="10" xr3:uid="{E63D4964-DE59-4A59-9C8E-245EB7CAF349}" name="RScore_train" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{1D446D5B-26D7-4480-B407-43514DE5CFE3}" name="EV_test" dataDxfId="41"/>
-    <tableColumn id="12" xr3:uid="{A9D2965F-F4D1-4C38-804D-8843E6855416}" name="MAE_test" dataDxfId="40"/>
-    <tableColumn id="13" xr3:uid="{835A0273-DAE4-434A-AD69-2FE400A4C6F9}" name="MSE_test" dataDxfId="39"/>
-    <tableColumn id="14" xr3:uid="{D1A9ED39-5E8A-4764-8CDD-CB1C27353442}" name="MEDAE_test" dataDxfId="38"/>
-    <tableColumn id="15" xr3:uid="{C5021272-7746-42BD-80E5-FAFBA76CE6BC}" name="RScore_test" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{2D61B4B1-57D3-441B-BFD6-EB4EC1D0E636}" name="model_id" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{B50487CB-69CC-4ACF-A2D8-AFE8A5CD9196}" name="nº descriptores" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{5E65E0FF-6C00-4D5A-A44A-CB628C410E18}" name="descriptor selection" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{BA48FE70-60C5-41C3-8179-67C8F9C769DF}" name="Algoritmo" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{571F367E-ED47-4716-88BA-0F6D004B8EF7}" name="n_estimators GS" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{303991F3-AE23-4F79-B440-36F61128EC08}" name="EV_train" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{83159E62-D4AA-4025-A3AC-E801ACAF12FE}" name="MAE_train" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{88EDA9E1-77F5-4494-963F-445041476F0C}" name="MSE_train" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{3E683EDC-6600-49F9-8B44-9D8A4591F006}" name="MEDAE_train" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{48E54502-3020-4DE4-BC4A-457E29233DEE}" name="RScore_train" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{B28B711B-EDD2-48C2-BF6D-43B9D5ACBC43}" name="EV_test" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{510AB86C-1CCC-45A6-B579-B46008893FC7}" name="MAE_test" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{CC75E632-363E-46AD-9BC6-2A89052184E0}" name="MSE_test" dataDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{43CD4FA8-872E-41F5-B4DE-EE71C9978342}" name="MEDAE_test" dataDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{02096A1C-2035-422F-AC99-5E357EA692BA}" name="RScore_test" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A36924E9-2189-4674-8F0E-0E06AC195438}" name="Tabla4355131720262" displayName="Tabla4355131720262" ref="E7:S26" totalsRowShown="0" headerRowDxfId="196" dataDxfId="195">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A36924E9-2189-4674-8F0E-0E06AC195438}" name="Tabla4355131720262" displayName="Tabla4355131720262" ref="E7:S26" totalsRowShown="0" headerRowDxfId="218" dataDxfId="217">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{E5C3B011-3216-4615-AE5E-6401F655319B}" name="model_id" dataDxfId="194"/>
-    <tableColumn id="2" xr3:uid="{E5EF4257-4F5B-4A2A-B5BB-D1E058F3FD1C}" name="nº descriptores" dataDxfId="193"/>
+    <tableColumn id="1" xr3:uid="{E5C3B011-3216-4615-AE5E-6401F655319B}" name="model_id" dataDxfId="216"/>
+    <tableColumn id="2" xr3:uid="{E5EF4257-4F5B-4A2A-B5BB-D1E058F3FD1C}" name="nº descriptores" dataDxfId="215"/>
     <tableColumn id="3" xr3:uid="{A0926EB2-3EC4-4638-BCD7-CDFDFCF90162}" name="descriptor selection"/>
-    <tableColumn id="4" xr3:uid="{733238B1-BFF5-4960-A363-44936FD25ACF}" name="Algoritmo" dataDxfId="192"/>
-    <tableColumn id="5" xr3:uid="{547FB779-F4DD-4FBE-B713-DA7D1F014067}" name="n_estimators GS" dataDxfId="191"/>
-    <tableColumn id="6" xr3:uid="{7595B22A-1E41-4B0D-BF66-31165841420F}" name="EV_train" dataDxfId="190"/>
-    <tableColumn id="7" xr3:uid="{C4DEAC2C-EE76-4FD0-B0DF-0C7B659F08A3}" name="MAE_train" dataDxfId="189"/>
-    <tableColumn id="8" xr3:uid="{DEA77F48-4639-4BC5-A8B2-DD1F2267CA52}" name="MSE_train" dataDxfId="188"/>
-    <tableColumn id="9" xr3:uid="{C975305D-73E6-4D9C-8A38-ED94268CE7DE}" name="MEDAE_train" dataDxfId="187"/>
-    <tableColumn id="10" xr3:uid="{EC6682F0-A6AC-46C6-928B-E00D4E8C4858}" name="RScore_train" dataDxfId="186"/>
-    <tableColumn id="11" xr3:uid="{3A90BD70-5E6B-4F69-B8F8-A1C252317767}" name="EV_test" dataDxfId="185"/>
-    <tableColumn id="12" xr3:uid="{5C47AF9A-C37C-4276-AB9F-F2DC68AF2F08}" name="MAE_test" dataDxfId="184"/>
-    <tableColumn id="13" xr3:uid="{9C769E0D-7344-4EA3-ABDA-F5E95811F42D}" name="MSE_test" dataDxfId="183"/>
-    <tableColumn id="14" xr3:uid="{3635823B-FEB2-436E-9C43-5FD730F13393}" name="MEDAE_test" dataDxfId="182"/>
-    <tableColumn id="15" xr3:uid="{865A7CEB-5F65-45C1-AA3F-1ADD5514A50E}" name="RScore_test" dataDxfId="181"/>
+    <tableColumn id="4" xr3:uid="{733238B1-BFF5-4960-A363-44936FD25ACF}" name="Algoritmo" dataDxfId="214"/>
+    <tableColumn id="5" xr3:uid="{547FB779-F4DD-4FBE-B713-DA7D1F014067}" name="n_estimators GS" dataDxfId="213"/>
+    <tableColumn id="6" xr3:uid="{7595B22A-1E41-4B0D-BF66-31165841420F}" name="EV_train" dataDxfId="212"/>
+    <tableColumn id="7" xr3:uid="{C4DEAC2C-EE76-4FD0-B0DF-0C7B659F08A3}" name="MAE_train" dataDxfId="211"/>
+    <tableColumn id="8" xr3:uid="{DEA77F48-4639-4BC5-A8B2-DD1F2267CA52}" name="MSE_train" dataDxfId="210"/>
+    <tableColumn id="9" xr3:uid="{C975305D-73E6-4D9C-8A38-ED94268CE7DE}" name="MEDAE_train" dataDxfId="209"/>
+    <tableColumn id="10" xr3:uid="{EC6682F0-A6AC-46C6-928B-E00D4E8C4858}" name="RScore_train" dataDxfId="208"/>
+    <tableColumn id="11" xr3:uid="{3A90BD70-5E6B-4F69-B8F8-A1C252317767}" name="EV_test" dataDxfId="207"/>
+    <tableColumn id="12" xr3:uid="{5C47AF9A-C37C-4276-AB9F-F2DC68AF2F08}" name="MAE_test" dataDxfId="206"/>
+    <tableColumn id="13" xr3:uid="{9C769E0D-7344-4EA3-ABDA-F5E95811F42D}" name="MSE_test" dataDxfId="205"/>
+    <tableColumn id="14" xr3:uid="{3635823B-FEB2-436E-9C43-5FD730F13393}" name="MEDAE_test" dataDxfId="204"/>
+    <tableColumn id="15" xr3:uid="{865A7CEB-5F65-45C1-AA3F-1ADD5514A50E}" name="RScore_test" dataDxfId="203"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table40.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{2C7CCF16-1138-45D5-A2F3-5DD5267E8ACC}" name="Tabla63762152941" displayName="Tabla63762152941" ref="D3:G22" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{626AB369-9823-42D9-8548-EE03947427B1}" name="Tabla637621529" displayName="Tabla637621529" ref="D3:G22" totalsRowShown="0">
   <autoFilter ref="D3:G22" xr:uid="{A3EB968B-3E2B-4C2B-9471-1DA9DC69BED1}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{366F1194-E0DE-4FFE-A85C-5E0BAC7685F5}" name="model"/>
-    <tableColumn id="2" xr3:uid="{267B6CFB-5D73-4598-B6D4-09E4E5F57B1F}" name="features"/>
-    <tableColumn id="3" xr3:uid="{64DBE4E4-934F-411C-BFF7-E6FD1D2F7B67}" name="r2_train" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{1D310AFA-01FF-4D64-9028-3BA624DBA8A9}" name="r2_test" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{4BF317C0-A22B-44ED-AEF2-9E069B84D7F1}" name="model"/>
+    <tableColumn id="2" xr3:uid="{76BA7D4C-B22A-4D0C-A3BF-8365E488F4AA}" name="features"/>
+    <tableColumn id="3" xr3:uid="{46232583-CFC8-4A9A-ADF9-EA3F8F931D89}" name="r2_train" dataDxfId="95"/>
+    <tableColumn id="4" xr3:uid="{904ACF96-F496-43E6-B0BD-1109A66BDC39}" name="r2_test" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table41.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{D17BCC29-69A1-41F6-A1D6-273F858FBA6B}" name="Tabla6376216163042" displayName="Tabla6376216163042" ref="K3:N22" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{4D3C9666-A58D-45BB-AF10-09C30A8E360B}" name="Tabla63762161630" displayName="Tabla63762161630" ref="K3:N22" totalsRowShown="0">
   <autoFilter ref="K3:N22" xr:uid="{81B1330D-8E63-42C3-9647-A7294607389D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{55D5B55B-9554-4059-B977-39EB60E5E8BB}" name="model"/>
-    <tableColumn id="2" xr3:uid="{93AE0EDC-C032-429C-84B3-4868A6B3D29C}" name="features"/>
-    <tableColumn id="3" xr3:uid="{09175A6A-EAEB-41CF-AEC8-45B9C3CFB5CB}" name="r2_train" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{7CCCF3E3-1068-4CE6-A329-FE845F831EDF}" name="r2_test" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{91044050-9DD3-4672-84EE-C9EFFE44BA7C}" name="model"/>
+    <tableColumn id="2" xr3:uid="{3274F7AA-94AB-42CC-85B3-8AF7C42BE370}" name="features"/>
+    <tableColumn id="3" xr3:uid="{DCBE722B-1E92-41A5-8097-EE58FAFD08BE}" name="r2_train" dataDxfId="93"/>
+    <tableColumn id="4" xr3:uid="{9AC8FFA8-A3A5-45FC-92DF-22FA59D4BEAD}" name="r2_test" dataDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table42.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{80D00908-859D-476C-9FBF-C7269FB7CC3C}" name="Tabla6376216473143" displayName="Tabla6376216473143" ref="R3:U22" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{D989E02A-27D8-4989-A173-6A25880CA154}" name="Tabla63762164731" displayName="Tabla63762164731" ref="R3:U22" totalsRowShown="0">
   <autoFilter ref="R3:U22" xr:uid="{1918420D-8E89-4828-A59E-8A74BD943DA0}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{43E96A1E-E68B-427B-9521-20B1C1FD26A5}" name="model"/>
-    <tableColumn id="2" xr3:uid="{D15005E3-C69D-4896-A3B9-57E0B18D447F}" name="features"/>
-    <tableColumn id="3" xr3:uid="{D144BB85-4559-4F8A-90CD-3F356CA1C9A5}" name="r2_train" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{3F4553E9-D940-4A3C-8899-E2EEF674072A}" name="r2_test" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{6C3FE0B0-1DBA-4A12-A3CF-EBE86820FF5A}" name="model"/>
+    <tableColumn id="2" xr3:uid="{5522EAA9-074B-44DC-A874-6A9AA90730BD}" name="features"/>
+    <tableColumn id="3" xr3:uid="{184C24E6-0E2A-46BC-AC87-A8FAAAC14199}" name="r2_train" dataDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{C37BF762-E8B9-4810-8F9A-C8464FC035F3}" name="r2_test" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table43.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{3C8E0915-A5A6-43A7-AFCE-3629D3C35458}" name="Tabla6376216583344" displayName="Tabla6376216583344" ref="D24:G43" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{28E9E2D9-139C-4317-9B51-A7548B287756}" name="Tabla63762165833" displayName="Tabla63762165833" ref="D24:G43" totalsRowShown="0">
   <autoFilter ref="D24:G43" xr:uid="{D1389060-2CBF-41EB-91F8-208001D3C586}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DB275CF1-0883-4257-A20E-A5A76B309781}" name="model"/>
-    <tableColumn id="2" xr3:uid="{2DBC2135-C7F1-42BE-9E26-087A6ABE0EAC}" name="features"/>
-    <tableColumn id="3" xr3:uid="{4B441F0E-4533-4525-8458-FC8DE1A40C4D}" name="r2_train" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{062F3A15-005C-414C-93A8-8ED74B0409DB}" name="r2_test" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{714AD53A-E28E-4C75-8ECA-5C7B0EC8BC23}" name="model"/>
+    <tableColumn id="2" xr3:uid="{64270BC1-CCCB-4510-8782-5C8954016AD4}" name="features"/>
+    <tableColumn id="3" xr3:uid="{4CB83A7B-3D52-4865-9F34-BC706152B4A5}" name="r2_train" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{803A2451-4C2B-4D02-802A-C0A3F0EAA30D}" name="r2_test" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table44.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{B52DADE2-E8F4-4D93-BB2C-71630B1E2E5C}" name="Tabla6376216693445" displayName="Tabla6376216693445" ref="K24:N43" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{FA292BE7-6B03-4320-8504-456A9536E0D1}" name="Tabla63762166934" displayName="Tabla63762166934" ref="K24:N43" totalsRowShown="0">
   <autoFilter ref="K24:N43" xr:uid="{8A64C9EA-EC32-4CD1-AA02-E8979251C377}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1BCBE9C6-946C-4ED1-ADD5-554075EAB7A6}" name="model"/>
-    <tableColumn id="2" xr3:uid="{06A3DBD5-A422-46CE-A445-F44027E21B13}" name="features"/>
-    <tableColumn id="3" xr3:uid="{FE918C0D-2253-4321-96D7-297CBE14E455}" name="r2_train" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{EF8CD151-5E9A-4D7E-9058-2943C8B246FD}" name="r2_test" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{27ED7D3B-6AE8-4E3B-980B-B022892DEADB}" name="model"/>
+    <tableColumn id="2" xr3:uid="{E6B6D8A1-205D-467F-A81D-055279C29031}" name="features"/>
+    <tableColumn id="3" xr3:uid="{F7189270-0217-433C-B618-F59926042E9E}" name="r2_train" dataDxfId="87"/>
+    <tableColumn id="4" xr3:uid="{C8EDE9D6-F85E-4D86-A7F6-8E804858B7A6}" name="r2_test" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table45.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="45" xr:uid="{EEA52200-0F54-4B1B-8577-2AB2BB0B2BC4}" name="Tabla63762167103546" displayName="Tabla63762167103546" ref="R24:U43" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{5FEC42E9-B99A-4E90-A9EE-EFCF1869A108}" name="Tabla637621671035" displayName="Tabla637621671035" ref="R24:U43" totalsRowShown="0">
   <autoFilter ref="R24:U43" xr:uid="{C73552F2-0539-4F81-9ED8-A0B0B05A9D76}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D5BDC7B2-3CFF-48E4-8CEE-A0CE6BCC5A6B}" name="model"/>
-    <tableColumn id="2" xr3:uid="{7BFEBF2C-392F-4840-8107-DAA9FD62D976}" name="features"/>
-    <tableColumn id="3" xr3:uid="{B2313AA2-6C3D-4CEC-A0B9-6FEAED954D52}" name="r2_train" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{134BA13F-0CC9-4F2E-9B03-32BF8864CDB3}" name="r2_test" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{19A07D79-42DB-4940-BC02-AE8B7B77086F}" name="model"/>
+    <tableColumn id="2" xr3:uid="{C2285674-1385-4C88-96B0-AC65FD1914B9}" name="features"/>
+    <tableColumn id="3" xr3:uid="{94F59045-7DBA-42ED-B067-568140FAD9EA}" name="r2_train" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{1EA1C799-EB76-4DB8-ADEF-D52594E4E28C}" name="r2_test" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table46.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="46" xr:uid="{D0FD2A5D-D6ED-4448-9867-EC60363FCCC9}" name="Tabla63762168113647" displayName="Tabla63762168113647" ref="D45:G64" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{B79CE292-A0FC-48E2-BAEE-D9E8B818F2B9}" name="Tabla637621681136" displayName="Tabla637621681136" ref="D45:G64" totalsRowShown="0">
   <autoFilter ref="D45:G64" xr:uid="{F9D638CF-E137-47CF-B3C6-0CE21676D389}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{260C5150-8FEB-4C4D-9711-9A5FE0A83FB3}" name="model"/>
-    <tableColumn id="2" xr3:uid="{49521566-0B25-42B0-8B83-E96C391B1334}" name="features"/>
-    <tableColumn id="3" xr3:uid="{09F2D87D-9ADE-46D1-B7EE-458E8528D1C4}" name="r2_train" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{181B1B94-30C4-4EC3-907C-1BEC70E83841}" name="r2_test" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{0DD65CB6-3854-4F4B-AEBA-A73F22811CFF}" name="model"/>
+    <tableColumn id="2" xr3:uid="{99479F0A-7CBB-4048-B8B2-B722CDDBF8CA}" name="features"/>
+    <tableColumn id="3" xr3:uid="{AE06CF81-3253-4859-812A-9FF3F8900572}" name="r2_train" dataDxfId="83"/>
+    <tableColumn id="4" xr3:uid="{A68D6E42-755A-45F6-86A6-6733CF4AEFCD}" name="r2_test" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table47.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="47" xr:uid="{A03B3B26-6462-492C-8AE0-106C345C1D5D}" name="Tabla63762169123748" displayName="Tabla63762169123748" ref="K45:N64" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{CC760B44-2910-4E1F-B9D6-BFF3C13D3770}" name="Tabla637621691237" displayName="Tabla637621691237" ref="K45:N64" totalsRowShown="0">
   <autoFilter ref="K45:N64" xr:uid="{181EA99D-5A46-4AE3-9E1A-DE82A1DDFD21}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E7B0FD99-A7FB-423B-95A1-B6464D2B22E9}" name="model"/>
-    <tableColumn id="2" xr3:uid="{46445A2F-CB28-47A5-840C-033E0E016837}" name="features"/>
-    <tableColumn id="3" xr3:uid="{B40C5AA0-DEA7-4674-AF21-B2121A8BC7EB}" name="r2_train" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{A8429C8E-6859-48C8-AEED-2E1C6796EF5A}" name="r2_test" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{3EAC7318-7C25-45F5-88C6-0C350C41DF93}" name="model"/>
+    <tableColumn id="2" xr3:uid="{3A6A3036-9E79-4A41-A839-F92CDC1DE625}" name="features"/>
+    <tableColumn id="3" xr3:uid="{331C2443-0752-4304-8876-B5690FE67CF8}" name="r2_train" dataDxfId="81"/>
+    <tableColumn id="4" xr3:uid="{87BFEB8A-CE8E-4F14-BDD3-3EF5D70DDC5C}" name="r2_test" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table48.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="48" xr:uid="{CF8B3D96-9E87-4172-BAB9-545085F9EFDB}" name="Tabla63762170133849" displayName="Tabla63762170133849" ref="R45:U64" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{231BF0A4-D40C-4433-9D06-30ACC428FA79}" name="Tabla637621701338" displayName="Tabla637621701338" ref="R45:U64" totalsRowShown="0">
   <autoFilter ref="R45:U64" xr:uid="{474B244C-81C3-439D-9E6D-711D9892871B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F582A85C-B484-4A34-87FB-3BCCD077814F}" name="model"/>
-    <tableColumn id="2" xr3:uid="{F2F8384D-B464-4C8F-8D55-5A1D9BA994C0}" name="features"/>
-    <tableColumn id="3" xr3:uid="{67761D20-54D2-42E2-8440-334A3E9E7686}" name="r2_train" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{7A142758-8689-47BE-A0EC-E43442FA824B}" name="r2_test" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{F02DEC48-3B9C-41EB-9271-6D5F4FACE2A7}" name="model"/>
+    <tableColumn id="2" xr3:uid="{90301F6A-2A5D-4361-8083-C4566CC1F818}" name="features"/>
+    <tableColumn id="3" xr3:uid="{F3B5F95A-1CE6-498A-9273-F5A107B10324}" name="r2_train" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{BDABB440-98DA-43AD-9658-533FA84B05AA}" name="r2_test" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table49.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="49" xr:uid="{18E0E659-925F-46F8-BF8D-15AEE2E8B9A5}" name="Tabla63762171143950" displayName="Tabla63762171143950" ref="D66:G85" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{C73EA9DA-6291-48DE-9EF0-5A7551B5460C}" name="Tabla637621711439" displayName="Tabla637621711439" ref="D66:G85" totalsRowShown="0">
   <autoFilter ref="D66:G85" xr:uid="{E6A1E0A1-E033-4305-AB93-0B8D1F272052}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EFA232B2-5B78-44A6-A04E-5BD9E63BED47}" name="model"/>
-    <tableColumn id="2" xr3:uid="{71AA59B5-3A38-4C16-B24B-DA2310DE66BD}" name="features"/>
-    <tableColumn id="3" xr3:uid="{A3EE107E-4CE4-4FB5-8063-3D18D1431B99}" name="r2_train" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{C4D962BA-3D3C-4C61-916D-2AEE0CEB7BE4}" name="r2_test" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{5FED4EEF-7375-4A10-8C76-F8FC79D001A2}" name="model"/>
+    <tableColumn id="2" xr3:uid="{7C9ED5EE-07C8-4D25-B1CD-AEDB2C452078}" name="features"/>
+    <tableColumn id="3" xr3:uid="{96798DCC-A09C-4DB1-B9A6-C22ECCD1E0F2}" name="r2_train" dataDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{D2DD6C13-C40D-444B-A26F-7C5BFF444BDF}" name="r2_test" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0ED00A02-3106-41D3-AA70-39A56CBA9CB9}" name="Tabla435513121821283" displayName="Tabla435513121821283" ref="E32:S51" totalsRowShown="0" headerRowDxfId="180" dataDxfId="179">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0ED00A02-3106-41D3-AA70-39A56CBA9CB9}" name="Tabla435513121821283" displayName="Tabla435513121821283" ref="E32:S51" totalsRowShown="0" headerRowDxfId="202" dataDxfId="201">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{488AC300-E95B-41FF-AB72-1F6AD8A8C634}" name="model_id" dataDxfId="178"/>
-    <tableColumn id="2" xr3:uid="{E6DC48E2-BE3D-4997-A654-5FADD7B64DAF}" name="nº descriptores" dataDxfId="177"/>
+    <tableColumn id="1" xr3:uid="{488AC300-E95B-41FF-AB72-1F6AD8A8C634}" name="model_id" dataDxfId="200"/>
+    <tableColumn id="2" xr3:uid="{E6DC48E2-BE3D-4997-A654-5FADD7B64DAF}" name="nº descriptores" dataDxfId="199"/>
     <tableColumn id="3" xr3:uid="{8D60A8DC-6945-4023-8CCE-8130BD6B4BC6}" name="descriptor selection"/>
-    <tableColumn id="4" xr3:uid="{72E35BC2-1A0A-4D1F-A9F6-FD318538253C}" name="Algoritmo" dataDxfId="176"/>
-    <tableColumn id="5" xr3:uid="{AC7F80AB-06DE-4FE7-96D5-4BA099CA3907}" name="n_estimators GS" dataDxfId="175"/>
-    <tableColumn id="6" xr3:uid="{234D6ED9-D926-42E6-8462-E25FBE71AF72}" name="EV_train" dataDxfId="174"/>
-    <tableColumn id="7" xr3:uid="{E0571ECE-BCC3-4D1A-8B98-8A2DE5E121F0}" name="MAE_train" dataDxfId="173"/>
-    <tableColumn id="8" xr3:uid="{0A218C59-75C1-4EED-A706-1768473FD1B1}" name="MSE_train" dataDxfId="172"/>
-    <tableColumn id="9" xr3:uid="{76BC87A4-4E89-4FC0-A33B-6A1E07EED1A7}" name="MEDAE_train" dataDxfId="171"/>
-    <tableColumn id="10" xr3:uid="{B9CB64A9-8B6F-4301-844D-25607774D091}" name="RScore_train" dataDxfId="170"/>
-    <tableColumn id="11" xr3:uid="{EFD8C4B9-0E94-4285-8663-D38A1A38C67B}" name="EV_test" dataDxfId="169"/>
-    <tableColumn id="12" xr3:uid="{4AF5886E-ADE1-459E-AD01-DEFE18545D8C}" name="MAE_test" dataDxfId="168"/>
-    <tableColumn id="13" xr3:uid="{44879A5F-1C8F-493A-89D4-860058EB06D8}" name="MSE_test" dataDxfId="167"/>
-    <tableColumn id="14" xr3:uid="{74E96E3C-0C6C-4DFF-8678-FE16584A83DB}" name="MEDAE_test" dataDxfId="166"/>
-    <tableColumn id="15" xr3:uid="{F7EB6985-1944-46EA-B423-25DF971C498E}" name="RScore_test" dataDxfId="165"/>
+    <tableColumn id="4" xr3:uid="{72E35BC2-1A0A-4D1F-A9F6-FD318538253C}" name="Algoritmo" dataDxfId="198"/>
+    <tableColumn id="5" xr3:uid="{AC7F80AB-06DE-4FE7-96D5-4BA099CA3907}" name="n_estimators GS" dataDxfId="197"/>
+    <tableColumn id="6" xr3:uid="{234D6ED9-D926-42E6-8462-E25FBE71AF72}" name="EV_train" dataDxfId="196"/>
+    <tableColumn id="7" xr3:uid="{E0571ECE-BCC3-4D1A-8B98-8A2DE5E121F0}" name="MAE_train" dataDxfId="195"/>
+    <tableColumn id="8" xr3:uid="{0A218C59-75C1-4EED-A706-1768473FD1B1}" name="MSE_train" dataDxfId="194"/>
+    <tableColumn id="9" xr3:uid="{76BC87A4-4E89-4FC0-A33B-6A1E07EED1A7}" name="MEDAE_train" dataDxfId="193"/>
+    <tableColumn id="10" xr3:uid="{B9CB64A9-8B6F-4301-844D-25607774D091}" name="RScore_train" dataDxfId="192"/>
+    <tableColumn id="11" xr3:uid="{EFD8C4B9-0E94-4285-8663-D38A1A38C67B}" name="EV_test" dataDxfId="191"/>
+    <tableColumn id="12" xr3:uid="{4AF5886E-ADE1-459E-AD01-DEFE18545D8C}" name="MAE_test" dataDxfId="190"/>
+    <tableColumn id="13" xr3:uid="{44879A5F-1C8F-493A-89D4-860058EB06D8}" name="MSE_test" dataDxfId="189"/>
+    <tableColumn id="14" xr3:uid="{74E96E3C-0C6C-4DFF-8678-FE16584A83DB}" name="MEDAE_test" dataDxfId="188"/>
+    <tableColumn id="15" xr3:uid="{F7EB6985-1944-46EA-B423-25DF971C498E}" name="RScore_test" dataDxfId="187"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table50.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="50" xr:uid="{DCBB5EE7-245E-4E5C-A340-C1825ACB33DA}" name="Tabla435551265414672154051" displayName="Tabla435551265414672154051" ref="K75:Y81" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{395BE494-81F4-474B-8B72-9019810CDF22}" name="Tabla4355512654146721540" displayName="Tabla4355512654146721540" ref="K75:Y81" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{2D61B4B1-57D3-441B-BFD6-EB4EC1D0E636}" name="model_id" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{B50487CB-69CC-4ACF-A2D8-AFE8A5CD9196}" name="nº descriptores" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{5E65E0FF-6C00-4D5A-A44A-CB628C410E18}" name="descriptor selection" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{BA48FE70-60C5-41C3-8179-67C8F9C769DF}" name="Algoritmo" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{571F367E-ED47-4716-88BA-0F6D004B8EF7}" name="n_estimators GS" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{303991F3-AE23-4F79-B440-36F61128EC08}" name="EV_train" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{83159E62-D4AA-4025-A3AC-E801ACAF12FE}" name="MAE_train" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{88EDA9E1-77F5-4494-963F-445041476F0C}" name="MSE_train" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{3E683EDC-6600-49F9-8B44-9D8A4591F006}" name="MEDAE_train" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{48E54502-3020-4DE4-BC4A-457E29233DEE}" name="RScore_train" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{B28B711B-EDD2-48C2-BF6D-43B9D5ACBC43}" name="EV_test" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{510AB86C-1CCC-45A6-B579-B46008893FC7}" name="MAE_test" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{CC75E632-363E-46AD-9BC6-2A89052184E0}" name="MSE_test" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{43CD4FA8-872E-41F5-B4DE-EE71C9978342}" name="MEDAE_test" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{02096A1C-2035-422F-AC99-5E357EA692BA}" name="RScore_test" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C7564B2C-6E7B-414B-900F-A0120FA8AB3D}" name="model_id" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{5E540C43-3DA9-4D0B-B1BC-D1193DA49159}" name="nº descriptores" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{4FFFC928-9D0D-4717-98A1-37066F58EFF7}" name="descriptor selection" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{6E8237F0-11A4-4138-9054-3577E9E9C3E7}" name="Algoritmo" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{45FF8DD9-830D-425B-9F94-4309C8B70062}" name="n_estimators GS" dataDxfId="69"/>
+    <tableColumn id="6" xr3:uid="{A1D3A073-3207-474F-B420-3EA87D223FDB}" name="EV_train" dataDxfId="68"/>
+    <tableColumn id="7" xr3:uid="{4DDBB1D0-3625-4A3D-8B2B-1DCABE4F66C8}" name="MAE_train" dataDxfId="67"/>
+    <tableColumn id="8" xr3:uid="{ECDACEE6-F93B-496F-BDFA-9086253ADF60}" name="MSE_train" dataDxfId="66"/>
+    <tableColumn id="9" xr3:uid="{BC73D028-A639-4F32-BDD2-23C2D340122F}" name="MEDAE_train" dataDxfId="65"/>
+    <tableColumn id="10" xr3:uid="{E63D4964-DE59-4A59-9C8E-245EB7CAF349}" name="RScore_train" dataDxfId="64"/>
+    <tableColumn id="11" xr3:uid="{1D446D5B-26D7-4480-B407-43514DE5CFE3}" name="EV_test" dataDxfId="63"/>
+    <tableColumn id="12" xr3:uid="{A9D2965F-F4D1-4C38-804D-8843E6855416}" name="MAE_test" dataDxfId="62"/>
+    <tableColumn id="13" xr3:uid="{835A0273-DAE4-434A-AD69-2FE400A4C6F9}" name="MSE_test" dataDxfId="61"/>
+    <tableColumn id="14" xr3:uid="{D1A9ED39-5E8A-4764-8CDD-CB1C27353442}" name="MEDAE_test" dataDxfId="60"/>
+    <tableColumn id="15" xr3:uid="{C5021272-7746-42BD-80E5-FAFBA76CE6BC}" name="RScore_test" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table51.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="51" xr:uid="{5B0AE765-318C-4DB8-860C-4E24B7B205EC}" name="Tabla6376217114395052" displayName="Tabla6376217114395052" ref="C1:F8" totalsRowShown="0">
+  <autoFilter ref="C1:F8" xr:uid="{5B0AE765-318C-4DB8-860C-4E24B7B205EC}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{2F62FF67-9E1D-4131-84C7-CEE3881496FF}" name="model"/>
+    <tableColumn id="2" xr3:uid="{9FB2A780-5539-4BD0-84AA-1235E6E6070E}" name="features" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{04F255C6-C096-4157-A1D2-0063A92BF098}" name="r2_train" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{4D07E942-C9BB-4978-AA48-2C4D4FFA2816}" name="r2_test" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table52.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="58" xr:uid="{8A8D9ABF-89CC-4988-8301-FFEA54D21A4E}" name="Tabla637621711439505259" displayName="Tabla637621711439505259" ref="J1:M8" totalsRowShown="0">
+  <autoFilter ref="J1:M8" xr:uid="{8A8D9ABF-89CC-4988-8301-FFEA54D21A4E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{CA33531C-BBB4-4775-8527-AEF28F9DE8B0}" name="model"/>
+    <tableColumn id="2" xr3:uid="{2DF26E58-BF71-4E58-BD27-3BBB7872CFF9}" name="features" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{7FCD0542-A883-48FD-8879-AE325F63765C}" name="r2_train" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{92574D36-2C14-46E4-AEF1-A88660A7744A}" name="r2_test" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table53.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="59" xr:uid="{4308F647-AD3C-48EF-BB6E-435219669960}" name="Tabla637621711439505260" displayName="Tabla637621711439505260" ref="Q1:T8" totalsRowShown="0">
+  <autoFilter ref="Q1:T8" xr:uid="{4308F647-AD3C-48EF-BB6E-435219669960}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{30C9E62A-3CBF-4D13-8BA5-8A252B0F1D37}" name="model"/>
+    <tableColumn id="2" xr3:uid="{AC395C83-21C5-41BF-BFB7-7B546722FF67}" name="features" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{7C7FE5F2-1169-407D-8E52-3B81A73ADB9A}" name="r2_train" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{CFCDA849-0E99-41BD-B247-125640C52D80}" name="r2_test" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table54.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="60" xr:uid="{B88990F2-C3FC-4030-AB36-88C4F6FD5AD0}" name="Tabla637621711439505261" displayName="Tabla637621711439505261" ref="C11:F18" totalsRowShown="0">
+  <autoFilter ref="C11:F18" xr:uid="{B88990F2-C3FC-4030-AB36-88C4F6FD5AD0}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{0BEA2255-6CBF-4775-B078-2F5794F7A7EC}" name="model"/>
+    <tableColumn id="2" xr3:uid="{BA3D419E-DDB5-4857-9145-2A3E27D589C6}" name="features" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{99FF5E59-F868-43A7-AD83-AD5A5BF1A06F}" name="r2_train" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{9E7DABA1-CF8D-4370-8335-5174778443EF}" name="r2_test" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table55.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="61" xr:uid="{B5EA8F16-45AB-4614-B1C5-249037F7E10A}" name="Tabla637621711439505262" displayName="Tabla637621711439505262" ref="J11:M18" totalsRowShown="0">
+  <autoFilter ref="J11:M18" xr:uid="{B5EA8F16-45AB-4614-B1C5-249037F7E10A}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{3A107BEF-6FFD-4D83-8186-B1D41A6AB351}" name="model"/>
+    <tableColumn id="2" xr3:uid="{462A0102-A0E3-424A-A07B-E2EC41D84F51}" name="features" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{23957FAA-755D-41D9-94B7-123B757F7AD2}" name="r2_train" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{5305F848-7ADD-422E-B2CB-B9335A7800A5}" name="r2_test" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table56.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="62" xr:uid="{02825AED-0488-46D5-8FFF-0CB812ADAAB7}" name="Tabla637621711439505263" displayName="Tabla637621711439505263" ref="Q11:T18" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="Q11:T18" xr:uid="{02825AED-0488-46D5-8FFF-0CB812ADAAB7}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{EAA8AF56-307A-4781-9990-652F76737B8A}" name="model" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{AF6D2E4D-6C3F-474D-BD5D-ED03E5C82D43}" name="features" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{49E4C846-5531-4CDC-937B-9CD68C046021}" name="r2_train" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{FFA101A2-69FA-4BD6-A174-7A60DAC8F84F}" name="r2_test" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table57.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="63" xr:uid="{34769501-7A70-44F0-89FB-1BFB3CFA497D}" name="Tabla6376215294164" displayName="Tabla6376215294164" ref="C21:F31" totalsRowShown="0">
+  <autoFilter ref="C21:F31" xr:uid="{34769501-7A70-44F0-89FB-1BFB3CFA497D}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E4B36290-09B8-40C5-9E8D-C7957E054976}" name="model"/>
+    <tableColumn id="2" xr3:uid="{9003D42D-0A8A-4959-9F43-EC83F0BEBB13}" name="features"/>
+    <tableColumn id="3" xr3:uid="{CA9352CF-6A09-42C0-9651-835179D53817}" name="r2_train" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{B77C93BA-591F-4C93-9933-A9410211D1E8}" name="r2_test" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{90A97436-C4B7-4F79-99C8-2D4E653153DC}" name="Tabla435551265202429324" displayName="Tabla435551265202429324" ref="E59:S65" totalsRowShown="0" headerRowDxfId="164" dataDxfId="163">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{90A97436-C4B7-4F79-99C8-2D4E653153DC}" name="Tabla435551265202429324" displayName="Tabla435551265202429324" ref="E59:S65" totalsRowShown="0" headerRowDxfId="186" dataDxfId="185">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{097B6245-842D-4764-BF5D-E72B9F930065}" name="model_id" dataDxfId="162"/>
-    <tableColumn id="2" xr3:uid="{66DD1E38-0C07-48C1-9447-6DA755D03CAE}" name="nº descriptores" dataDxfId="161"/>
-    <tableColumn id="3" xr3:uid="{6F978162-3C12-4BDF-92A0-8ED7C2B15EC9}" name="descriptor selection" dataDxfId="160"/>
-    <tableColumn id="4" xr3:uid="{4E8FF40E-F882-4052-9F9D-28AC5849FFC0}" name="Algoritmo" dataDxfId="159"/>
-    <tableColumn id="5" xr3:uid="{BEE7C5B8-25E8-454B-B5B6-47FCC19A4104}" name="n_estimators GS" dataDxfId="158"/>
-    <tableColumn id="6" xr3:uid="{2337E8BA-D7D3-49E2-BA10-4645F422B4A3}" name="EV_train" dataDxfId="157"/>
-    <tableColumn id="7" xr3:uid="{EF6DD217-7F16-4423-AB4D-FD59FAFF8D14}" name="MAE_train" dataDxfId="156"/>
-    <tableColumn id="8" xr3:uid="{DD98ABBC-2781-4977-8F83-D818F25C2934}" name="MSE_train" dataDxfId="155"/>
-    <tableColumn id="9" xr3:uid="{0CAC0B0F-AB17-45E4-B2F7-17E6BBF761CF}" name="MEDAE_train" dataDxfId="154"/>
-    <tableColumn id="10" xr3:uid="{B35ABE41-BEB2-477A-9224-70D7CF7F89E5}" name="RScore_train" dataDxfId="153"/>
-    <tableColumn id="11" xr3:uid="{72D16CD7-D93C-4585-8FED-870148ABBB24}" name="EV_test" dataDxfId="152"/>
-    <tableColumn id="12" xr3:uid="{2E80DBCD-FE52-46F8-904D-7A0C067CE0F3}" name="MAE_test" dataDxfId="151"/>
-    <tableColumn id="13" xr3:uid="{0098977C-4AC7-49AC-8CC2-67D67822C888}" name="MSE_test" dataDxfId="150"/>
-    <tableColumn id="14" xr3:uid="{EDB1E90D-08AF-44E2-8BCB-B4C750DCF6B1}" name="MEDAE_test" dataDxfId="149"/>
-    <tableColumn id="15" xr3:uid="{0EAE2B78-0443-4561-B52C-405B9AF9D10D}" name="RScore_test" dataDxfId="148"/>
+    <tableColumn id="1" xr3:uid="{097B6245-842D-4764-BF5D-E72B9F930065}" name="model_id" dataDxfId="184"/>
+    <tableColumn id="2" xr3:uid="{66DD1E38-0C07-48C1-9447-6DA755D03CAE}" name="nº descriptores" dataDxfId="183"/>
+    <tableColumn id="3" xr3:uid="{6F978162-3C12-4BDF-92A0-8ED7C2B15EC9}" name="descriptor selection" dataDxfId="182"/>
+    <tableColumn id="4" xr3:uid="{4E8FF40E-F882-4052-9F9D-28AC5849FFC0}" name="Algoritmo" dataDxfId="181"/>
+    <tableColumn id="5" xr3:uid="{BEE7C5B8-25E8-454B-B5B6-47FCC19A4104}" name="n_estimators GS" dataDxfId="180"/>
+    <tableColumn id="6" xr3:uid="{2337E8BA-D7D3-49E2-BA10-4645F422B4A3}" name="EV_train" dataDxfId="179"/>
+    <tableColumn id="7" xr3:uid="{EF6DD217-7F16-4423-AB4D-FD59FAFF8D14}" name="MAE_train" dataDxfId="178"/>
+    <tableColumn id="8" xr3:uid="{DD98ABBC-2781-4977-8F83-D818F25C2934}" name="MSE_train" dataDxfId="177"/>
+    <tableColumn id="9" xr3:uid="{0CAC0B0F-AB17-45E4-B2F7-17E6BBF761CF}" name="MEDAE_train" dataDxfId="176"/>
+    <tableColumn id="10" xr3:uid="{B35ABE41-BEB2-477A-9224-70D7CF7F89E5}" name="RScore_train" dataDxfId="175"/>
+    <tableColumn id="11" xr3:uid="{72D16CD7-D93C-4585-8FED-870148ABBB24}" name="EV_test" dataDxfId="174"/>
+    <tableColumn id="12" xr3:uid="{2E80DBCD-FE52-46F8-904D-7A0C067CE0F3}" name="MAE_test" dataDxfId="173"/>
+    <tableColumn id="13" xr3:uid="{0098977C-4AC7-49AC-8CC2-67D67822C888}" name="MSE_test" dataDxfId="172"/>
+    <tableColumn id="14" xr3:uid="{EDB1E90D-08AF-44E2-8BCB-B4C750DCF6B1}" name="MEDAE_test" dataDxfId="171"/>
+    <tableColumn id="15" xr3:uid="{0EAE2B78-0443-4561-B52C-405B9AF9D10D}" name="RScore_test" dataDxfId="170"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3950,8 +4165,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7F58A592-9ED5-4859-B1BF-1DDA0CF69937}" name="model"/>
     <tableColumn id="2" xr3:uid="{D3AFD7E4-A459-4E97-A29E-98CFCA47B26B}" name="features"/>
-    <tableColumn id="3" xr3:uid="{A138D91D-1CB9-427C-99DE-C49A97D58FBA}" name="r2_train" dataDxfId="147"/>
-    <tableColumn id="4" xr3:uid="{38931C3A-022D-4B1D-AEC1-4EB21CECDB08}" name="r2_test" dataDxfId="146"/>
+    <tableColumn id="3" xr3:uid="{A138D91D-1CB9-427C-99DE-C49A97D58FBA}" name="r2_train" dataDxfId="169"/>
+    <tableColumn id="4" xr3:uid="{38931C3A-022D-4B1D-AEC1-4EB21CECDB08}" name="r2_test" dataDxfId="168"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3963,8 +4178,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{743A3EDD-990A-4800-87AF-A2277623FE3D}" name="model"/>
     <tableColumn id="2" xr3:uid="{81DA33F9-0D5C-48AC-A839-F7B3B6F39534}" name="features"/>
-    <tableColumn id="3" xr3:uid="{563B292B-B9AD-46DF-BD05-DA4E81A97432}" name="r2_train" dataDxfId="145"/>
-    <tableColumn id="4" xr3:uid="{1F6B0A43-C0D6-4EEC-9169-D6A0D7477FDF}" name="r2_test" dataDxfId="144"/>
+    <tableColumn id="3" xr3:uid="{563B292B-B9AD-46DF-BD05-DA4E81A97432}" name="r2_train" dataDxfId="167"/>
+    <tableColumn id="4" xr3:uid="{1F6B0A43-C0D6-4EEC-9169-D6A0D7477FDF}" name="r2_test" dataDxfId="166"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3976,17 +4191,17 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A90C8EF6-7563-4C72-B0EE-2165807C7D05}" name="model"/>
     <tableColumn id="2" xr3:uid="{17CB3A05-38D6-4987-AECD-6B5C19AAD81E}" name="features"/>
-    <tableColumn id="3" xr3:uid="{14B3D18A-9EA7-402C-860A-1395D6A872CC}" name="r2_train" dataDxfId="143"/>
-    <tableColumn id="4" xr3:uid="{CC410250-16E9-4E8D-96D4-DA920D571C5B}" name="r2_test" dataDxfId="142"/>
+    <tableColumn id="3" xr3:uid="{14B3D18A-9EA7-402C-860A-1395D6A872CC}" name="r2_train" dataDxfId="165"/>
+    <tableColumn id="4" xr3:uid="{CC410250-16E9-4E8D-96D4-DA920D571C5B}" name="r2_test" dataDxfId="164"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4024,7 +4239,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4130,7 +4345,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4272,7 +4487,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15535,11 +15750,3231 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCF7213-9DBD-4E68-A0D1-AAA09FF6DE33}">
+  <dimension ref="B1:Y85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S54" sqref="S54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T3" t="s">
+        <v>88</v>
+      </c>
+      <c r="U3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="29">
+        <v>0.43442881986970999</v>
+      </c>
+      <c r="G4" s="29">
+        <v>0.40087675272839701</v>
+      </c>
+      <c r="I4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" t="s">
+        <v>166</v>
+      </c>
+      <c r="M4" s="29">
+        <v>0.46478876611759301</v>
+      </c>
+      <c r="N4" s="29">
+        <v>0.446126289696192</v>
+      </c>
+      <c r="P4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R4" t="s">
+        <v>90</v>
+      </c>
+      <c r="S4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T4" s="29">
+        <v>0.46505404091244901</v>
+      </c>
+      <c r="U4" s="29">
+        <v>0.45030183511543298</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="29">
+        <v>0.43442389086267802</v>
+      </c>
+      <c r="G5" s="29">
+        <v>0.40114002158273399</v>
+      </c>
+      <c r="I5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M5" s="29">
+        <v>0.46478567996817499</v>
+      </c>
+      <c r="N5" s="29">
+        <v>0.446229700490961</v>
+      </c>
+      <c r="P5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" t="s">
+        <v>91</v>
+      </c>
+      <c r="S5" t="s">
+        <v>167</v>
+      </c>
+      <c r="T5" s="29">
+        <v>0.46504976749178101</v>
+      </c>
+      <c r="U5" s="29">
+        <v>0.450333149574003</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="29">
+        <v>0.99627671445955701</v>
+      </c>
+      <c r="G6" s="29">
+        <v>0.65489492014402595</v>
+      </c>
+      <c r="I6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" t="s">
+        <v>166</v>
+      </c>
+      <c r="M6" s="29">
+        <v>0.99627671445959598</v>
+      </c>
+      <c r="N6" s="29">
+        <v>0.68888935122233996</v>
+      </c>
+      <c r="P6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>92</v>
+      </c>
+      <c r="S6" t="s">
+        <v>167</v>
+      </c>
+      <c r="T6" s="29">
+        <v>0.99627671445974098</v>
+      </c>
+      <c r="U6" s="29">
+        <v>0.68660582038168005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="29">
+        <v>-0.42146704068566598</v>
+      </c>
+      <c r="G7" s="29">
+        <v>-0.45018703414643602</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>166</v>
+      </c>
+      <c r="M7" s="29">
+        <v>-0.20173090187050699</v>
+      </c>
+      <c r="N7" s="29">
+        <v>-0.23923234429068799</v>
+      </c>
+      <c r="P7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s">
+        <v>94</v>
+      </c>
+      <c r="S7" t="s">
+        <v>167</v>
+      </c>
+      <c r="T7" s="29">
+        <v>-0.50978299509494296</v>
+      </c>
+      <c r="U7" s="29">
+        <v>-0.53539947269145405</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="29">
+        <v>0</v>
+      </c>
+      <c r="G8" s="29">
+        <v>-1.44174588003322E-3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>166</v>
+      </c>
+      <c r="M8" s="29">
+        <v>0</v>
+      </c>
+      <c r="N8" s="29">
+        <v>-1.44174588003322E-3</v>
+      </c>
+      <c r="R8" t="s">
+        <v>96</v>
+      </c>
+      <c r="S8" t="s">
+        <v>167</v>
+      </c>
+      <c r="T8" s="29">
+        <v>0</v>
+      </c>
+      <c r="U8" s="29">
+        <v>-1.44174588003322E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0</v>
+      </c>
+      <c r="G9" s="29">
+        <v>-1.44174588003322E-3</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>166</v>
+      </c>
+      <c r="M9" s="29">
+        <v>0</v>
+      </c>
+      <c r="N9" s="29">
+        <v>-1.44174588003322E-3</v>
+      </c>
+      <c r="R9" t="s">
+        <v>97</v>
+      </c>
+      <c r="S9" t="s">
+        <v>167</v>
+      </c>
+      <c r="T9" s="29">
+        <v>0</v>
+      </c>
+      <c r="U9" s="29">
+        <v>-1.44174588003322E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="29">
+        <v>0.426477952713742</v>
+      </c>
+      <c r="G10" s="29">
+        <v>0.40037315993584899</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
+        <v>166</v>
+      </c>
+      <c r="M10" s="29">
+        <v>0.46088360316935001</v>
+      </c>
+      <c r="N10" s="29">
+        <v>0.44278200094757197</v>
+      </c>
+      <c r="R10" t="s">
+        <v>98</v>
+      </c>
+      <c r="S10" t="s">
+        <v>167</v>
+      </c>
+      <c r="T10" s="29">
+        <v>0.458816767188932</v>
+      </c>
+      <c r="U10" s="29">
+        <v>0.44243476771088103</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="29">
+        <v>0.73008040617215497</v>
+      </c>
+      <c r="G11" s="29">
+        <v>0.58025232262480397</v>
+      </c>
+      <c r="K11" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" t="s">
+        <v>166</v>
+      </c>
+      <c r="M11" s="29">
+        <v>0.716728398886886</v>
+      </c>
+      <c r="N11" s="29">
+        <v>0.58132181510377701</v>
+      </c>
+      <c r="R11" t="s">
+        <v>99</v>
+      </c>
+      <c r="S11" t="s">
+        <v>167</v>
+      </c>
+      <c r="T11" s="29">
+        <v>0.730722165691439</v>
+      </c>
+      <c r="U11" s="29">
+        <v>0.59830355277384195</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="29">
+        <v>0.42081202440832699</v>
+      </c>
+      <c r="G12" s="29">
+        <v>0.38903981844139401</v>
+      </c>
+      <c r="K12" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" t="s">
+        <v>166</v>
+      </c>
+      <c r="M12" s="29">
+        <v>0.45387059969218402</v>
+      </c>
+      <c r="N12" s="29">
+        <v>0.43818917731471502</v>
+      </c>
+      <c r="R12" t="s">
+        <v>100</v>
+      </c>
+      <c r="S12" t="s">
+        <v>167</v>
+      </c>
+      <c r="T12" s="29">
+        <v>0.45638716833573501</v>
+      </c>
+      <c r="U12" s="29">
+        <v>0.44373630963099098</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="29">
+        <v>0.72628948656288195</v>
+      </c>
+      <c r="G13" s="29">
+        <v>0.58199301509934998</v>
+      </c>
+      <c r="K13" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" t="s">
+        <v>166</v>
+      </c>
+      <c r="M13" s="29">
+        <v>0.71213504020677398</v>
+      </c>
+      <c r="N13" s="29">
+        <v>0.58053785290760396</v>
+      </c>
+      <c r="R13" t="s">
+        <v>101</v>
+      </c>
+      <c r="S13" t="s">
+        <v>167</v>
+      </c>
+      <c r="T13" s="29">
+        <v>0.72604483403816</v>
+      </c>
+      <c r="U13" s="29">
+        <v>0.59555043357194304</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="29">
+        <v>0.69956161279585705</v>
+      </c>
+      <c r="G14" s="29">
+        <v>0.51293787740730401</v>
+      </c>
+      <c r="K14" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" t="s">
+        <v>166</v>
+      </c>
+      <c r="M14" s="29">
+        <v>0.72916725496613799</v>
+      </c>
+      <c r="N14" s="29">
+        <v>0.56395806025749395</v>
+      </c>
+      <c r="R14" t="s">
+        <v>102</v>
+      </c>
+      <c r="S14" t="s">
+        <v>167</v>
+      </c>
+      <c r="T14" s="29">
+        <v>0.73034130186563195</v>
+      </c>
+      <c r="U14" s="29">
+        <v>0.55744672009400897</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="29">
+        <v>0.56733842413680002</v>
+      </c>
+      <c r="G15" s="29">
+        <v>0.41696105841734799</v>
+      </c>
+      <c r="K15" t="s">
+        <v>103</v>
+      </c>
+      <c r="L15" t="s">
+        <v>166</v>
+      </c>
+      <c r="M15" s="29">
+        <v>0.54914675920857303</v>
+      </c>
+      <c r="N15" s="29">
+        <v>0.37572149660271997</v>
+      </c>
+      <c r="R15" t="s">
+        <v>103</v>
+      </c>
+      <c r="S15" t="s">
+        <v>167</v>
+      </c>
+      <c r="T15" s="29">
+        <v>0.52530910214815396</v>
+      </c>
+      <c r="U15" s="29">
+        <v>0.39268906444877799</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="29">
+        <v>0.65021182988673998</v>
+      </c>
+      <c r="G16" s="29">
+        <v>0.52608850697976695</v>
+      </c>
+      <c r="K16" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" s="29">
+        <v>0.63084670717008895</v>
+      </c>
+      <c r="N16" s="29">
+        <v>0.51901725041973601</v>
+      </c>
+      <c r="R16" t="s">
+        <v>104</v>
+      </c>
+      <c r="S16" t="s">
+        <v>167</v>
+      </c>
+      <c r="T16" s="29">
+        <v>0.61332490358292902</v>
+      </c>
+      <c r="U16" s="29">
+        <v>0.51158204486423797</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" s="29">
+        <v>0.51081875901982099</v>
+      </c>
+      <c r="G17" s="29">
+        <v>0.442189003700039</v>
+      </c>
+      <c r="K17" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" t="s">
+        <v>166</v>
+      </c>
+      <c r="M17" s="29">
+        <v>0.555719417484974</v>
+      </c>
+      <c r="N17" s="29">
+        <v>0.48304663108435097</v>
+      </c>
+      <c r="R17" t="s">
+        <v>105</v>
+      </c>
+      <c r="S17" t="s">
+        <v>167</v>
+      </c>
+      <c r="T17" s="29">
+        <v>0.55974968456978702</v>
+      </c>
+      <c r="U17" s="29">
+        <v>0.487533498812463</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" s="29">
+        <v>0.947853818485069</v>
+      </c>
+      <c r="G18" s="29">
+        <v>0.67702677340230699</v>
+      </c>
+      <c r="K18" t="s">
+        <v>106</v>
+      </c>
+      <c r="L18" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18" s="29">
+        <v>0.94851449937565402</v>
+      </c>
+      <c r="N18" s="29">
+        <v>0.67909172083591796</v>
+      </c>
+      <c r="R18" t="s">
+        <v>106</v>
+      </c>
+      <c r="S18" t="s">
+        <v>167</v>
+      </c>
+      <c r="T18" s="29">
+        <v>0.94831907026737805</v>
+      </c>
+      <c r="U18" s="29">
+        <v>0.68799932244653095</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="29">
+        <v>0.88712304054787205</v>
+      </c>
+      <c r="G19" s="29">
+        <v>0.65846673150423995</v>
+      </c>
+      <c r="K19" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" s="29">
+        <v>0.89024889712157296</v>
+      </c>
+      <c r="N19" s="29">
+        <v>0.66365190533526797</v>
+      </c>
+      <c r="R19" t="s">
+        <v>107</v>
+      </c>
+      <c r="S19" t="s">
+        <v>167</v>
+      </c>
+      <c r="T19" s="29">
+        <v>0.88666250182715201</v>
+      </c>
+      <c r="U19" s="29">
+        <v>0.66551349108328295</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="29">
+        <v>0.89923420307857005</v>
+      </c>
+      <c r="G20" s="29">
+        <v>0.61090758862156402</v>
+      </c>
+      <c r="K20" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" t="s">
+        <v>166</v>
+      </c>
+      <c r="M20" s="29">
+        <v>0.89446852137861699</v>
+      </c>
+      <c r="N20" s="29">
+        <v>0.54879653310507204</v>
+      </c>
+      <c r="R20" t="s">
+        <v>108</v>
+      </c>
+      <c r="S20" t="s">
+        <v>167</v>
+      </c>
+      <c r="T20" s="29">
+        <v>0.90677903919464797</v>
+      </c>
+      <c r="U20" s="29">
+        <v>0.56723106078313701</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D21" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="30">
+        <v>0.75062817903302104</v>
+      </c>
+      <c r="G21" s="30">
+        <v>0.57410215464043102</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="M21" s="30">
+        <v>0.74328715969825698</v>
+      </c>
+      <c r="N21" s="30">
+        <v>0.58330816742934999</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="T21" s="30">
+        <v>0.73878706838590102</v>
+      </c>
+      <c r="U21" s="30">
+        <v>0.58579075036319195</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="29">
+        <v>0.99429083083646497</v>
+      </c>
+      <c r="G22" s="29">
+        <v>0.69642697039286094</v>
+      </c>
+      <c r="K22" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" t="s">
+        <v>166</v>
+      </c>
+      <c r="M22" s="29">
+        <v>0.99429960199709999</v>
+      </c>
+      <c r="N22" s="29">
+        <v>0.69765111125545598</v>
+      </c>
+      <c r="R22" t="s">
+        <v>129</v>
+      </c>
+      <c r="S22" t="s">
+        <v>167</v>
+      </c>
+      <c r="T22" s="29">
+        <v>0.99432792691151195</v>
+      </c>
+      <c r="U22" s="29">
+        <v>0.69614519564781496</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" t="s">
+        <v>83</v>
+      </c>
+      <c r="L24" t="s">
+        <v>84</v>
+      </c>
+      <c r="M24" t="s">
+        <v>88</v>
+      </c>
+      <c r="N24" t="s">
+        <v>89</v>
+      </c>
+      <c r="R24" t="s">
+        <v>83</v>
+      </c>
+      <c r="S24" t="s">
+        <v>84</v>
+      </c>
+      <c r="T24" t="s">
+        <v>88</v>
+      </c>
+      <c r="U24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="29">
+        <v>0.49012835976363001</v>
+      </c>
+      <c r="G25" s="29">
+        <v>0.47371632677784697</v>
+      </c>
+      <c r="I25" t="s">
+        <v>85</v>
+      </c>
+      <c r="J25" t="s">
+        <v>87</v>
+      </c>
+      <c r="K25" t="s">
+        <v>90</v>
+      </c>
+      <c r="L25" t="s">
+        <v>169</v>
+      </c>
+      <c r="M25" s="29">
+        <v>0.49846330047940002</v>
+      </c>
+      <c r="N25" s="29">
+        <v>0.483032322839067</v>
+      </c>
+      <c r="P25" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>87</v>
+      </c>
+      <c r="R25" t="s">
+        <v>90</v>
+      </c>
+      <c r="S25" t="s">
+        <v>170</v>
+      </c>
+      <c r="T25" s="29">
+        <v>0.48714143031490598</v>
+      </c>
+      <c r="U25" s="29">
+        <v>0.47007113459543898</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="29">
+        <v>0.490128274346809</v>
+      </c>
+      <c r="G26" s="29">
+        <v>0.47373256910484801</v>
+      </c>
+      <c r="I26" t="s">
+        <v>86</v>
+      </c>
+      <c r="J26" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26" t="s">
+        <v>91</v>
+      </c>
+      <c r="L26" t="s">
+        <v>169</v>
+      </c>
+      <c r="M26" s="29">
+        <v>0.49846319715531801</v>
+      </c>
+      <c r="N26" s="29">
+        <v>0.48304625066863699</v>
+      </c>
+      <c r="P26" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>38</v>
+      </c>
+      <c r="R26" t="s">
+        <v>91</v>
+      </c>
+      <c r="S26" t="s">
+        <v>170</v>
+      </c>
+      <c r="T26" s="29">
+        <v>0.48714135108494699</v>
+      </c>
+      <c r="U26" s="29">
+        <v>0.470089145209862</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27">
+        <v>1000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" s="29">
+        <v>0.99627671445931398</v>
+      </c>
+      <c r="G27" s="29">
+        <v>0.635086050005359</v>
+      </c>
+      <c r="I27" t="s">
+        <v>110</v>
+      </c>
+      <c r="J27">
+        <v>1000</v>
+      </c>
+      <c r="K27" t="s">
+        <v>92</v>
+      </c>
+      <c r="L27" t="s">
+        <v>169</v>
+      </c>
+      <c r="M27" s="29">
+        <v>0.99626402023320204</v>
+      </c>
+      <c r="N27" s="29">
+        <v>0.63437806347826697</v>
+      </c>
+      <c r="P27" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q27">
+        <v>1000</v>
+      </c>
+      <c r="R27" t="s">
+        <v>92</v>
+      </c>
+      <c r="S27" t="s">
+        <v>170</v>
+      </c>
+      <c r="T27" s="29">
+        <v>0.99627671446028698</v>
+      </c>
+      <c r="U27" s="29">
+        <v>0.64224748927123598</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" s="29">
+        <v>-3.01102494685021E-2</v>
+      </c>
+      <c r="G28" s="29">
+        <v>-3.7197185113801601E-2</v>
+      </c>
+      <c r="I28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28" t="s">
+        <v>94</v>
+      </c>
+      <c r="L28" t="s">
+        <v>169</v>
+      </c>
+      <c r="M28" s="29">
+        <v>-0.29312825017593802</v>
+      </c>
+      <c r="N28" s="29">
+        <v>-0.30595044717640502</v>
+      </c>
+      <c r="P28" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q28">
+        <v>3</v>
+      </c>
+      <c r="R28" t="s">
+        <v>94</v>
+      </c>
+      <c r="S28" t="s">
+        <v>170</v>
+      </c>
+      <c r="T28" s="29">
+        <v>-0.230069096770602</v>
+      </c>
+      <c r="U28" s="29">
+        <v>-0.24328613673032901</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="29">
+        <v>0</v>
+      </c>
+      <c r="G29" s="29">
+        <v>-1.44174588003322E-3</v>
+      </c>
+      <c r="K29" t="s">
+        <v>96</v>
+      </c>
+      <c r="L29" t="s">
+        <v>169</v>
+      </c>
+      <c r="M29" s="29">
+        <v>0</v>
+      </c>
+      <c r="N29" s="29">
+        <v>-1.44174588003322E-3</v>
+      </c>
+      <c r="R29" t="s">
+        <v>96</v>
+      </c>
+      <c r="S29" t="s">
+        <v>170</v>
+      </c>
+      <c r="T29" s="29">
+        <v>0</v>
+      </c>
+      <c r="U29" s="29">
+        <v>-1.44174588003322E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="29">
+        <v>0</v>
+      </c>
+      <c r="G30" s="29">
+        <v>-1.44174588003322E-3</v>
+      </c>
+      <c r="K30" t="s">
+        <v>97</v>
+      </c>
+      <c r="L30" t="s">
+        <v>169</v>
+      </c>
+      <c r="M30" s="29">
+        <v>0</v>
+      </c>
+      <c r="N30" s="29">
+        <v>-1.44174588003322E-3</v>
+      </c>
+      <c r="R30" t="s">
+        <v>97</v>
+      </c>
+      <c r="S30" t="s">
+        <v>170</v>
+      </c>
+      <c r="T30" s="29">
+        <v>0</v>
+      </c>
+      <c r="U30" s="29">
+        <v>-1.44174588003322E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" s="29">
+        <v>0.48694827332284601</v>
+      </c>
+      <c r="G31" s="29">
+        <v>0.47169556241466398</v>
+      </c>
+      <c r="K31" t="s">
+        <v>98</v>
+      </c>
+      <c r="L31" t="s">
+        <v>169</v>
+      </c>
+      <c r="M31" s="29">
+        <v>0.49547872969779699</v>
+      </c>
+      <c r="N31" s="29">
+        <v>0.48302024400472299</v>
+      </c>
+      <c r="R31" t="s">
+        <v>98</v>
+      </c>
+      <c r="S31" t="s">
+        <v>170</v>
+      </c>
+      <c r="T31" s="29">
+        <v>0.48372822665286802</v>
+      </c>
+      <c r="U31" s="29">
+        <v>0.46663174668004398</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="29">
+        <v>0.76969622384003999</v>
+      </c>
+      <c r="G32" s="29">
+        <v>0.62149768731795596</v>
+      </c>
+      <c r="K32" t="s">
+        <v>99</v>
+      </c>
+      <c r="L32" t="s">
+        <v>169</v>
+      </c>
+      <c r="M32" s="29">
+        <v>0.76522088642865804</v>
+      </c>
+      <c r="N32" s="29">
+        <v>0.61709477874729901</v>
+      </c>
+      <c r="R32" t="s">
+        <v>99</v>
+      </c>
+      <c r="S32" t="s">
+        <v>170</v>
+      </c>
+      <c r="T32" s="29">
+        <v>0.74638275837430701</v>
+      </c>
+      <c r="U32" s="29">
+        <v>0.61114992730780004</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" s="29">
+        <v>0.48142197875806197</v>
+      </c>
+      <c r="G33" s="29">
+        <v>0.46338897855135402</v>
+      </c>
+      <c r="K33" t="s">
+        <v>100</v>
+      </c>
+      <c r="L33" t="s">
+        <v>169</v>
+      </c>
+      <c r="M33" s="29">
+        <v>0.49144467652213902</v>
+      </c>
+      <c r="N33" s="29">
+        <v>0.477579981952727</v>
+      </c>
+      <c r="R33" t="s">
+        <v>100</v>
+      </c>
+      <c r="S33" t="s">
+        <v>170</v>
+      </c>
+      <c r="T33" s="29">
+        <v>0.47798016946185801</v>
+      </c>
+      <c r="U33" s="29">
+        <v>0.46488997340453198</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" s="29">
+        <v>0.76721920140549704</v>
+      </c>
+      <c r="G34" s="29">
+        <v>0.62060596596772599</v>
+      </c>
+      <c r="K34" t="s">
+        <v>101</v>
+      </c>
+      <c r="L34" t="s">
+        <v>169</v>
+      </c>
+      <c r="M34" s="29">
+        <v>0.762750895221876</v>
+      </c>
+      <c r="N34" s="29">
+        <v>0.61583721805962</v>
+      </c>
+      <c r="R34" t="s">
+        <v>101</v>
+      </c>
+      <c r="S34" t="s">
+        <v>170</v>
+      </c>
+      <c r="T34" s="29">
+        <v>0.74279541441555397</v>
+      </c>
+      <c r="U34" s="29">
+        <v>0.60904560879622704</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" t="s">
+        <v>168</v>
+      </c>
+      <c r="F35" s="29">
+        <v>0.72187740125135502</v>
+      </c>
+      <c r="G35" s="29">
+        <v>0.54957361940788096</v>
+      </c>
+      <c r="K35" t="s">
+        <v>102</v>
+      </c>
+      <c r="L35" t="s">
+        <v>169</v>
+      </c>
+      <c r="M35" s="29">
+        <v>0.719264463945821</v>
+      </c>
+      <c r="N35" s="29">
+        <v>0.54348101337518195</v>
+      </c>
+      <c r="R35" t="s">
+        <v>102</v>
+      </c>
+      <c r="S35" t="s">
+        <v>170</v>
+      </c>
+      <c r="T35" s="29">
+        <v>0.71858263395056199</v>
+      </c>
+      <c r="U35" s="29">
+        <v>0.55400173800651797</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" t="s">
+        <v>168</v>
+      </c>
+      <c r="F36" s="29">
+        <v>0.54309028123609004</v>
+      </c>
+      <c r="G36" s="29">
+        <v>0.418730311045454</v>
+      </c>
+      <c r="K36" t="s">
+        <v>103</v>
+      </c>
+      <c r="L36" t="s">
+        <v>169</v>
+      </c>
+      <c r="M36" s="29">
+        <v>0.53258127458231697</v>
+      </c>
+      <c r="N36" s="29">
+        <v>0.40722862640784602</v>
+      </c>
+      <c r="R36" t="s">
+        <v>103</v>
+      </c>
+      <c r="S36" t="s">
+        <v>170</v>
+      </c>
+      <c r="T36" s="29">
+        <v>0.53621391490827097</v>
+      </c>
+      <c r="U36" s="29">
+        <v>0.40763008126771899</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" s="29">
+        <v>0.61615673197635601</v>
+      </c>
+      <c r="G37" s="29">
+        <v>0.51878558733127</v>
+      </c>
+      <c r="K37" t="s">
+        <v>104</v>
+      </c>
+      <c r="L37" t="s">
+        <v>169</v>
+      </c>
+      <c r="M37" s="29">
+        <v>0.61212913699249505</v>
+      </c>
+      <c r="N37" s="29">
+        <v>0.51710490879306203</v>
+      </c>
+      <c r="R37" t="s">
+        <v>104</v>
+      </c>
+      <c r="S37" t="s">
+        <v>170</v>
+      </c>
+      <c r="T37" s="29">
+        <v>0.61452140155167601</v>
+      </c>
+      <c r="U37" s="29">
+        <v>0.51945629077703503</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" t="s">
+        <v>168</v>
+      </c>
+      <c r="F38" s="29">
+        <v>0.58291979842286801</v>
+      </c>
+      <c r="G38" s="29">
+        <v>0.51765653645197596</v>
+      </c>
+      <c r="K38" t="s">
+        <v>105</v>
+      </c>
+      <c r="L38" t="s">
+        <v>169</v>
+      </c>
+      <c r="M38" s="29">
+        <v>0.57786563348616904</v>
+      </c>
+      <c r="N38" s="29">
+        <v>0.50903141636857296</v>
+      </c>
+      <c r="R38" t="s">
+        <v>105</v>
+      </c>
+      <c r="S38" t="s">
+        <v>170</v>
+      </c>
+      <c r="T38" s="29">
+        <v>0.57931921363568895</v>
+      </c>
+      <c r="U38" s="29">
+        <v>0.51159946148804103</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" t="s">
+        <v>168</v>
+      </c>
+      <c r="F39" s="29">
+        <v>0.931795809487306</v>
+      </c>
+      <c r="G39" s="29">
+        <v>0.67797114088814803</v>
+      </c>
+      <c r="K39" t="s">
+        <v>106</v>
+      </c>
+      <c r="L39" t="s">
+        <v>169</v>
+      </c>
+      <c r="M39" s="29">
+        <v>0.93357223481919904</v>
+      </c>
+      <c r="N39" s="29">
+        <v>0.68582456160324001</v>
+      </c>
+      <c r="R39" t="s">
+        <v>106</v>
+      </c>
+      <c r="S39" t="s">
+        <v>170</v>
+      </c>
+      <c r="T39" s="29">
+        <v>0.926392883493251</v>
+      </c>
+      <c r="U39" s="29">
+        <v>0.67400855970551599</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" s="29">
+        <v>0.85705126059677395</v>
+      </c>
+      <c r="G40" s="29">
+        <v>0.65052259305209104</v>
+      </c>
+      <c r="K40" t="s">
+        <v>107</v>
+      </c>
+      <c r="L40" t="s">
+        <v>169</v>
+      </c>
+      <c r="M40" s="29">
+        <v>0.86044417170778797</v>
+      </c>
+      <c r="N40" s="29">
+        <v>0.64993234628539598</v>
+      </c>
+      <c r="R40" t="s">
+        <v>107</v>
+      </c>
+      <c r="S40" t="s">
+        <v>170</v>
+      </c>
+      <c r="T40" s="29">
+        <v>0.85615127511224398</v>
+      </c>
+      <c r="U40" s="29">
+        <v>0.65878356642550695</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" t="s">
+        <v>168</v>
+      </c>
+      <c r="F41" s="29">
+        <v>0.93126345338023298</v>
+      </c>
+      <c r="G41" s="29">
+        <v>0.55742661681734196</v>
+      </c>
+      <c r="K41" t="s">
+        <v>108</v>
+      </c>
+      <c r="L41" t="s">
+        <v>169</v>
+      </c>
+      <c r="M41" s="29">
+        <v>0.92509863983972696</v>
+      </c>
+      <c r="N41" s="29">
+        <v>0.55528696002547495</v>
+      </c>
+      <c r="R41" t="s">
+        <v>108</v>
+      </c>
+      <c r="S41" t="s">
+        <v>170</v>
+      </c>
+      <c r="T41" s="29">
+        <v>0.92743253914388102</v>
+      </c>
+      <c r="U41" s="29">
+        <v>0.545568632687912</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D42" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F42" s="30">
+        <v>0.77336457171491502</v>
+      </c>
+      <c r="G42" s="30">
+        <v>0.61078518958380301</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="M42" s="30">
+        <v>0.77468351808231595</v>
+      </c>
+      <c r="N42" s="30">
+        <v>0.60778173573781702</v>
+      </c>
+      <c r="R42" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="S42" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="T42" s="30">
+        <v>0.77598832751118796</v>
+      </c>
+      <c r="U42" s="30">
+        <v>0.60969464718046296</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" t="s">
+        <v>168</v>
+      </c>
+      <c r="F43" s="29">
+        <v>0.99216350785431995</v>
+      </c>
+      <c r="G43" s="29">
+        <v>0.68809928018199495</v>
+      </c>
+      <c r="K43" t="s">
+        <v>129</v>
+      </c>
+      <c r="L43" t="s">
+        <v>169</v>
+      </c>
+      <c r="M43" s="29">
+        <v>0.99179670015185495</v>
+      </c>
+      <c r="N43" s="29">
+        <v>0.71304988144074799</v>
+      </c>
+      <c r="R43" t="s">
+        <v>129</v>
+      </c>
+      <c r="S43" t="s">
+        <v>170</v>
+      </c>
+      <c r="T43" s="29">
+        <v>0.99176514716032205</v>
+      </c>
+      <c r="U43" s="29">
+        <v>0.69613465861082102</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
+        <v>88</v>
+      </c>
+      <c r="G45" t="s">
+        <v>89</v>
+      </c>
+      <c r="K45" t="s">
+        <v>83</v>
+      </c>
+      <c r="L45" t="s">
+        <v>84</v>
+      </c>
+      <c r="M45" t="s">
+        <v>88</v>
+      </c>
+      <c r="N45" t="s">
+        <v>89</v>
+      </c>
+      <c r="R45" t="s">
+        <v>83</v>
+      </c>
+      <c r="S45" t="s">
+        <v>84</v>
+      </c>
+      <c r="T45" t="s">
+        <v>88</v>
+      </c>
+      <c r="U45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" t="s">
+        <v>171</v>
+      </c>
+      <c r="F46" s="29">
+        <v>3.1742706188091302E-2</v>
+      </c>
+      <c r="G46" s="29">
+        <v>-1.23169872429194E+24</v>
+      </c>
+      <c r="I46" t="s">
+        <v>85</v>
+      </c>
+      <c r="J46" t="s">
+        <v>87</v>
+      </c>
+      <c r="K46" t="s">
+        <v>90</v>
+      </c>
+      <c r="L46" t="s">
+        <v>172</v>
+      </c>
+      <c r="M46" s="29">
+        <v>2.3734208199869902E-2</v>
+      </c>
+      <c r="N46" s="29">
+        <v>-5.1099507987144098E+24</v>
+      </c>
+      <c r="P46" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>87</v>
+      </c>
+      <c r="R46" t="s">
+        <v>90</v>
+      </c>
+      <c r="S46" t="s">
+        <v>173</v>
+      </c>
+      <c r="T46" s="29">
+        <v>2.30338962642739E-2</v>
+      </c>
+      <c r="U46" s="29">
+        <v>-2.5837709044388599E+24</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" t="s">
+        <v>171</v>
+      </c>
+      <c r="F47" s="29">
+        <v>3.6172800924308898E-2</v>
+      </c>
+      <c r="G47" s="29">
+        <v>1.0119731150126101E-2</v>
+      </c>
+      <c r="I47" t="s">
+        <v>86</v>
+      </c>
+      <c r="J47" t="s">
+        <v>72</v>
+      </c>
+      <c r="K47" t="s">
+        <v>91</v>
+      </c>
+      <c r="L47" t="s">
+        <v>172</v>
+      </c>
+      <c r="M47" s="29">
+        <v>2.6322080729209801E-2</v>
+      </c>
+      <c r="N47" s="29">
+        <v>-5.8856346237755102E-3</v>
+      </c>
+      <c r="P47" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>72</v>
+      </c>
+      <c r="R47" t="s">
+        <v>91</v>
+      </c>
+      <c r="S47" t="s">
+        <v>173</v>
+      </c>
+      <c r="T47" s="29">
+        <v>2.63899396041282E-2</v>
+      </c>
+      <c r="U47" s="29">
+        <v>-8.1662139871177195E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" t="s">
+        <v>171</v>
+      </c>
+      <c r="F48" s="29">
+        <v>5.0614846784363697E-2</v>
+      </c>
+      <c r="G48" s="29">
+        <v>2.0629667084059899E-2</v>
+      </c>
+      <c r="I48" t="s">
+        <v>95</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48" t="s">
+        <v>92</v>
+      </c>
+      <c r="L48" t="s">
+        <v>172</v>
+      </c>
+      <c r="M48" s="29">
+        <v>3.8295732293910499E-2</v>
+      </c>
+      <c r="N48" s="29">
+        <v>1.65591591772303E-2</v>
+      </c>
+      <c r="P48" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q48">
+        <v>3</v>
+      </c>
+      <c r="R48" t="s">
+        <v>92</v>
+      </c>
+      <c r="S48" t="s">
+        <v>173</v>
+      </c>
+      <c r="T48" s="29">
+        <v>3.9954408790929402E-2</v>
+      </c>
+      <c r="U48" s="29">
+        <v>1.41040848319795E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" t="s">
+        <v>171</v>
+      </c>
+      <c r="F49" s="29">
+        <v>-1.2892045022504699</v>
+      </c>
+      <c r="G49" s="29">
+        <v>-1.3081826941672401</v>
+      </c>
+      <c r="K49" t="s">
+        <v>94</v>
+      </c>
+      <c r="L49" t="s">
+        <v>172</v>
+      </c>
+      <c r="M49" s="29">
+        <v>-3.8360516210011402</v>
+      </c>
+      <c r="N49" s="29">
+        <v>-3.5493789140993699</v>
+      </c>
+      <c r="R49" t="s">
+        <v>94</v>
+      </c>
+      <c r="S49" t="s">
+        <v>173</v>
+      </c>
+      <c r="T49" s="29">
+        <v>-3.89310780956222</v>
+      </c>
+      <c r="U49" s="29">
+        <v>-3.5178691826364199</v>
+      </c>
+    </row>
+    <row r="50" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" t="s">
+        <v>171</v>
+      </c>
+      <c r="F50" s="29">
+        <v>0</v>
+      </c>
+      <c r="G50" s="29">
+        <v>-1.44174588003322E-3</v>
+      </c>
+      <c r="K50" t="s">
+        <v>96</v>
+      </c>
+      <c r="L50" t="s">
+        <v>172</v>
+      </c>
+      <c r="M50" s="29">
+        <v>0</v>
+      </c>
+      <c r="N50" s="29">
+        <v>-1.44174588003322E-3</v>
+      </c>
+      <c r="R50" t="s">
+        <v>96</v>
+      </c>
+      <c r="S50" t="s">
+        <v>173</v>
+      </c>
+      <c r="T50" s="29">
+        <v>0</v>
+      </c>
+      <c r="U50" s="29">
+        <v>-1.44174588003322E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" t="s">
+        <v>171</v>
+      </c>
+      <c r="F51" s="29">
+        <v>0</v>
+      </c>
+      <c r="G51" s="29">
+        <v>-1.44174588003322E-3</v>
+      </c>
+      <c r="K51" t="s">
+        <v>97</v>
+      </c>
+      <c r="L51" t="s">
+        <v>172</v>
+      </c>
+      <c r="M51" s="29">
+        <v>0</v>
+      </c>
+      <c r="N51" s="29">
+        <v>-1.44174588003322E-3</v>
+      </c>
+      <c r="R51" t="s">
+        <v>97</v>
+      </c>
+      <c r="S51" t="s">
+        <v>173</v>
+      </c>
+      <c r="T51" s="29">
+        <v>0</v>
+      </c>
+      <c r="U51" s="29">
+        <v>-1.44174588003322E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" t="s">
+        <v>171</v>
+      </c>
+      <c r="F52" s="29">
+        <v>-68662202932.102303</v>
+      </c>
+      <c r="G52" s="29">
+        <v>-1733313805.2502999</v>
+      </c>
+      <c r="K52" t="s">
+        <v>98</v>
+      </c>
+      <c r="L52" t="s">
+        <v>172</v>
+      </c>
+      <c r="M52" s="29">
+        <v>-8544149945.3718204</v>
+      </c>
+      <c r="N52" s="29">
+        <v>-1179432336.82688</v>
+      </c>
+      <c r="R52" t="s">
+        <v>98</v>
+      </c>
+      <c r="S52" t="s">
+        <v>173</v>
+      </c>
+      <c r="T52" s="29">
+        <v>-357631.68684933899</v>
+      </c>
+      <c r="U52" s="29">
+        <v>-130008.55180255701</v>
+      </c>
+    </row>
+    <row r="53" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" t="s">
+        <v>171</v>
+      </c>
+      <c r="F53" s="29">
+        <v>3.0238199127882601E-2</v>
+      </c>
+      <c r="G53" s="29">
+        <v>5.5387287685294299E-3</v>
+      </c>
+      <c r="K53" t="s">
+        <v>99</v>
+      </c>
+      <c r="L53" t="s">
+        <v>172</v>
+      </c>
+      <c r="M53" s="29">
+        <v>2.08160747621494E-2</v>
+      </c>
+      <c r="N53" s="29">
+        <v>1.8775726752830501E-3</v>
+      </c>
+      <c r="R53" t="s">
+        <v>99</v>
+      </c>
+      <c r="S53" t="s">
+        <v>173</v>
+      </c>
+      <c r="T53" s="29">
+        <v>2.1273460044526599E-2</v>
+      </c>
+      <c r="U53" s="29">
+        <v>1.6684750831594799E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" t="s">
+        <v>171</v>
+      </c>
+      <c r="F54" s="29">
+        <v>2.2611044590684099E-2</v>
+      </c>
+      <c r="G54" s="29">
+        <v>-9.5553241663371494E-3</v>
+      </c>
+      <c r="K54" t="s">
+        <v>100</v>
+      </c>
+      <c r="L54" t="s">
+        <v>172</v>
+      </c>
+      <c r="M54" s="29">
+        <v>1.5670981870255899E-2</v>
+      </c>
+      <c r="N54" s="29">
+        <v>-1.7546177423463101E-2</v>
+      </c>
+      <c r="R54" t="s">
+        <v>100</v>
+      </c>
+      <c r="S54" t="s">
+        <v>173</v>
+      </c>
+      <c r="T54" s="29">
+        <v>1.40189230343164E-2</v>
+      </c>
+      <c r="U54" s="29">
+        <v>-3.5838361607616998E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F55" s="29">
+        <v>3.3272185749344499E-2</v>
+      </c>
+      <c r="G55" s="29">
+        <v>5.3913785420492298E-3</v>
+      </c>
+      <c r="K55" t="s">
+        <v>101</v>
+      </c>
+      <c r="L55" t="s">
+        <v>172</v>
+      </c>
+      <c r="M55" s="29">
+        <v>2.3314935283377101E-2</v>
+      </c>
+      <c r="N55" s="29">
+        <v>1.5841452396722E-3</v>
+      </c>
+      <c r="R55" t="s">
+        <v>101</v>
+      </c>
+      <c r="S55" t="s">
+        <v>173</v>
+      </c>
+      <c r="T55" s="29">
+        <v>2.42209611959311E-2</v>
+      </c>
+      <c r="U55" s="29">
+        <v>3.1399884317331499E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" t="s">
+        <v>171</v>
+      </c>
+      <c r="F56" s="29">
+        <v>-0.15965875968740301</v>
+      </c>
+      <c r="G56" s="29">
+        <v>-0.22205913938267499</v>
+      </c>
+      <c r="K56" t="s">
+        <v>102</v>
+      </c>
+      <c r="L56" t="s">
+        <v>172</v>
+      </c>
+      <c r="M56" s="29">
+        <v>-8.9570965918849402E-2</v>
+      </c>
+      <c r="N56" s="29">
+        <v>-8.9821492129358194E-2</v>
+      </c>
+      <c r="R56" t="s">
+        <v>102</v>
+      </c>
+      <c r="S56" t="s">
+        <v>173</v>
+      </c>
+      <c r="T56" s="29">
+        <v>-0.224843883045966</v>
+      </c>
+      <c r="U56" s="29">
+        <v>-0.28170971058250999</v>
+      </c>
+    </row>
+    <row r="57" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E57" t="s">
+        <v>171</v>
+      </c>
+      <c r="F57" s="29">
+        <v>4.3853487055172703E-2</v>
+      </c>
+      <c r="G57" s="29">
+        <v>2.1503522304210598E-2</v>
+      </c>
+      <c r="K57" t="s">
+        <v>103</v>
+      </c>
+      <c r="L57" t="s">
+        <v>172</v>
+      </c>
+      <c r="M57" s="29">
+        <v>3.1741746635251998E-2</v>
+      </c>
+      <c r="N57" s="29">
+        <v>1.1049796914640499E-2</v>
+      </c>
+      <c r="R57" t="s">
+        <v>103</v>
+      </c>
+      <c r="S57" t="s">
+        <v>173</v>
+      </c>
+      <c r="T57" s="29">
+        <v>3.1654921742046503E-2</v>
+      </c>
+      <c r="U57" s="29">
+        <v>1.2507654494056299E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58" t="s">
+        <v>171</v>
+      </c>
+      <c r="F58" s="29">
+        <v>4.2850699333475503E-2</v>
+      </c>
+      <c r="G58" s="29">
+        <v>2.2957818002020701E-2</v>
+      </c>
+      <c r="K58" t="s">
+        <v>104</v>
+      </c>
+      <c r="L58" t="s">
+        <v>172</v>
+      </c>
+      <c r="M58" s="29">
+        <v>3.06915043752004E-2</v>
+      </c>
+      <c r="N58" s="29">
+        <v>1.51307312087167E-2</v>
+      </c>
+      <c r="R58" t="s">
+        <v>104</v>
+      </c>
+      <c r="S58" t="s">
+        <v>173</v>
+      </c>
+      <c r="T58" s="29">
+        <v>3.0136127332571198E-2</v>
+      </c>
+      <c r="U58" s="29">
+        <v>1.47681403851665E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" t="s">
+        <v>171</v>
+      </c>
+      <c r="F59" s="29">
+        <v>4.3846413517363098E-2</v>
+      </c>
+      <c r="G59" s="29">
+        <v>2.1245331308876101E-2</v>
+      </c>
+      <c r="K59" t="s">
+        <v>105</v>
+      </c>
+      <c r="L59" t="s">
+        <v>172</v>
+      </c>
+      <c r="M59" s="29">
+        <v>3.2154321471008301E-2</v>
+      </c>
+      <c r="N59" s="29">
+        <v>1.21292279172564E-2</v>
+      </c>
+      <c r="R59" t="s">
+        <v>105</v>
+      </c>
+      <c r="S59" t="s">
+        <v>173</v>
+      </c>
+      <c r="T59" s="29">
+        <v>3.1207681964590801E-2</v>
+      </c>
+      <c r="U59" s="29">
+        <v>1.5684055397754498E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" t="s">
+        <v>171</v>
+      </c>
+      <c r="F60" s="29">
+        <v>4.8806775964474601E-2</v>
+      </c>
+      <c r="G60" s="29">
+        <v>1.98238540609092E-2</v>
+      </c>
+      <c r="K60" t="s">
+        <v>106</v>
+      </c>
+      <c r="L60" t="s">
+        <v>172</v>
+      </c>
+      <c r="M60" s="29">
+        <v>3.6692855947232497E-2</v>
+      </c>
+      <c r="N60" s="29">
+        <v>1.4336173299455199E-2</v>
+      </c>
+      <c r="R60" t="s">
+        <v>106</v>
+      </c>
+      <c r="S60" t="s">
+        <v>173</v>
+      </c>
+      <c r="T60" s="29">
+        <v>3.6500009352305698E-2</v>
+      </c>
+      <c r="U60" s="29">
+        <v>9.8764650427063602E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" t="s">
+        <v>171</v>
+      </c>
+      <c r="F61" s="29">
+        <v>3.11574259844563E-2</v>
+      </c>
+      <c r="G61" s="29">
+        <v>1.68156859592106E-2</v>
+      </c>
+      <c r="K61" t="s">
+        <v>107</v>
+      </c>
+      <c r="L61" t="s">
+        <v>172</v>
+      </c>
+      <c r="M61" s="29">
+        <v>1.7308665868136099E-2</v>
+      </c>
+      <c r="N61" s="29">
+        <v>6.8299943164606301E-3</v>
+      </c>
+      <c r="R61" t="s">
+        <v>107</v>
+      </c>
+      <c r="S61" t="s">
+        <v>173</v>
+      </c>
+      <c r="T61" s="29">
+        <v>1.7308665868136099E-2</v>
+      </c>
+      <c r="U61" s="29">
+        <v>6.8299943164606301E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" t="s">
+        <v>171</v>
+      </c>
+      <c r="F62" s="29">
+        <v>4.2827804225774001E-2</v>
+      </c>
+      <c r="G62" s="29">
+        <v>-3.0150810974321401E-2</v>
+      </c>
+      <c r="K62" t="s">
+        <v>108</v>
+      </c>
+      <c r="L62" t="s">
+        <v>172</v>
+      </c>
+      <c r="M62" s="29">
+        <v>3.0268354486186699E-2</v>
+      </c>
+      <c r="N62" s="29">
+        <v>-0.16159490582132</v>
+      </c>
+      <c r="R62" t="s">
+        <v>108</v>
+      </c>
+      <c r="S62" t="s">
+        <v>173</v>
+      </c>
+      <c r="T62" s="29">
+        <v>3.1831368645831699E-2</v>
+      </c>
+      <c r="U62" s="29">
+        <v>-0.30876485215538901</v>
+      </c>
+    </row>
+    <row r="63" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D63" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F63" s="30">
+        <v>1.6252116945863999E-2</v>
+      </c>
+      <c r="G63" s="30">
+        <v>-7.5312687204546602E-3</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="M63" s="30">
+        <v>1.25686092967741E-2</v>
+      </c>
+      <c r="N63" s="30">
+        <v>-3.67440703490691E-3</v>
+      </c>
+      <c r="R63" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="S63" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="T63" s="30">
+        <v>5.7637363127686497E-3</v>
+      </c>
+      <c r="U63" s="30">
+        <v>-1.6299775568960999E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" t="s">
+        <v>171</v>
+      </c>
+      <c r="F64" s="29">
+        <v>5.06147011141488E-2</v>
+      </c>
+      <c r="G64" s="29">
+        <v>2.0067096328037499E-2</v>
+      </c>
+      <c r="K64" t="s">
+        <v>129</v>
+      </c>
+      <c r="L64" t="s">
+        <v>172</v>
+      </c>
+      <c r="M64" s="29">
+        <v>3.8295568256905499E-2</v>
+      </c>
+      <c r="N64" s="29">
+        <v>1.06016002020914E-2</v>
+      </c>
+      <c r="R64" t="s">
+        <v>129</v>
+      </c>
+      <c r="S64" t="s">
+        <v>173</v>
+      </c>
+      <c r="T64" s="29">
+        <v>3.9954279104247502E-2</v>
+      </c>
+      <c r="U64" s="29">
+        <v>5.8851729518326996E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" t="s">
+        <v>84</v>
+      </c>
+      <c r="F66" t="s">
+        <v>88</v>
+      </c>
+      <c r="G66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" t="s">
+        <v>174</v>
+      </c>
+      <c r="F67" s="29">
+        <v>0.25314170077576398</v>
+      </c>
+      <c r="G67" s="29">
+        <v>0.22851283958076499</v>
+      </c>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" t="s">
+        <v>174</v>
+      </c>
+      <c r="F68" s="29">
+        <v>0.25314134636442698</v>
+      </c>
+      <c r="G68" s="29">
+        <v>0.22855135816335301</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>92</v>
+      </c>
+      <c r="E69" t="s">
+        <v>174</v>
+      </c>
+      <c r="F69" s="29">
+        <v>0.99627671445977495</v>
+      </c>
+      <c r="G69" s="29">
+        <v>0.58552448021046999</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" t="s">
+        <v>174</v>
+      </c>
+      <c r="F70" s="29">
+        <v>-0.62020868309494503</v>
+      </c>
+      <c r="G70" s="29">
+        <v>-0.57401017019524003</v>
+      </c>
+      <c r="L70" t="s">
+        <v>1</v>
+      </c>
+      <c r="M70" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N70" s="32"/>
+      <c r="O70" s="32"/>
+    </row>
+    <row r="71" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>96</v>
+      </c>
+      <c r="E71" t="s">
+        <v>174</v>
+      </c>
+      <c r="F71" s="29">
+        <v>0</v>
+      </c>
+      <c r="G71" s="29">
+        <v>-1.44174588003322E-3</v>
+      </c>
+      <c r="L71" t="s">
+        <v>57</v>
+      </c>
+      <c r="M71" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="N71" s="32"/>
+      <c r="O71" s="32"/>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>97</v>
+      </c>
+      <c r="E72" t="s">
+        <v>174</v>
+      </c>
+      <c r="F72" s="29">
+        <v>0</v>
+      </c>
+      <c r="G72" s="29">
+        <v>-1.44174588003322E-3</v>
+      </c>
+      <c r="J72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>98</v>
+      </c>
+      <c r="E73" t="s">
+        <v>174</v>
+      </c>
+      <c r="F73" s="29">
+        <v>0.24813275442718499</v>
+      </c>
+      <c r="G73" s="29">
+        <v>0.222556815523484</v>
+      </c>
+      <c r="J73" t="s">
+        <v>9</v>
+      </c>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O73" s="11"/>
+      <c r="P73" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="11"/>
+      <c r="U73" s="11"/>
+      <c r="V73" s="11"/>
+      <c r="W73" s="11"/>
+      <c r="X73" s="11"/>
+      <c r="Y73" s="14"/>
+    </row>
+    <row r="74" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>99</v>
+      </c>
+      <c r="E74" t="s">
+        <v>174</v>
+      </c>
+      <c r="F74" s="29">
+        <v>0.76529715829671197</v>
+      </c>
+      <c r="G74" s="29">
+        <v>0.56328075759833296</v>
+      </c>
+      <c r="J74" t="s">
+        <v>14</v>
+      </c>
+      <c r="K74" s="11"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="P74" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="14"/>
+      <c r="U74" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="V74" s="11"/>
+      <c r="W74" s="11"/>
+      <c r="X74" s="11"/>
+      <c r="Y74" s="14"/>
+    </row>
+    <row r="75" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>100</v>
+      </c>
+      <c r="E75" t="s">
+        <v>174</v>
+      </c>
+      <c r="F75" s="29">
+        <v>0.221672531507316</v>
+      </c>
+      <c r="G75" s="29">
+        <v>0.197578239643075</v>
+      </c>
+      <c r="J75" t="s">
+        <v>19</v>
+      </c>
+      <c r="K75" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L75" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M75" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N75" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O75" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P75" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q75" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="R75" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="S75" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="T75" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="U75" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="V75" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="W75" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="X75" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y75" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>101</v>
+      </c>
+      <c r="E76" t="s">
+        <v>174</v>
+      </c>
+      <c r="F76" s="29">
+        <v>0.75857289954222495</v>
+      </c>
+      <c r="G76" s="29">
+        <v>0.56069453664374302</v>
+      </c>
+      <c r="K76" s="9"/>
+      <c r="L76" s="2">
+        <v>25</v>
+      </c>
+      <c r="M76" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O76" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="P76" s="8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q76" s="9">
+        <v>0.32</v>
+      </c>
+      <c r="R76" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="S76" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="T76" s="10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U76" s="27">
+        <v>0.51</v>
+      </c>
+      <c r="V76" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="W76" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="X76" s="9">
+        <v>0.26</v>
+      </c>
+      <c r="Y76" s="28">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>102</v>
+      </c>
+      <c r="E77" t="s">
+        <v>174</v>
+      </c>
+      <c r="F77" s="29">
+        <v>0.67204417522334103</v>
+      </c>
+      <c r="G77" s="29">
+        <v>0.471296024893268</v>
+      </c>
+      <c r="L77" s="3">
+        <v>25</v>
+      </c>
+      <c r="M77" t="s">
+        <v>177</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O77" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="P77" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q77">
+        <v>0.3</v>
+      </c>
+      <c r="R77">
+        <v>0.17</v>
+      </c>
+      <c r="S77">
+        <v>0.23</v>
+      </c>
+      <c r="T77" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="U77">
+        <v>0.44</v>
+      </c>
+      <c r="V77">
+        <v>0.35</v>
+      </c>
+      <c r="W77">
+        <v>0.23</v>
+      </c>
+      <c r="X77">
+        <v>0.26</v>
+      </c>
+      <c r="Y77" s="7">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>103</v>
+      </c>
+      <c r="E78" t="s">
+        <v>174</v>
+      </c>
+      <c r="F78" s="29">
+        <v>0.46846031221229401</v>
+      </c>
+      <c r="G78" s="29">
+        <v>0.26941412550407701</v>
+      </c>
+      <c r="L78" s="3">
+        <v>25</v>
+      </c>
+      <c r="M78" t="s">
+        <v>178</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O78" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="P78" s="6">
+        <v>0.96</v>
+      </c>
+      <c r="Q78">
+        <v>0.09</v>
+      </c>
+      <c r="R78">
+        <v>0.02</v>
+      </c>
+      <c r="S78">
+        <v>0.06</v>
+      </c>
+      <c r="T78" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="U78">
+        <v>0.72</v>
+      </c>
+      <c r="V78">
+        <v>0.21</v>
+      </c>
+      <c r="W78">
+        <v>0.11</v>
+      </c>
+      <c r="X78">
+        <v>0.12</v>
+      </c>
+      <c r="Y78" s="7">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>104</v>
+      </c>
+      <c r="E79" t="s">
+        <v>174</v>
+      </c>
+      <c r="F79" s="29">
+        <v>0.58058057626682202</v>
+      </c>
+      <c r="G79" s="29">
+        <v>0.43004553668198098</v>
+      </c>
+      <c r="L79" s="3">
+        <v>25</v>
+      </c>
+      <c r="M79" t="s">
+        <v>179</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O79" t="s">
+        <v>36</v>
+      </c>
+      <c r="P79" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="Q79">
+        <v>0.17</v>
+      </c>
+      <c r="R79">
+        <v>0.06</v>
+      </c>
+      <c r="S79">
+        <v>0.12</v>
+      </c>
+      <c r="T79" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="U79">
+        <v>0.52</v>
+      </c>
+      <c r="V79">
+        <v>0.3</v>
+      </c>
+      <c r="W79">
+        <v>0.19</v>
+      </c>
+      <c r="X79">
+        <v>0.2</v>
+      </c>
+      <c r="Y79" s="7">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="80" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>105</v>
+      </c>
+      <c r="E80" t="s">
+        <v>174</v>
+      </c>
+      <c r="F80" s="29">
+        <v>0.45158028723022797</v>
+      </c>
+      <c r="G80" s="29">
+        <v>0.35735273782149501</v>
+      </c>
+      <c r="L80" s="3">
+        <v>25</v>
+      </c>
+      <c r="M80" t="s">
+        <v>180</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O80" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="P80" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="Q80">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R80">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S80">
+        <v>0.21</v>
+      </c>
+      <c r="T80" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="U80">
+        <v>0.54</v>
+      </c>
+      <c r="V80">
+        <v>0.32</v>
+      </c>
+      <c r="W80">
+        <v>0.18</v>
+      </c>
+      <c r="X80">
+        <v>0.25</v>
+      </c>
+      <c r="Y80" s="7">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="81" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>106</v>
+      </c>
+      <c r="E81" t="s">
+        <v>174</v>
+      </c>
+      <c r="F81" s="29">
+        <v>0.96025504682469498</v>
+      </c>
+      <c r="G81" s="29">
+        <v>0.65646705398416005</v>
+      </c>
+      <c r="L81" s="3">
+        <v>25</v>
+      </c>
+      <c r="M81" t="s">
+        <v>181</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O81" t="s">
+        <v>36</v>
+      </c>
+      <c r="P81" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="Q81" s="9">
+        <v>0.27</v>
+      </c>
+      <c r="R81" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S81" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="T81" s="10">
+        <v>0.66</v>
+      </c>
+      <c r="U81" s="9">
+        <v>0.42</v>
+      </c>
+      <c r="V81" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="W81" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="X81" s="9">
+        <v>0.26</v>
+      </c>
+      <c r="Y81" s="10">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="82" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>107</v>
+      </c>
+      <c r="E82" t="s">
+        <v>174</v>
+      </c>
+      <c r="F82" s="29">
+        <v>0.89499093006974595</v>
+      </c>
+      <c r="G82" s="29">
+        <v>0.61944224336875298</v>
+      </c>
+    </row>
+    <row r="83" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>108</v>
+      </c>
+      <c r="E83" t="s">
+        <v>174</v>
+      </c>
+      <c r="F83" s="29">
+        <v>0.95350736697990601</v>
+      </c>
+      <c r="G83" s="29">
+        <v>0.52725781203086597</v>
+      </c>
+    </row>
+    <row r="84" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D84" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F84" s="30">
+        <v>0.70393715637665999</v>
+      </c>
+      <c r="G84" s="30">
+        <v>0.50701630188009905</v>
+      </c>
+    </row>
+    <row r="85" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>129</v>
+      </c>
+      <c r="E85" t="s">
+        <v>174</v>
+      </c>
+      <c r="F85" s="29">
+        <v>0.99520988856830594</v>
+      </c>
+      <c r="G85" s="29">
+        <v>0.68024861353047705</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="M70:O70"/>
+    <mergeCell ref="M71:O71"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="11">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A4B8E2-4503-48C7-AF59-7100F586127D}">
   <dimension ref="B1:Y85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="E54" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18747,3222 +22182,920 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCF7213-9DBD-4E68-A0D1-AAA09FF6DE33}">
-  <dimension ref="B1:Y85"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93A5724-AC28-48A2-8864-15F434F1C6EB}">
+  <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I64" workbookViewId="0">
-      <selection activeCell="M85" sqref="M85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T4" sqref="Q4:T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S1" t="s">
+        <v>88</v>
+      </c>
+      <c r="T1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="35">
+        <v>0.56998164981048416</v>
+      </c>
+      <c r="F2" s="35">
+        <v>0.4658380273642323</v>
+      </c>
+      <c r="H2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="L2" s="35">
+        <v>0.54406765199999996</v>
+      </c>
+      <c r="M2" s="35">
+        <v>0.43877693800000001</v>
+      </c>
+      <c r="O2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>103</v>
+      </c>
+      <c r="R2" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="S2" s="35">
+        <v>0.60507319199999998</v>
+      </c>
+      <c r="T2" s="35">
+        <v>0.440892477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
       <c r="B3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="35">
+        <v>0.955752406</v>
+      </c>
+      <c r="F3" s="35">
+        <v>0.70045876100000004</v>
+      </c>
+      <c r="H3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" t="s">
+        <v>183</v>
+      </c>
+      <c r="J3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="L3" s="35">
+        <v>0.95077086899999996</v>
+      </c>
+      <c r="M3" s="35">
+        <v>0.67511900800000002</v>
+      </c>
+      <c r="O3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R3" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="S3" s="35">
+        <v>0.95761335199999997</v>
+      </c>
+      <c r="T3" s="35">
+        <v>0.68399384799999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="35">
+        <v>0.99569353900000002</v>
+      </c>
+      <c r="F4" s="35">
+        <v>0.71742857599999998</v>
+      </c>
+      <c r="H4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="L4" s="35">
+        <v>0.99569352700000002</v>
+      </c>
+      <c r="M4" s="35">
+        <v>0.70212667699999998</v>
+      </c>
+      <c r="O4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>105</v>
+      </c>
+      <c r="R4" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="S4" s="35">
+        <v>0.99569353900000002</v>
+      </c>
+      <c r="T4" s="35">
+        <v>0.732853478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="35">
+        <v>0.717472157</v>
+      </c>
+      <c r="F5" s="35">
+        <v>0.57240217900000001</v>
+      </c>
+      <c r="J5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="L5" s="35">
+        <v>0.644722554</v>
+      </c>
+      <c r="M5" s="35">
+        <v>0.52378426600000005</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>106</v>
+      </c>
+      <c r="R5" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="S5" s="35">
+        <v>0.72232605500000002</v>
+      </c>
+      <c r="T5" s="35">
+        <v>0.581366987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="35">
+        <v>0.94836687399999997</v>
+      </c>
+      <c r="F6" s="35">
+        <v>0.69097768599999998</v>
+      </c>
+      <c r="J6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="L6" s="35">
+        <v>0.90306644199999997</v>
+      </c>
+      <c r="M6" s="35">
+        <v>0.64993956500000005</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R6" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="S6" s="35">
+        <v>0.95084123899999995</v>
+      </c>
+      <c r="T6" s="35">
+        <v>0.67485162799999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C7" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="35">
+        <v>0.76970098799999997</v>
+      </c>
+      <c r="F7" s="35">
+        <v>0.59853684699999998</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="L7" s="35">
+        <v>0.74987099999999995</v>
+      </c>
+      <c r="M7" s="35">
+        <v>0.57406231200000002</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="R7" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="S7" s="35">
+        <v>0.78149148700000004</v>
+      </c>
+      <c r="T7" s="35">
+        <v>0.59971649100000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="35">
+        <v>0.99486445599999995</v>
+      </c>
+      <c r="F8" s="35">
+        <v>0.67491519899999997</v>
+      </c>
+      <c r="J8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="L8" s="35">
+        <v>0.99029921600000004</v>
+      </c>
+      <c r="M8" s="35">
+        <v>0.67242722799999999</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>129</v>
+      </c>
+      <c r="R8" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="S8" s="35">
+        <v>0.994421903</v>
+      </c>
+      <c r="T8" s="35">
+        <v>0.67511908899999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>83</v>
+      </c>
+      <c r="R11" t="s">
+        <v>84</v>
+      </c>
+      <c r="S11" t="s">
+        <v>88</v>
+      </c>
+      <c r="T11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" s="34">
+        <v>0.38351042062963703</v>
+      </c>
+      <c r="F12" s="34">
+        <v>0.1865850306995275</v>
+      </c>
+      <c r="J12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="L12" s="34">
+        <v>0.48822871235451187</v>
+      </c>
+      <c r="M12" s="34">
+        <v>0.27327732479780092</v>
+      </c>
+      <c r="Q12" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="R12" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="S12" s="34">
+        <v>0.53021115481294245</v>
+      </c>
+      <c r="T12" s="34">
+        <v>0.31760399827244817</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" s="34">
+        <v>0.94835532950600121</v>
+      </c>
+      <c r="F13" s="34">
+        <v>0.63692847658523055</v>
+      </c>
+      <c r="H13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="L13" s="34">
+        <v>0.94634454814442781</v>
+      </c>
+      <c r="M13" s="34">
+        <v>0.62351191089487212</v>
+      </c>
+      <c r="O13" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q13" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="R13" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="S13" s="34">
+        <v>0.94623117327093331</v>
+      </c>
+      <c r="T13" s="34">
+        <v>0.64184751557533515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" s="34">
+        <v>0.99569353873329824</v>
+      </c>
+      <c r="F14" s="34">
+        <v>0.6936362122237989</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" t="s">
+        <v>186</v>
+      </c>
+      <c r="J14" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="L14" s="34">
+        <v>0.99569353873329824</v>
+      </c>
+      <c r="M14" s="34">
+        <v>0.67177602657462421</v>
+      </c>
+      <c r="O14" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="R14" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="S14" s="34">
+        <v>0.99569768980738427</v>
+      </c>
+      <c r="T14" s="34">
+        <v>0.68808509070754065</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="34">
+        <v>0.64627094557139775</v>
+      </c>
+      <c r="F15" s="34">
+        <v>0.44079721638411412</v>
+      </c>
+      <c r="H15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="L15" s="34">
+        <v>0.65174181228439809</v>
+      </c>
+      <c r="M15" s="34">
+        <v>0.45144296041726512</v>
+      </c>
+      <c r="O15" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q15" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="R15" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="S15" s="34">
+        <v>0.65645105749738086</v>
+      </c>
+      <c r="T15" s="34">
+        <v>0.49501286228804547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="34">
+        <v>0.95459740556384831</v>
+      </c>
+      <c r="F16" s="34">
+        <v>0.63431548511555258</v>
+      </c>
+      <c r="J16" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="L16" s="34">
+        <v>0.95205927959058401</v>
+      </c>
+      <c r="M16" s="34">
+        <v>0.62141141239953901</v>
+      </c>
+      <c r="Q16" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="R16" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="S16" s="34">
+        <v>0.95435050880023542</v>
+      </c>
+      <c r="T16" s="34">
+        <v>0.65749917405172986</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C17" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" s="34">
+        <v>0.67678982256291631</v>
+      </c>
+      <c r="F17" s="34">
+        <v>0.49397568953450738</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="L17" s="34">
+        <v>0.69693444063091292</v>
+      </c>
+      <c r="M17" s="34">
+        <v>0.49689261301393223</v>
+      </c>
+      <c r="Q17" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="R17" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="S17" s="34">
+        <v>0.64258866434392758</v>
+      </c>
+      <c r="T17" s="34">
+        <v>0.48095993254372182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" s="34">
+        <v>0.9948332234063455</v>
+      </c>
+      <c r="F18" s="34">
+        <v>0.64507476059363933</v>
+      </c>
+      <c r="J18" t="s">
+        <v>129</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="L18" s="34">
+        <v>0.9948648802390726</v>
+      </c>
+      <c r="M18" s="34">
+        <v>0.63731835640235068</v>
+      </c>
+      <c r="Q18" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="R18" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="S18" s="34">
+        <v>0.99484390015676272</v>
+      </c>
+      <c r="T18" s="34">
+        <v>0.64457680784646254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B21" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C21" t="s">
         <v>83</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D21" t="s">
         <v>84</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E21" t="s">
         <v>88</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F21" t="s">
         <v>89</v>
       </c>
-      <c r="K3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M3" t="s">
-        <v>88</v>
-      </c>
-      <c r="N3" t="s">
-        <v>89</v>
-      </c>
-      <c r="R3" t="s">
-        <v>83</v>
-      </c>
-      <c r="S3" t="s">
-        <v>84</v>
-      </c>
-      <c r="T3" t="s">
-        <v>88</v>
-      </c>
-      <c r="U3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C22" t="s">
         <v>90</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D22" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="29">
+      <c r="E22" s="29">
         <v>0.43442881986970999</v>
       </c>
-      <c r="G4" s="29">
+      <c r="F22" s="29">
         <v>0.40087675272839701</v>
       </c>
-      <c r="I4" t="s">
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="29">
+        <v>0.43442389086267802</v>
+      </c>
+      <c r="F23" s="29">
+        <v>0.40114002158273399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="29">
+        <v>0.99627671445955701</v>
+      </c>
+      <c r="F24" s="29">
+        <v>0.65489492014402595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>85</v>
       </c>
-      <c r="J4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" t="s">
-        <v>90</v>
-      </c>
-      <c r="L4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M4" s="29">
-        <v>0.46478876611759301</v>
-      </c>
-      <c r="N4" s="29">
-        <v>0.446126289696192</v>
-      </c>
-      <c r="P4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>87</v>
-      </c>
-      <c r="R4" t="s">
-        <v>90</v>
-      </c>
-      <c r="S4" t="s">
-        <v>167</v>
-      </c>
-      <c r="T4" s="29">
-        <v>0.46505404091244901</v>
-      </c>
-      <c r="U4" s="29">
-        <v>0.45030183511543298</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="29">
-        <v>0.43442389086267802</v>
-      </c>
-      <c r="G5" s="29">
-        <v>0.40114002158273399</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="E25" s="29">
+        <v>-0.42146704068566598</v>
+      </c>
+      <c r="F25" s="29">
+        <v>-0.45018703414643602</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>86</v>
       </c>
-      <c r="J5" t="s">
+      <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="K5" t="s">
-        <v>91</v>
-      </c>
-      <c r="L5" t="s">
-        <v>166</v>
-      </c>
-      <c r="M5" s="29">
-        <v>0.46478567996817499</v>
-      </c>
-      <c r="N5" s="29">
-        <v>0.446229700490961</v>
-      </c>
-      <c r="P5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>54</v>
-      </c>
-      <c r="R5" t="s">
-        <v>91</v>
-      </c>
-      <c r="S5" t="s">
-        <v>167</v>
-      </c>
-      <c r="T5" s="29">
-        <v>0.46504976749178101</v>
-      </c>
-      <c r="U5" s="29">
-        <v>0.450333149574003</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="29">
-        <v>0.99627671445955701</v>
-      </c>
-      <c r="G6" s="29">
-        <v>0.65489492014402595</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="E26" s="29">
+        <v>0</v>
+      </c>
+      <c r="F26" s="29">
+        <v>-1.44174588003322E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>93</v>
       </c>
-      <c r="J6">
+      <c r="B27">
         <v>1</v>
       </c>
-      <c r="K6" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" t="s">
-        <v>166</v>
-      </c>
-      <c r="M6" s="29">
-        <v>0.99627671445959598</v>
-      </c>
-      <c r="N6" s="29">
-        <v>0.68888935122233996</v>
-      </c>
-      <c r="P6" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q6">
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="29">
+        <v>0</v>
+      </c>
+      <c r="F27" s="29">
+        <v>-1.44174588003322E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28">
         <v>1</v>
       </c>
-      <c r="R6" t="s">
-        <v>92</v>
-      </c>
-      <c r="S6" t="s">
-        <v>167</v>
-      </c>
-      <c r="T6" s="29">
-        <v>0.99627671445974098</v>
-      </c>
-      <c r="U6" s="29">
-        <v>0.68660582038168005</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="29">
-        <v>-0.42146704068566598</v>
-      </c>
-      <c r="G7" s="29">
-        <v>-0.45018703414643602</v>
-      </c>
-      <c r="I7" t="s">
-        <v>95</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L7" t="s">
-        <v>166</v>
-      </c>
-      <c r="M7" s="29">
-        <v>-0.20173090187050699</v>
-      </c>
-      <c r="N7" s="29">
-        <v>-0.23923234429068799</v>
-      </c>
-      <c r="P7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
-      </c>
-      <c r="R7" t="s">
-        <v>94</v>
-      </c>
-      <c r="S7" t="s">
-        <v>167</v>
-      </c>
-      <c r="T7" s="29">
-        <v>-0.50978299509494296</v>
-      </c>
-      <c r="U7" s="29">
-        <v>-0.53539947269145405</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="E28" s="29">
+        <v>0.426477952713742</v>
+      </c>
+      <c r="F28" s="29">
+        <v>0.40037315993584899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" t="s">
         <v>165</v>
       </c>
-      <c r="F8" s="29">
-        <v>0</v>
-      </c>
-      <c r="G8" s="29">
-        <v>-1.44174588003322E-3</v>
-      </c>
-      <c r="K8" t="s">
-        <v>96</v>
-      </c>
-      <c r="L8" t="s">
-        <v>166</v>
-      </c>
-      <c r="M8" s="29">
-        <v>0</v>
-      </c>
-      <c r="N8" s="29">
-        <v>-1.44174588003322E-3</v>
-      </c>
-      <c r="R8" t="s">
-        <v>96</v>
-      </c>
-      <c r="S8" t="s">
-        <v>167</v>
-      </c>
-      <c r="T8" s="29">
-        <v>0</v>
-      </c>
-      <c r="U8" s="29">
-        <v>-1.44174588003322E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="E29" s="29">
+        <v>0.73008040617215497</v>
+      </c>
+      <c r="F29" s="29">
+        <v>0.58025232262480397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="29">
-        <v>0</v>
-      </c>
-      <c r="G9" s="29">
-        <v>-1.44174588003322E-3</v>
-      </c>
-      <c r="K9" t="s">
-        <v>97</v>
-      </c>
-      <c r="L9" t="s">
-        <v>166</v>
-      </c>
-      <c r="M9" s="29">
-        <v>0</v>
-      </c>
-      <c r="N9" s="29">
-        <v>-1.44174588003322E-3</v>
-      </c>
-      <c r="R9" t="s">
-        <v>97</v>
-      </c>
-      <c r="S9" t="s">
-        <v>167</v>
-      </c>
-      <c r="T9" s="29">
-        <v>0</v>
-      </c>
-      <c r="U9" s="29">
-        <v>-1.44174588003322E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E30" s="29">
+        <v>0.42081202440832699</v>
+      </c>
+      <c r="F30" s="29">
+        <v>0.38903981844139401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" t="s">
         <v>165</v>
       </c>
-      <c r="F10" s="29">
-        <v>0.426477952713742</v>
-      </c>
-      <c r="G10" s="29">
-        <v>0.40037315993584899</v>
-      </c>
-      <c r="K10" t="s">
-        <v>98</v>
-      </c>
-      <c r="L10" t="s">
-        <v>166</v>
-      </c>
-      <c r="M10" s="29">
-        <v>0.46088360316935001</v>
-      </c>
-      <c r="N10" s="29">
-        <v>0.44278200094757197</v>
-      </c>
-      <c r="R10" t="s">
-        <v>98</v>
-      </c>
-      <c r="S10" t="s">
-        <v>167</v>
-      </c>
-      <c r="T10" s="29">
-        <v>0.458816767188932</v>
-      </c>
-      <c r="U10" s="29">
-        <v>0.44243476771088103</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" t="s">
-        <v>165</v>
-      </c>
-      <c r="F11" s="29">
-        <v>0.73008040617215497</v>
-      </c>
-      <c r="G11" s="29">
-        <v>0.58025232262480397</v>
-      </c>
-      <c r="K11" t="s">
-        <v>99</v>
-      </c>
-      <c r="L11" t="s">
-        <v>166</v>
-      </c>
-      <c r="M11" s="29">
-        <v>0.716728398886886</v>
-      </c>
-      <c r="N11" s="29">
-        <v>0.58132181510377701</v>
-      </c>
-      <c r="R11" t="s">
-        <v>99</v>
-      </c>
-      <c r="S11" t="s">
-        <v>167</v>
-      </c>
-      <c r="T11" s="29">
-        <v>0.730722165691439</v>
-      </c>
-      <c r="U11" s="29">
-        <v>0.59830355277384195</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" s="29">
-        <v>0.42081202440832699</v>
-      </c>
-      <c r="G12" s="29">
-        <v>0.38903981844139401</v>
-      </c>
-      <c r="K12" t="s">
-        <v>100</v>
-      </c>
-      <c r="L12" t="s">
-        <v>166</v>
-      </c>
-      <c r="M12" s="29">
-        <v>0.45387059969218402</v>
-      </c>
-      <c r="N12" s="29">
-        <v>0.43818917731471502</v>
-      </c>
-      <c r="R12" t="s">
-        <v>100</v>
-      </c>
-      <c r="S12" t="s">
-        <v>167</v>
-      </c>
-      <c r="T12" s="29">
-        <v>0.45638716833573501</v>
-      </c>
-      <c r="U12" s="29">
-        <v>0.44373630963099098</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" t="s">
-        <v>165</v>
-      </c>
-      <c r="F13" s="29">
+      <c r="E31" s="29">
         <v>0.72628948656288195</v>
       </c>
-      <c r="G13" s="29">
+      <c r="F31" s="29">
         <v>0.58199301509934998</v>
       </c>
-      <c r="K13" t="s">
-        <v>101</v>
-      </c>
-      <c r="L13" t="s">
-        <v>166</v>
-      </c>
-      <c r="M13" s="29">
-        <v>0.71213504020677398</v>
-      </c>
-      <c r="N13" s="29">
-        <v>0.58053785290760396</v>
-      </c>
-      <c r="R13" t="s">
-        <v>101</v>
-      </c>
-      <c r="S13" t="s">
-        <v>167</v>
-      </c>
-      <c r="T13" s="29">
-        <v>0.72604483403816</v>
-      </c>
-      <c r="U13" s="29">
-        <v>0.59555043357194304</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" t="s">
-        <v>165</v>
-      </c>
-      <c r="F14" s="29">
-        <v>0.69956161279585705</v>
-      </c>
-      <c r="G14" s="29">
-        <v>0.51293787740730401</v>
-      </c>
-      <c r="K14" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" t="s">
-        <v>166</v>
-      </c>
-      <c r="M14" s="29">
-        <v>0.72916725496613799</v>
-      </c>
-      <c r="N14" s="29">
-        <v>0.56395806025749395</v>
-      </c>
-      <c r="R14" t="s">
-        <v>102</v>
-      </c>
-      <c r="S14" t="s">
-        <v>167</v>
-      </c>
-      <c r="T14" s="29">
-        <v>0.73034130186563195</v>
-      </c>
-      <c r="U14" s="29">
-        <v>0.55744672009400897</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" t="s">
-        <v>165</v>
-      </c>
-      <c r="F15" s="29">
-        <v>0.56733842413680002</v>
-      </c>
-      <c r="G15" s="29">
-        <v>0.41696105841734799</v>
-      </c>
-      <c r="K15" t="s">
-        <v>103</v>
-      </c>
-      <c r="L15" t="s">
-        <v>166</v>
-      </c>
-      <c r="M15" s="29">
-        <v>0.54914675920857303</v>
-      </c>
-      <c r="N15" s="29">
-        <v>0.37572149660271997</v>
-      </c>
-      <c r="R15" t="s">
-        <v>103</v>
-      </c>
-      <c r="S15" t="s">
-        <v>167</v>
-      </c>
-      <c r="T15" s="29">
-        <v>0.52530910214815396</v>
-      </c>
-      <c r="U15" s="29">
-        <v>0.39268906444877799</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" t="s">
-        <v>165</v>
-      </c>
-      <c r="F16" s="29">
-        <v>0.65021182988673998</v>
-      </c>
-      <c r="G16" s="29">
-        <v>0.52608850697976695</v>
-      </c>
-      <c r="K16" t="s">
-        <v>104</v>
-      </c>
-      <c r="L16" t="s">
-        <v>166</v>
-      </c>
-      <c r="M16" s="29">
-        <v>0.63084670717008895</v>
-      </c>
-      <c r="N16" s="29">
-        <v>0.51901725041973601</v>
-      </c>
-      <c r="R16" t="s">
-        <v>104</v>
-      </c>
-      <c r="S16" t="s">
-        <v>167</v>
-      </c>
-      <c r="T16" s="29">
-        <v>0.61332490358292902</v>
-      </c>
-      <c r="U16" s="29">
-        <v>0.51158204486423797</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" t="s">
-        <v>165</v>
-      </c>
-      <c r="F17" s="29">
-        <v>0.51081875901982099</v>
-      </c>
-      <c r="G17" s="29">
-        <v>0.442189003700039</v>
-      </c>
-      <c r="K17" t="s">
-        <v>105</v>
-      </c>
-      <c r="L17" t="s">
-        <v>166</v>
-      </c>
-      <c r="M17" s="29">
-        <v>0.555719417484974</v>
-      </c>
-      <c r="N17" s="29">
-        <v>0.48304663108435097</v>
-      </c>
-      <c r="R17" t="s">
-        <v>105</v>
-      </c>
-      <c r="S17" t="s">
-        <v>167</v>
-      </c>
-      <c r="T17" s="29">
-        <v>0.55974968456978702</v>
-      </c>
-      <c r="U17" s="29">
-        <v>0.487533498812463</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F18" s="29">
-        <v>0.947853818485069</v>
-      </c>
-      <c r="G18" s="29">
-        <v>0.67702677340230699</v>
-      </c>
-      <c r="K18" t="s">
-        <v>106</v>
-      </c>
-      <c r="L18" t="s">
-        <v>166</v>
-      </c>
-      <c r="M18" s="29">
-        <v>0.94851449937565402</v>
-      </c>
-      <c r="N18" s="29">
-        <v>0.67909172083591796</v>
-      </c>
-      <c r="R18" t="s">
-        <v>106</v>
-      </c>
-      <c r="S18" t="s">
-        <v>167</v>
-      </c>
-      <c r="T18" s="29">
-        <v>0.94831907026737805</v>
-      </c>
-      <c r="U18" s="29">
-        <v>0.68799932244653095</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" t="s">
-        <v>165</v>
-      </c>
-      <c r="F19" s="29">
-        <v>0.88712304054787205</v>
-      </c>
-      <c r="G19" s="29">
-        <v>0.65846673150423995</v>
-      </c>
-      <c r="K19" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" t="s">
-        <v>166</v>
-      </c>
-      <c r="M19" s="29">
-        <v>0.89024889712157296</v>
-      </c>
-      <c r="N19" s="29">
-        <v>0.66365190533526797</v>
-      </c>
-      <c r="R19" t="s">
-        <v>107</v>
-      </c>
-      <c r="S19" t="s">
-        <v>167</v>
-      </c>
-      <c r="T19" s="29">
-        <v>0.88666250182715201</v>
-      </c>
-      <c r="U19" s="29">
-        <v>0.66551349108328295</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" t="s">
-        <v>165</v>
-      </c>
-      <c r="F20" s="29">
-        <v>0.89923420307857005</v>
-      </c>
-      <c r="G20" s="29">
-        <v>0.61090758862156402</v>
-      </c>
-      <c r="K20" t="s">
-        <v>108</v>
-      </c>
-      <c r="L20" t="s">
-        <v>166</v>
-      </c>
-      <c r="M20" s="29">
-        <v>0.89446852137861699</v>
-      </c>
-      <c r="N20" s="29">
-        <v>0.54879653310507204</v>
-      </c>
-      <c r="R20" t="s">
-        <v>108</v>
-      </c>
-      <c r="S20" t="s">
-        <v>167</v>
-      </c>
-      <c r="T20" s="29">
-        <v>0.90677903919464797</v>
-      </c>
-      <c r="U20" s="29">
-        <v>0.56723106078313701</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D21" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="F21" s="30">
-        <v>0.75062817903302104</v>
-      </c>
-      <c r="G21" s="30">
-        <v>0.57410215464043102</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="M21" s="30">
-        <v>0.74328715969825698</v>
-      </c>
-      <c r="N21" s="30">
-        <v>0.58330816742934999</v>
-      </c>
-      <c r="R21" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="S21" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="T21" s="30">
-        <v>0.73878706838590102</v>
-      </c>
-      <c r="U21" s="30">
-        <v>0.58579075036319195</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" t="s">
-        <v>165</v>
-      </c>
-      <c r="F22" s="29">
-        <v>0.99429083083646497</v>
-      </c>
-      <c r="G22" s="29">
-        <v>0.69642697039286094</v>
-      </c>
-      <c r="K22" t="s">
-        <v>129</v>
-      </c>
-      <c r="L22" t="s">
-        <v>166</v>
-      </c>
-      <c r="M22" s="29">
-        <v>0.99429960199709999</v>
-      </c>
-      <c r="N22" s="29">
-        <v>0.69765111125545598</v>
-      </c>
-      <c r="R22" t="s">
-        <v>129</v>
-      </c>
-      <c r="S22" t="s">
-        <v>167</v>
-      </c>
-      <c r="T22" s="29">
-        <v>0.99432792691151195</v>
-      </c>
-      <c r="U22" s="29">
-        <v>0.69614519564781496</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" t="s">
-        <v>89</v>
-      </c>
-      <c r="K24" t="s">
-        <v>83</v>
-      </c>
-      <c r="L24" t="s">
-        <v>84</v>
-      </c>
-      <c r="M24" t="s">
-        <v>88</v>
-      </c>
-      <c r="N24" t="s">
-        <v>89</v>
-      </c>
-      <c r="R24" t="s">
-        <v>83</v>
-      </c>
-      <c r="S24" t="s">
-        <v>84</v>
-      </c>
-      <c r="T24" t="s">
-        <v>88</v>
-      </c>
-      <c r="U24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" t="s">
-        <v>168</v>
-      </c>
-      <c r="F25" s="29">
-        <v>0.49012835976363001</v>
-      </c>
-      <c r="G25" s="29">
-        <v>0.47371632677784697</v>
-      </c>
-      <c r="I25" t="s">
-        <v>85</v>
-      </c>
-      <c r="J25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K25" t="s">
-        <v>90</v>
-      </c>
-      <c r="L25" t="s">
-        <v>169</v>
-      </c>
-      <c r="M25" s="29">
-        <v>0.49846330047940002</v>
-      </c>
-      <c r="N25" s="29">
-        <v>0.483032322839067</v>
-      </c>
-      <c r="P25" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>87</v>
-      </c>
-      <c r="R25" t="s">
-        <v>90</v>
-      </c>
-      <c r="S25" t="s">
-        <v>170</v>
-      </c>
-      <c r="T25" s="29">
-        <v>0.48714143031490598</v>
-      </c>
-      <c r="U25" s="29">
-        <v>0.47007113459543898</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" t="s">
-        <v>168</v>
-      </c>
-      <c r="F26" s="29">
-        <v>0.490128274346809</v>
-      </c>
-      <c r="G26" s="29">
-        <v>0.47373256910484801</v>
-      </c>
-      <c r="I26" t="s">
-        <v>86</v>
-      </c>
-      <c r="J26" t="s">
-        <v>38</v>
-      </c>
-      <c r="K26" t="s">
-        <v>91</v>
-      </c>
-      <c r="L26" t="s">
-        <v>169</v>
-      </c>
-      <c r="M26" s="29">
-        <v>0.49846319715531801</v>
-      </c>
-      <c r="N26" s="29">
-        <v>0.48304625066863699</v>
-      </c>
-      <c r="P26" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>38</v>
-      </c>
-      <c r="R26" t="s">
-        <v>91</v>
-      </c>
-      <c r="S26" t="s">
-        <v>170</v>
-      </c>
-      <c r="T26" s="29">
-        <v>0.48714135108494699</v>
-      </c>
-      <c r="U26" s="29">
-        <v>0.470089145209862</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27">
-        <v>1000</v>
-      </c>
-      <c r="D27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" t="s">
-        <v>168</v>
-      </c>
-      <c r="F27" s="29">
-        <v>0.99627671445931398</v>
-      </c>
-      <c r="G27" s="29">
-        <v>0.635086050005359</v>
-      </c>
-      <c r="I27" t="s">
-        <v>110</v>
-      </c>
-      <c r="J27">
-        <v>1000</v>
-      </c>
-      <c r="K27" t="s">
-        <v>92</v>
-      </c>
-      <c r="L27" t="s">
-        <v>169</v>
-      </c>
-      <c r="M27" s="29">
-        <v>0.99626402023320204</v>
-      </c>
-      <c r="N27" s="29">
-        <v>0.63437806347826697</v>
-      </c>
-      <c r="P27" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q27">
-        <v>1000</v>
-      </c>
-      <c r="R27" t="s">
-        <v>92</v>
-      </c>
-      <c r="S27" t="s">
-        <v>170</v>
-      </c>
-      <c r="T27" s="29">
-        <v>0.99627671446028698</v>
-      </c>
-      <c r="U27" s="29">
-        <v>0.64224748927123598</v>
-      </c>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" t="s">
-        <v>168</v>
-      </c>
-      <c r="F28" s="29">
-        <v>-3.01102494685021E-2</v>
-      </c>
-      <c r="G28" s="29">
-        <v>-3.7197185113801601E-2</v>
-      </c>
-      <c r="I28" t="s">
-        <v>95</v>
-      </c>
-      <c r="J28">
-        <v>2</v>
-      </c>
-      <c r="K28" t="s">
-        <v>94</v>
-      </c>
-      <c r="L28" t="s">
-        <v>169</v>
-      </c>
-      <c r="M28" s="29">
-        <v>-0.29312825017593802</v>
-      </c>
-      <c r="N28" s="29">
-        <v>-0.30595044717640502</v>
-      </c>
-      <c r="P28" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q28">
-        <v>3</v>
-      </c>
-      <c r="R28" t="s">
-        <v>94</v>
-      </c>
-      <c r="S28" t="s">
-        <v>170</v>
-      </c>
-      <c r="T28" s="29">
-        <v>-0.230069096770602</v>
-      </c>
-      <c r="U28" s="29">
-        <v>-0.24328613673032901</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" t="s">
-        <v>168</v>
-      </c>
-      <c r="F29" s="29">
-        <v>0</v>
-      </c>
-      <c r="G29" s="29">
-        <v>-1.44174588003322E-3</v>
-      </c>
-      <c r="K29" t="s">
-        <v>96</v>
-      </c>
-      <c r="L29" t="s">
-        <v>169</v>
-      </c>
-      <c r="M29" s="29">
-        <v>0</v>
-      </c>
-      <c r="N29" s="29">
-        <v>-1.44174588003322E-3</v>
-      </c>
-      <c r="R29" t="s">
-        <v>96</v>
-      </c>
-      <c r="S29" t="s">
-        <v>170</v>
-      </c>
-      <c r="T29" s="29">
-        <v>0</v>
-      </c>
-      <c r="U29" s="29">
-        <v>-1.44174588003322E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" t="s">
-        <v>168</v>
-      </c>
-      <c r="F30" s="29">
-        <v>0</v>
-      </c>
-      <c r="G30" s="29">
-        <v>-1.44174588003322E-3</v>
-      </c>
-      <c r="K30" t="s">
-        <v>97</v>
-      </c>
-      <c r="L30" t="s">
-        <v>169</v>
-      </c>
-      <c r="M30" s="29">
-        <v>0</v>
-      </c>
-      <c r="N30" s="29">
-        <v>-1.44174588003322E-3</v>
-      </c>
-      <c r="R30" t="s">
-        <v>97</v>
-      </c>
-      <c r="S30" t="s">
-        <v>170</v>
-      </c>
-      <c r="T30" s="29">
-        <v>0</v>
-      </c>
-      <c r="U30" s="29">
-        <v>-1.44174588003322E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" t="s">
-        <v>168</v>
-      </c>
-      <c r="F31" s="29">
-        <v>0.48694827332284601</v>
-      </c>
-      <c r="G31" s="29">
-        <v>0.47169556241466398</v>
-      </c>
-      <c r="K31" t="s">
-        <v>98</v>
-      </c>
-      <c r="L31" t="s">
-        <v>169</v>
-      </c>
-      <c r="M31" s="29">
-        <v>0.49547872969779699</v>
-      </c>
-      <c r="N31" s="29">
-        <v>0.48302024400472299</v>
-      </c>
-      <c r="R31" t="s">
-        <v>98</v>
-      </c>
-      <c r="S31" t="s">
-        <v>170</v>
-      </c>
-      <c r="T31" s="29">
-        <v>0.48372822665286802</v>
-      </c>
-      <c r="U31" s="29">
-        <v>0.46663174668004398</v>
-      </c>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32" t="s">
-        <v>168</v>
-      </c>
-      <c r="F32" s="29">
-        <v>0.76969622384003999</v>
-      </c>
-      <c r="G32" s="29">
-        <v>0.62149768731795596</v>
-      </c>
-      <c r="K32" t="s">
-        <v>99</v>
-      </c>
-      <c r="L32" t="s">
-        <v>169</v>
-      </c>
-      <c r="M32" s="29">
-        <v>0.76522088642865804</v>
-      </c>
-      <c r="N32" s="29">
-        <v>0.61709477874729901</v>
-      </c>
-      <c r="R32" t="s">
-        <v>99</v>
-      </c>
-      <c r="S32" t="s">
-        <v>170</v>
-      </c>
-      <c r="T32" s="29">
-        <v>0.74638275837430701</v>
-      </c>
-      <c r="U32" s="29">
-        <v>0.61114992730780004</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" t="s">
-        <v>168</v>
-      </c>
-      <c r="F33" s="29">
-        <v>0.48142197875806197</v>
-      </c>
-      <c r="G33" s="29">
-        <v>0.46338897855135402</v>
-      </c>
-      <c r="K33" t="s">
-        <v>100</v>
-      </c>
-      <c r="L33" t="s">
-        <v>169</v>
-      </c>
-      <c r="M33" s="29">
-        <v>0.49144467652213902</v>
-      </c>
-      <c r="N33" s="29">
-        <v>0.477579981952727</v>
-      </c>
-      <c r="R33" t="s">
-        <v>100</v>
-      </c>
-      <c r="S33" t="s">
-        <v>170</v>
-      </c>
-      <c r="T33" s="29">
-        <v>0.47798016946185801</v>
-      </c>
-      <c r="U33" s="29">
-        <v>0.46488997340453198</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>101</v>
-      </c>
-      <c r="E34" t="s">
-        <v>168</v>
-      </c>
-      <c r="F34" s="29">
-        <v>0.76721920140549704</v>
-      </c>
-      <c r="G34" s="29">
-        <v>0.62060596596772599</v>
-      </c>
-      <c r="K34" t="s">
-        <v>101</v>
-      </c>
-      <c r="L34" t="s">
-        <v>169</v>
-      </c>
-      <c r="M34" s="29">
-        <v>0.762750895221876</v>
-      </c>
-      <c r="N34" s="29">
-        <v>0.61583721805962</v>
-      </c>
-      <c r="R34" t="s">
-        <v>101</v>
-      </c>
-      <c r="S34" t="s">
-        <v>170</v>
-      </c>
-      <c r="T34" s="29">
-        <v>0.74279541441555397</v>
-      </c>
-      <c r="U34" s="29">
-        <v>0.60904560879622704</v>
-      </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" t="s">
-        <v>168</v>
-      </c>
-      <c r="F35" s="29">
-        <v>0.72187740125135502</v>
-      </c>
-      <c r="G35" s="29">
-        <v>0.54957361940788096</v>
-      </c>
-      <c r="K35" t="s">
-        <v>102</v>
-      </c>
-      <c r="L35" t="s">
-        <v>169</v>
-      </c>
-      <c r="M35" s="29">
-        <v>0.719264463945821</v>
-      </c>
-      <c r="N35" s="29">
-        <v>0.54348101337518195</v>
-      </c>
-      <c r="R35" t="s">
-        <v>102</v>
-      </c>
-      <c r="S35" t="s">
-        <v>170</v>
-      </c>
-      <c r="T35" s="29">
-        <v>0.71858263395056199</v>
-      </c>
-      <c r="U35" s="29">
-        <v>0.55400173800651797</v>
-      </c>
-    </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>103</v>
-      </c>
-      <c r="E36" t="s">
-        <v>168</v>
-      </c>
-      <c r="F36" s="29">
-        <v>0.54309028123609004</v>
-      </c>
-      <c r="G36" s="29">
-        <v>0.418730311045454</v>
-      </c>
-      <c r="K36" t="s">
-        <v>103</v>
-      </c>
-      <c r="L36" t="s">
-        <v>169</v>
-      </c>
-      <c r="M36" s="29">
-        <v>0.53258127458231697</v>
-      </c>
-      <c r="N36" s="29">
-        <v>0.40722862640784602</v>
-      </c>
-      <c r="R36" t="s">
-        <v>103</v>
-      </c>
-      <c r="S36" t="s">
-        <v>170</v>
-      </c>
-      <c r="T36" s="29">
-        <v>0.53621391490827097</v>
-      </c>
-      <c r="U36" s="29">
-        <v>0.40763008126771899</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" t="s">
-        <v>168</v>
-      </c>
-      <c r="F37" s="29">
-        <v>0.61615673197635601</v>
-      </c>
-      <c r="G37" s="29">
-        <v>0.51878558733127</v>
-      </c>
-      <c r="K37" t="s">
-        <v>104</v>
-      </c>
-      <c r="L37" t="s">
-        <v>169</v>
-      </c>
-      <c r="M37" s="29">
-        <v>0.61212913699249505</v>
-      </c>
-      <c r="N37" s="29">
-        <v>0.51710490879306203</v>
-      </c>
-      <c r="R37" t="s">
-        <v>104</v>
-      </c>
-      <c r="S37" t="s">
-        <v>170</v>
-      </c>
-      <c r="T37" s="29">
-        <v>0.61452140155167601</v>
-      </c>
-      <c r="U37" s="29">
-        <v>0.51945629077703503</v>
-      </c>
-    </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38" t="s">
-        <v>168</v>
-      </c>
-      <c r="F38" s="29">
-        <v>0.58291979842286801</v>
-      </c>
-      <c r="G38" s="29">
-        <v>0.51765653645197596</v>
-      </c>
-      <c r="K38" t="s">
-        <v>105</v>
-      </c>
-      <c r="L38" t="s">
-        <v>169</v>
-      </c>
-      <c r="M38" s="29">
-        <v>0.57786563348616904</v>
-      </c>
-      <c r="N38" s="29">
-        <v>0.50903141636857296</v>
-      </c>
-      <c r="R38" t="s">
-        <v>105</v>
-      </c>
-      <c r="S38" t="s">
-        <v>170</v>
-      </c>
-      <c r="T38" s="29">
-        <v>0.57931921363568895</v>
-      </c>
-      <c r="U38" s="29">
-        <v>0.51159946148804103</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" t="s">
-        <v>168</v>
-      </c>
-      <c r="F39" s="29">
-        <v>0.931795809487306</v>
-      </c>
-      <c r="G39" s="29">
-        <v>0.67797114088814803</v>
-      </c>
-      <c r="K39" t="s">
-        <v>106</v>
-      </c>
-      <c r="L39" t="s">
-        <v>169</v>
-      </c>
-      <c r="M39" s="29">
-        <v>0.93357223481919904</v>
-      </c>
-      <c r="N39" s="29">
-        <v>0.68582456160324001</v>
-      </c>
-      <c r="R39" t="s">
-        <v>106</v>
-      </c>
-      <c r="S39" t="s">
-        <v>170</v>
-      </c>
-      <c r="T39" s="29">
-        <v>0.926392883493251</v>
-      </c>
-      <c r="U39" s="29">
-        <v>0.67400855970551599</v>
-      </c>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" t="s">
-        <v>168</v>
-      </c>
-      <c r="F40" s="29">
-        <v>0.85705126059677395</v>
-      </c>
-      <c r="G40" s="29">
-        <v>0.65052259305209104</v>
-      </c>
-      <c r="K40" t="s">
-        <v>107</v>
-      </c>
-      <c r="L40" t="s">
-        <v>169</v>
-      </c>
-      <c r="M40" s="29">
-        <v>0.86044417170778797</v>
-      </c>
-      <c r="N40" s="29">
-        <v>0.64993234628539598</v>
-      </c>
-      <c r="R40" t="s">
-        <v>107</v>
-      </c>
-      <c r="S40" t="s">
-        <v>170</v>
-      </c>
-      <c r="T40" s="29">
-        <v>0.85615127511224398</v>
-      </c>
-      <c r="U40" s="29">
-        <v>0.65878356642550695</v>
-      </c>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>108</v>
-      </c>
-      <c r="E41" t="s">
-        <v>168</v>
-      </c>
-      <c r="F41" s="29">
-        <v>0.93126345338023298</v>
-      </c>
-      <c r="G41" s="29">
-        <v>0.55742661681734196</v>
-      </c>
-      <c r="K41" t="s">
-        <v>108</v>
-      </c>
-      <c r="L41" t="s">
-        <v>169</v>
-      </c>
-      <c r="M41" s="29">
-        <v>0.92509863983972696</v>
-      </c>
-      <c r="N41" s="29">
-        <v>0.55528696002547495</v>
-      </c>
-      <c r="R41" t="s">
-        <v>108</v>
-      </c>
-      <c r="S41" t="s">
-        <v>170</v>
-      </c>
-      <c r="T41" s="29">
-        <v>0.92743253914388102</v>
-      </c>
-      <c r="U41" s="29">
-        <v>0.545568632687912</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D42" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F42" s="30">
-        <v>0.77336457171491502</v>
-      </c>
-      <c r="G42" s="30">
-        <v>0.61078518958380301</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="L42" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="M42" s="30">
-        <v>0.77468351808231595</v>
-      </c>
-      <c r="N42" s="30">
-        <v>0.60778173573781702</v>
-      </c>
-      <c r="R42" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="S42" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="T42" s="30">
-        <v>0.77598832751118796</v>
-      </c>
-      <c r="U42" s="30">
-        <v>0.60969464718046296</v>
-      </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>129</v>
-      </c>
-      <c r="E43" t="s">
-        <v>168</v>
-      </c>
-      <c r="F43" s="29">
-        <v>0.99216350785431995</v>
-      </c>
-      <c r="G43" s="29">
-        <v>0.68809928018199495</v>
-      </c>
-      <c r="K43" t="s">
-        <v>129</v>
-      </c>
-      <c r="L43" t="s">
-        <v>169</v>
-      </c>
-      <c r="M43" s="29">
-        <v>0.99179670015185495</v>
-      </c>
-      <c r="N43" s="29">
-        <v>0.71304988144074799</v>
-      </c>
-      <c r="R43" t="s">
-        <v>129</v>
-      </c>
-      <c r="S43" t="s">
-        <v>170</v>
-      </c>
-      <c r="T43" s="29">
-        <v>0.99176514716032205</v>
-      </c>
-      <c r="U43" s="29">
-        <v>0.69613465861082102</v>
-      </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>83</v>
-      </c>
-      <c r="E45" t="s">
-        <v>84</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" t="s">
-        <v>89</v>
-      </c>
-      <c r="K45" t="s">
-        <v>83</v>
-      </c>
-      <c r="L45" t="s">
-        <v>84</v>
-      </c>
-      <c r="M45" t="s">
-        <v>88</v>
-      </c>
-      <c r="N45" t="s">
-        <v>89</v>
-      </c>
-      <c r="R45" t="s">
-        <v>83</v>
-      </c>
-      <c r="S45" t="s">
-        <v>84</v>
-      </c>
-      <c r="T45" t="s">
-        <v>88</v>
-      </c>
-      <c r="U45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" t="s">
-        <v>90</v>
-      </c>
-      <c r="E46" t="s">
-        <v>171</v>
-      </c>
-      <c r="F46" s="29">
-        <v>3.1742706188091302E-2</v>
-      </c>
-      <c r="G46" s="29">
-        <v>-1.23169872429194E+24</v>
-      </c>
-      <c r="I46" t="s">
-        <v>85</v>
-      </c>
-      <c r="J46" t="s">
-        <v>87</v>
-      </c>
-      <c r="K46" t="s">
-        <v>90</v>
-      </c>
-      <c r="L46" t="s">
-        <v>172</v>
-      </c>
-      <c r="M46" s="29">
-        <v>2.3734208199869902E-2</v>
-      </c>
-      <c r="N46" s="29">
-        <v>-5.1099507987144098E+24</v>
-      </c>
-      <c r="P46" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>87</v>
-      </c>
-      <c r="R46" t="s">
-        <v>90</v>
-      </c>
-      <c r="S46" t="s">
-        <v>173</v>
-      </c>
-      <c r="T46" s="29">
-        <v>2.30338962642739E-2</v>
-      </c>
-      <c r="U46" s="29">
-        <v>-2.5837709044388599E+24</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" t="s">
-        <v>91</v>
-      </c>
-      <c r="E47" t="s">
-        <v>171</v>
-      </c>
-      <c r="F47" s="29">
-        <v>3.6172800924308898E-2</v>
-      </c>
-      <c r="G47" s="29">
-        <v>1.0119731150126101E-2</v>
-      </c>
-      <c r="I47" t="s">
-        <v>86</v>
-      </c>
-      <c r="J47" t="s">
-        <v>72</v>
-      </c>
-      <c r="K47" t="s">
-        <v>91</v>
-      </c>
-      <c r="L47" t="s">
-        <v>172</v>
-      </c>
-      <c r="M47" s="29">
-        <v>2.6322080729209801E-2</v>
-      </c>
-      <c r="N47" s="29">
-        <v>-5.8856346237755102E-3</v>
-      </c>
-      <c r="P47" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>72</v>
-      </c>
-      <c r="R47" t="s">
-        <v>91</v>
-      </c>
-      <c r="S47" t="s">
-        <v>173</v>
-      </c>
-      <c r="T47" s="29">
-        <v>2.63899396041282E-2</v>
-      </c>
-      <c r="U47" s="29">
-        <v>-8.1662139871177195E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" t="s">
-        <v>171</v>
-      </c>
-      <c r="F48" s="29">
-        <v>5.0614846784363697E-2</v>
-      </c>
-      <c r="G48" s="29">
-        <v>2.0629667084059899E-2</v>
-      </c>
-      <c r="I48" t="s">
-        <v>95</v>
-      </c>
-      <c r="J48">
-        <v>2</v>
-      </c>
-      <c r="K48" t="s">
-        <v>92</v>
-      </c>
-      <c r="L48" t="s">
-        <v>172</v>
-      </c>
-      <c r="M48" s="29">
-        <v>3.8295732293910499E-2</v>
-      </c>
-      <c r="N48" s="29">
-        <v>1.65591591772303E-2</v>
-      </c>
-      <c r="P48" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q48">
-        <v>3</v>
-      </c>
-      <c r="R48" t="s">
-        <v>92</v>
-      </c>
-      <c r="S48" t="s">
-        <v>173</v>
-      </c>
-      <c r="T48" s="29">
-        <v>3.9954408790929402E-2</v>
-      </c>
-      <c r="U48" s="29">
-        <v>1.41040848319795E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>94</v>
-      </c>
-      <c r="E49" t="s">
-        <v>171</v>
-      </c>
-      <c r="F49" s="29">
-        <v>-1.2892045022504699</v>
-      </c>
-      <c r="G49" s="29">
-        <v>-1.3081826941672401</v>
-      </c>
-      <c r="K49" t="s">
-        <v>94</v>
-      </c>
-      <c r="L49" t="s">
-        <v>172</v>
-      </c>
-      <c r="M49" s="29">
-        <v>-3.8360516210011402</v>
-      </c>
-      <c r="N49" s="29">
-        <v>-3.5493789140993699</v>
-      </c>
-      <c r="R49" t="s">
-        <v>94</v>
-      </c>
-      <c r="S49" t="s">
-        <v>173</v>
-      </c>
-      <c r="T49" s="29">
-        <v>-3.89310780956222</v>
-      </c>
-      <c r="U49" s="29">
-        <v>-3.5178691826364199</v>
-      </c>
-    </row>
-    <row r="50" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
-        <v>96</v>
-      </c>
-      <c r="E50" t="s">
-        <v>171</v>
-      </c>
-      <c r="F50" s="29">
-        <v>0</v>
-      </c>
-      <c r="G50" s="29">
-        <v>-1.44174588003322E-3</v>
-      </c>
-      <c r="K50" t="s">
-        <v>96</v>
-      </c>
-      <c r="L50" t="s">
-        <v>172</v>
-      </c>
-      <c r="M50" s="29">
-        <v>0</v>
-      </c>
-      <c r="N50" s="29">
-        <v>-1.44174588003322E-3</v>
-      </c>
-      <c r="R50" t="s">
-        <v>96</v>
-      </c>
-      <c r="S50" t="s">
-        <v>173</v>
-      </c>
-      <c r="T50" s="29">
-        <v>0</v>
-      </c>
-      <c r="U50" s="29">
-        <v>-1.44174588003322E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
-        <v>97</v>
-      </c>
-      <c r="E51" t="s">
-        <v>171</v>
-      </c>
-      <c r="F51" s="29">
-        <v>0</v>
-      </c>
-      <c r="G51" s="29">
-        <v>-1.44174588003322E-3</v>
-      </c>
-      <c r="K51" t="s">
-        <v>97</v>
-      </c>
-      <c r="L51" t="s">
-        <v>172</v>
-      </c>
-      <c r="M51" s="29">
-        <v>0</v>
-      </c>
-      <c r="N51" s="29">
-        <v>-1.44174588003322E-3</v>
-      </c>
-      <c r="R51" t="s">
-        <v>97</v>
-      </c>
-      <c r="S51" t="s">
-        <v>173</v>
-      </c>
-      <c r="T51" s="29">
-        <v>0</v>
-      </c>
-      <c r="U51" s="29">
-        <v>-1.44174588003322E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>98</v>
-      </c>
-      <c r="E52" t="s">
-        <v>171</v>
-      </c>
-      <c r="F52" s="29">
-        <v>-68662202932.102303</v>
-      </c>
-      <c r="G52" s="29">
-        <v>-1733313805.2502999</v>
-      </c>
-      <c r="K52" t="s">
-        <v>98</v>
-      </c>
-      <c r="L52" t="s">
-        <v>172</v>
-      </c>
-      <c r="M52" s="29">
-        <v>-8544149945.3718204</v>
-      </c>
-      <c r="N52" s="29">
-        <v>-1179432336.82688</v>
-      </c>
-      <c r="R52" t="s">
-        <v>98</v>
-      </c>
-      <c r="S52" t="s">
-        <v>173</v>
-      </c>
-      <c r="T52" s="29">
-        <v>-357631.68684933899</v>
-      </c>
-      <c r="U52" s="29">
-        <v>-130008.55180255701</v>
-      </c>
-    </row>
-    <row r="53" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
-        <v>99</v>
-      </c>
-      <c r="E53" t="s">
-        <v>171</v>
-      </c>
-      <c r="F53" s="29">
-        <v>3.0238199127882601E-2</v>
-      </c>
-      <c r="G53" s="29">
-        <v>5.5387287685294299E-3</v>
-      </c>
-      <c r="K53" t="s">
-        <v>99</v>
-      </c>
-      <c r="L53" t="s">
-        <v>172</v>
-      </c>
-      <c r="M53" s="29">
-        <v>2.08160747621494E-2</v>
-      </c>
-      <c r="N53" s="29">
-        <v>1.8775726752830501E-3</v>
-      </c>
-      <c r="R53" t="s">
-        <v>99</v>
-      </c>
-      <c r="S53" t="s">
-        <v>173</v>
-      </c>
-      <c r="T53" s="29">
-        <v>2.1273460044526599E-2</v>
-      </c>
-      <c r="U53" s="29">
-        <v>1.6684750831594799E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
-        <v>100</v>
-      </c>
-      <c r="E54" t="s">
-        <v>171</v>
-      </c>
-      <c r="F54" s="29">
-        <v>2.2611044590684099E-2</v>
-      </c>
-      <c r="G54" s="29">
-        <v>-9.5553241663371494E-3</v>
-      </c>
-      <c r="K54" t="s">
-        <v>100</v>
-      </c>
-      <c r="L54" t="s">
-        <v>172</v>
-      </c>
-      <c r="M54" s="29">
-        <v>1.5670981870255899E-2</v>
-      </c>
-      <c r="N54" s="29">
-        <v>-1.7546177423463101E-2</v>
-      </c>
-      <c r="R54" t="s">
-        <v>100</v>
-      </c>
-      <c r="S54" t="s">
-        <v>173</v>
-      </c>
-      <c r="T54" s="29">
-        <v>1.40189230343164E-2</v>
-      </c>
-      <c r="U54" s="29">
-        <v>-3.5838361607616998E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
-        <v>101</v>
-      </c>
-      <c r="E55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F55" s="29">
-        <v>3.3272185749344499E-2</v>
-      </c>
-      <c r="G55" s="29">
-        <v>5.3913785420492298E-3</v>
-      </c>
-      <c r="K55" t="s">
-        <v>101</v>
-      </c>
-      <c r="L55" t="s">
-        <v>172</v>
-      </c>
-      <c r="M55" s="29">
-        <v>2.3314935283377101E-2</v>
-      </c>
-      <c r="N55" s="29">
-        <v>1.5841452396722E-3</v>
-      </c>
-      <c r="R55" t="s">
-        <v>101</v>
-      </c>
-      <c r="S55" t="s">
-        <v>173</v>
-      </c>
-      <c r="T55" s="29">
-        <v>2.42209611959311E-2</v>
-      </c>
-      <c r="U55" s="29">
-        <v>3.1399884317331499E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
-        <v>102</v>
-      </c>
-      <c r="E56" t="s">
-        <v>171</v>
-      </c>
-      <c r="F56" s="29">
-        <v>-0.15965875968740301</v>
-      </c>
-      <c r="G56" s="29">
-        <v>-0.22205913938267499</v>
-      </c>
-      <c r="K56" t="s">
-        <v>102</v>
-      </c>
-      <c r="L56" t="s">
-        <v>172</v>
-      </c>
-      <c r="M56" s="29">
-        <v>-8.9570965918849402E-2</v>
-      </c>
-      <c r="N56" s="29">
-        <v>-8.9821492129358194E-2</v>
-      </c>
-      <c r="R56" t="s">
-        <v>102</v>
-      </c>
-      <c r="S56" t="s">
-        <v>173</v>
-      </c>
-      <c r="T56" s="29">
-        <v>-0.224843883045966</v>
-      </c>
-      <c r="U56" s="29">
-        <v>-0.28170971058250999</v>
-      </c>
-    </row>
-    <row r="57" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
-        <v>103</v>
-      </c>
-      <c r="E57" t="s">
-        <v>171</v>
-      </c>
-      <c r="F57" s="29">
-        <v>4.3853487055172703E-2</v>
-      </c>
-      <c r="G57" s="29">
-        <v>2.1503522304210598E-2</v>
-      </c>
-      <c r="K57" t="s">
-        <v>103</v>
-      </c>
-      <c r="L57" t="s">
-        <v>172</v>
-      </c>
-      <c r="M57" s="29">
-        <v>3.1741746635251998E-2</v>
-      </c>
-      <c r="N57" s="29">
-        <v>1.1049796914640499E-2</v>
-      </c>
-      <c r="R57" t="s">
-        <v>103</v>
-      </c>
-      <c r="S57" t="s">
-        <v>173</v>
-      </c>
-      <c r="T57" s="29">
-        <v>3.1654921742046503E-2</v>
-      </c>
-      <c r="U57" s="29">
-        <v>1.2507654494056299E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E58" t="s">
-        <v>171</v>
-      </c>
-      <c r="F58" s="29">
-        <v>4.2850699333475503E-2</v>
-      </c>
-      <c r="G58" s="29">
-        <v>2.2957818002020701E-2</v>
-      </c>
-      <c r="K58" t="s">
-        <v>104</v>
-      </c>
-      <c r="L58" t="s">
-        <v>172</v>
-      </c>
-      <c r="M58" s="29">
-        <v>3.06915043752004E-2</v>
-      </c>
-      <c r="N58" s="29">
-        <v>1.51307312087167E-2</v>
-      </c>
-      <c r="R58" t="s">
-        <v>104</v>
-      </c>
-      <c r="S58" t="s">
-        <v>173</v>
-      </c>
-      <c r="T58" s="29">
-        <v>3.0136127332571198E-2</v>
-      </c>
-      <c r="U58" s="29">
-        <v>1.47681403851665E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
-        <v>105</v>
-      </c>
-      <c r="E59" t="s">
-        <v>171</v>
-      </c>
-      <c r="F59" s="29">
-        <v>4.3846413517363098E-2</v>
-      </c>
-      <c r="G59" s="29">
-        <v>2.1245331308876101E-2</v>
-      </c>
-      <c r="K59" t="s">
-        <v>105</v>
-      </c>
-      <c r="L59" t="s">
-        <v>172</v>
-      </c>
-      <c r="M59" s="29">
-        <v>3.2154321471008301E-2</v>
-      </c>
-      <c r="N59" s="29">
-        <v>1.21292279172564E-2</v>
-      </c>
-      <c r="R59" t="s">
-        <v>105</v>
-      </c>
-      <c r="S59" t="s">
-        <v>173</v>
-      </c>
-      <c r="T59" s="29">
-        <v>3.1207681964590801E-2</v>
-      </c>
-      <c r="U59" s="29">
-        <v>1.5684055397754498E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
-        <v>106</v>
-      </c>
-      <c r="E60" t="s">
-        <v>171</v>
-      </c>
-      <c r="F60" s="29">
-        <v>4.8806775964474601E-2</v>
-      </c>
-      <c r="G60" s="29">
-        <v>1.98238540609092E-2</v>
-      </c>
-      <c r="K60" t="s">
-        <v>106</v>
-      </c>
-      <c r="L60" t="s">
-        <v>172</v>
-      </c>
-      <c r="M60" s="29">
-        <v>3.6692855947232497E-2</v>
-      </c>
-      <c r="N60" s="29">
-        <v>1.4336173299455199E-2</v>
-      </c>
-      <c r="R60" t="s">
-        <v>106</v>
-      </c>
-      <c r="S60" t="s">
-        <v>173</v>
-      </c>
-      <c r="T60" s="29">
-        <v>3.6500009352305698E-2</v>
-      </c>
-      <c r="U60" s="29">
-        <v>9.8764650427063602E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
-        <v>107</v>
-      </c>
-      <c r="E61" t="s">
-        <v>171</v>
-      </c>
-      <c r="F61" s="29">
-        <v>3.11574259844563E-2</v>
-      </c>
-      <c r="G61" s="29">
-        <v>1.68156859592106E-2</v>
-      </c>
-      <c r="K61" t="s">
-        <v>107</v>
-      </c>
-      <c r="L61" t="s">
-        <v>172</v>
-      </c>
-      <c r="M61" s="29">
-        <v>1.7308665868136099E-2</v>
-      </c>
-      <c r="N61" s="29">
-        <v>6.8299943164606301E-3</v>
-      </c>
-      <c r="R61" t="s">
-        <v>107</v>
-      </c>
-      <c r="S61" t="s">
-        <v>173</v>
-      </c>
-      <c r="T61" s="29">
-        <v>1.7308665868136099E-2</v>
-      </c>
-      <c r="U61" s="29">
-        <v>6.8299943164606301E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
-        <v>108</v>
-      </c>
-      <c r="E62" t="s">
-        <v>171</v>
-      </c>
-      <c r="F62" s="29">
-        <v>4.2827804225774001E-2</v>
-      </c>
-      <c r="G62" s="29">
-        <v>-3.0150810974321401E-2</v>
-      </c>
-      <c r="K62" t="s">
-        <v>108</v>
-      </c>
-      <c r="L62" t="s">
-        <v>172</v>
-      </c>
-      <c r="M62" s="29">
-        <v>3.0268354486186699E-2</v>
-      </c>
-      <c r="N62" s="29">
-        <v>-0.16159490582132</v>
-      </c>
-      <c r="R62" t="s">
-        <v>108</v>
-      </c>
-      <c r="S62" t="s">
-        <v>173</v>
-      </c>
-      <c r="T62" s="29">
-        <v>3.1831368645831699E-2</v>
-      </c>
-      <c r="U62" s="29">
-        <v>-0.30876485215538901</v>
-      </c>
-    </row>
-    <row r="63" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D63" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F63" s="30">
-        <v>1.6252116945863999E-2</v>
-      </c>
-      <c r="G63" s="30">
-        <v>-7.5312687204546602E-3</v>
-      </c>
-      <c r="K63" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="L63" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="M63" s="30">
-        <v>1.25686092967741E-2</v>
-      </c>
-      <c r="N63" s="30">
-        <v>-3.67440703490691E-3</v>
-      </c>
-      <c r="R63" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="S63" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="T63" s="30">
-        <v>5.7637363127686497E-3</v>
-      </c>
-      <c r="U63" s="30">
-        <v>-1.6299775568960999E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
-        <v>129</v>
-      </c>
-      <c r="E64" t="s">
-        <v>171</v>
-      </c>
-      <c r="F64" s="29">
-        <v>5.06147011141488E-2</v>
-      </c>
-      <c r="G64" s="29">
-        <v>2.0067096328037499E-2</v>
-      </c>
-      <c r="K64" t="s">
-        <v>129</v>
-      </c>
-      <c r="L64" t="s">
-        <v>172</v>
-      </c>
-      <c r="M64" s="29">
-        <v>3.8295568256905499E-2</v>
-      </c>
-      <c r="N64" s="29">
-        <v>1.06016002020914E-2</v>
-      </c>
-      <c r="R64" t="s">
-        <v>129</v>
-      </c>
-      <c r="S64" t="s">
-        <v>173</v>
-      </c>
-      <c r="T64" s="29">
-        <v>3.9954279104247502E-2</v>
-      </c>
-      <c r="U64" s="29">
-        <v>5.8851729518326996E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
-        <v>83</v>
-      </c>
-      <c r="E66" t="s">
-        <v>84</v>
-      </c>
-      <c r="F66" t="s">
-        <v>88</v>
-      </c>
-      <c r="G66" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" t="s">
-        <v>87</v>
-      </c>
-      <c r="D67" t="s">
-        <v>90</v>
-      </c>
-      <c r="E67" t="s">
-        <v>174</v>
-      </c>
-      <c r="F67" s="29">
-        <v>0.25314170077576398</v>
-      </c>
-      <c r="G67" s="29">
-        <v>0.22851283958076499</v>
-      </c>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" t="s">
-        <v>2</v>
-      </c>
-      <c r="D68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E68" t="s">
-        <v>174</v>
-      </c>
-      <c r="F68" s="29">
-        <v>0.25314134636442698</v>
-      </c>
-      <c r="G68" s="29">
-        <v>0.22855135816335301</v>
-      </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>111</v>
-      </c>
-      <c r="C69" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69" t="s">
-        <v>92</v>
-      </c>
-      <c r="E69" t="s">
-        <v>174</v>
-      </c>
-      <c r="F69" s="29">
-        <v>0.99627671445977495</v>
-      </c>
-      <c r="G69" s="29">
-        <v>0.58552448021046999</v>
-      </c>
-    </row>
-    <row r="70" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" t="s">
-        <v>94</v>
-      </c>
-      <c r="E70" t="s">
-        <v>174</v>
-      </c>
-      <c r="F70" s="29">
-        <v>-0.62020868309494503</v>
-      </c>
-      <c r="G70" s="29">
-        <v>-0.57401017019524003</v>
-      </c>
-      <c r="L70" t="s">
-        <v>1</v>
-      </c>
-      <c r="M70" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="N70" s="32"/>
-      <c r="O70" s="32"/>
-    </row>
-    <row r="71" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" t="s">
-        <v>96</v>
-      </c>
-      <c r="E71" t="s">
-        <v>174</v>
-      </c>
-      <c r="F71" s="29">
-        <v>0</v>
-      </c>
-      <c r="G71" s="29">
-        <v>-1.44174588003322E-3</v>
-      </c>
-      <c r="L71" t="s">
-        <v>57</v>
-      </c>
-      <c r="M71" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="N71" s="32"/>
-      <c r="O71" s="32"/>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="D72" t="s">
-        <v>97</v>
-      </c>
-      <c r="E72" t="s">
-        <v>174</v>
-      </c>
-      <c r="F72" s="29">
-        <v>0</v>
-      </c>
-      <c r="G72" s="29">
-        <v>-1.44174588003322E-3</v>
-      </c>
-      <c r="J72" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
-        <v>98</v>
-      </c>
-      <c r="E73" t="s">
-        <v>174</v>
-      </c>
-      <c r="F73" s="29">
-        <v>0.24813275442718499</v>
-      </c>
-      <c r="G73" s="29">
-        <v>0.222556815523484</v>
-      </c>
-      <c r="J73" t="s">
-        <v>9</v>
-      </c>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N73" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O73" s="11"/>
-      <c r="P73" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q73" s="11"/>
-      <c r="R73" s="11"/>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11"/>
-      <c r="U73" s="11"/>
-      <c r="V73" s="11"/>
-      <c r="W73" s="11"/>
-      <c r="X73" s="11"/>
-      <c r="Y73" s="14"/>
-    </row>
-    <row r="74" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D74" t="s">
-        <v>99</v>
-      </c>
-      <c r="E74" t="s">
-        <v>174</v>
-      </c>
-      <c r="F74" s="29">
-        <v>0.76529715829671197</v>
-      </c>
-      <c r="G74" s="29">
-        <v>0.56328075759833296</v>
-      </c>
-      <c r="J74" t="s">
-        <v>14</v>
-      </c>
-      <c r="K74" s="11"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="P74" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q74" s="11"/>
-      <c r="R74" s="11"/>
-      <c r="S74" s="11"/>
-      <c r="T74" s="14"/>
-      <c r="U74" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="V74" s="11"/>
-      <c r="W74" s="11"/>
-      <c r="X74" s="11"/>
-      <c r="Y74" s="14"/>
-    </row>
-    <row r="75" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D75" t="s">
-        <v>100</v>
-      </c>
-      <c r="E75" t="s">
-        <v>174</v>
-      </c>
-      <c r="F75" s="29">
-        <v>0.221672531507316</v>
-      </c>
-      <c r="G75" s="29">
-        <v>0.197578239643075</v>
-      </c>
-      <c r="J75" t="s">
-        <v>19</v>
-      </c>
-      <c r="K75" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L75" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M75" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N75" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="O75" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="P75" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q75" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="R75" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="S75" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="T75" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="U75" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="V75" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="W75" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="X75" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y75" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="D76" t="s">
-        <v>101</v>
-      </c>
-      <c r="E76" t="s">
-        <v>174</v>
-      </c>
-      <c r="F76" s="29">
-        <v>0.75857289954222495</v>
-      </c>
-      <c r="G76" s="29">
-        <v>0.56069453664374302</v>
-      </c>
-      <c r="K76" s="9"/>
-      <c r="L76" s="2">
-        <v>25</v>
-      </c>
-      <c r="M76" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="N76" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O76" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="P76" s="8">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="Q76" s="9">
-        <v>0.32</v>
-      </c>
-      <c r="R76" s="9">
-        <v>0.17</v>
-      </c>
-      <c r="S76" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="T76" s="10">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="U76" s="27">
-        <v>0.51</v>
-      </c>
-      <c r="V76" s="9">
-        <v>0.34</v>
-      </c>
-      <c r="W76" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="X76" s="9">
-        <v>0.26</v>
-      </c>
-      <c r="Y76" s="28">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="D77" t="s">
-        <v>102</v>
-      </c>
-      <c r="E77" t="s">
-        <v>174</v>
-      </c>
-      <c r="F77" s="29">
-        <v>0.67204417522334103</v>
-      </c>
-      <c r="G77" s="29">
-        <v>0.471296024893268</v>
-      </c>
-      <c r="L77" s="3">
-        <v>25</v>
-      </c>
-      <c r="M77" t="s">
-        <v>177</v>
-      </c>
-      <c r="N77" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O77" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="P77" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="Q77">
-        <v>0.3</v>
-      </c>
-      <c r="R77">
-        <v>0.17</v>
-      </c>
-      <c r="S77">
-        <v>0.23</v>
-      </c>
-      <c r="T77" s="7">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="U77">
-        <v>0.44</v>
-      </c>
-      <c r="V77">
-        <v>0.35</v>
-      </c>
-      <c r="W77">
-        <v>0.23</v>
-      </c>
-      <c r="X77">
-        <v>0.26</v>
-      </c>
-      <c r="Y77" s="7">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="D78" t="s">
-        <v>103</v>
-      </c>
-      <c r="E78" t="s">
-        <v>174</v>
-      </c>
-      <c r="F78" s="29">
-        <v>0.46846031221229401</v>
-      </c>
-      <c r="G78" s="29">
-        <v>0.26941412550407701</v>
-      </c>
-      <c r="L78" s="3">
-        <v>25</v>
-      </c>
-      <c r="M78" t="s">
-        <v>178</v>
-      </c>
-      <c r="N78" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O78" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="P78" s="6">
-        <v>0.96</v>
-      </c>
-      <c r="Q78">
-        <v>0.09</v>
-      </c>
-      <c r="R78">
-        <v>0.02</v>
-      </c>
-      <c r="S78">
-        <v>0.06</v>
-      </c>
-      <c r="T78" s="7">
-        <v>0.96</v>
-      </c>
-      <c r="U78">
-        <v>0.72</v>
-      </c>
-      <c r="V78">
-        <v>0.21</v>
-      </c>
-      <c r="W78">
-        <v>0.11</v>
-      </c>
-      <c r="X78">
-        <v>0.12</v>
-      </c>
-      <c r="Y78" s="7">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="D79" t="s">
-        <v>104</v>
-      </c>
-      <c r="E79" t="s">
-        <v>174</v>
-      </c>
-      <c r="F79" s="29">
-        <v>0.58058057626682202</v>
-      </c>
-      <c r="G79" s="29">
-        <v>0.43004553668198098</v>
-      </c>
-      <c r="L79" s="3">
-        <v>25</v>
-      </c>
-      <c r="M79" t="s">
-        <v>179</v>
-      </c>
-      <c r="N79" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O79" t="s">
-        <v>36</v>
-      </c>
-      <c r="P79" s="6">
-        <v>0.85</v>
-      </c>
-      <c r="Q79">
-        <v>0.17</v>
-      </c>
-      <c r="R79">
-        <v>0.06</v>
-      </c>
-      <c r="S79">
-        <v>0.12</v>
-      </c>
-      <c r="T79" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="U79">
-        <v>0.52</v>
-      </c>
-      <c r="V79">
-        <v>0.3</v>
-      </c>
-      <c r="W79">
-        <v>0.19</v>
-      </c>
-      <c r="X79">
-        <v>0.2</v>
-      </c>
-      <c r="Y79" s="7">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="D80" t="s">
-        <v>105</v>
-      </c>
-      <c r="E80" t="s">
-        <v>174</v>
-      </c>
-      <c r="F80" s="29">
-        <v>0.45158028723022797</v>
-      </c>
-      <c r="G80" s="29">
-        <v>0.35735273782149501</v>
-      </c>
-      <c r="L80" s="3">
-        <v>25</v>
-      </c>
-      <c r="M80" t="s">
-        <v>180</v>
-      </c>
-      <c r="N80" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O80" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="P80" s="6">
-        <v>0.66</v>
-      </c>
-      <c r="Q80">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="R80">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="S80">
-        <v>0.21</v>
-      </c>
-      <c r="T80" s="7">
-        <v>0.66</v>
-      </c>
-      <c r="U80">
-        <v>0.54</v>
-      </c>
-      <c r="V80">
-        <v>0.32</v>
-      </c>
-      <c r="W80">
-        <v>0.18</v>
-      </c>
-      <c r="X80">
-        <v>0.25</v>
-      </c>
-      <c r="Y80" s="7">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="81" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D81" t="s">
-        <v>106</v>
-      </c>
-      <c r="E81" t="s">
-        <v>174</v>
-      </c>
-      <c r="F81" s="29">
-        <v>0.96025504682469498</v>
-      </c>
-      <c r="G81" s="29">
-        <v>0.65646705398416005</v>
-      </c>
-      <c r="L81" s="3">
-        <v>25</v>
-      </c>
-      <c r="M81" t="s">
-        <v>181</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O81" t="s">
-        <v>36</v>
-      </c>
-      <c r="P81" s="8">
-        <v>0.66</v>
-      </c>
-      <c r="Q81" s="9">
-        <v>0.27</v>
-      </c>
-      <c r="R81" s="9">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="S81" s="9">
-        <v>0.19</v>
-      </c>
-      <c r="T81" s="10">
-        <v>0.66</v>
-      </c>
-      <c r="U81" s="9">
-        <v>0.42</v>
-      </c>
-      <c r="V81" s="9">
-        <v>0.35</v>
-      </c>
-      <c r="W81" s="9">
-        <v>0.23</v>
-      </c>
-      <c r="X81" s="9">
-        <v>0.26</v>
-      </c>
-      <c r="Y81" s="10">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="82" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D82" t="s">
-        <v>107</v>
-      </c>
-      <c r="E82" t="s">
-        <v>174</v>
-      </c>
-      <c r="F82" s="29">
-        <v>0.89499093006974595</v>
-      </c>
-      <c r="G82" s="29">
-        <v>0.61944224336875298</v>
-      </c>
-    </row>
-    <row r="83" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
-        <v>108</v>
-      </c>
-      <c r="E83" t="s">
-        <v>174</v>
-      </c>
-      <c r="F83" s="29">
-        <v>0.95350736697990601</v>
-      </c>
-      <c r="G83" s="29">
-        <v>0.52725781203086597</v>
-      </c>
-    </row>
-    <row r="84" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D84" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="F84" s="30">
-        <v>0.70393715637665999</v>
-      </c>
-      <c r="G84" s="30">
-        <v>0.50701630188009905</v>
-      </c>
-    </row>
-    <row r="85" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D85" t="s">
-        <v>129</v>
-      </c>
-      <c r="E85" t="s">
-        <v>174</v>
-      </c>
-      <c r="F85" s="29">
-        <v>0.99520988856830594</v>
-      </c>
-      <c r="G85" s="29">
-        <v>0.68024861353047705</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="M70:O70"/>
-    <mergeCell ref="M71:O71"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="11">
+  <tableParts count="7">
+    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
-    <tablePart r:id="rId8"/>
-    <tablePart r:id="rId9"/>
-    <tablePart r:id="rId10"/>
-    <tablePart r:id="rId11"/>
-    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>